--- a/GA_Parameters/ErForPopulationCase.xlsx
+++ b/GA_Parameters/ErForPopulationCase.xlsx
@@ -6,11 +6,11 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pop10" sheetId="2" r:id="rId3"/>
-    <sheet name="pop20" sheetId="3" r:id="rId5"/>
-    <sheet name="pop40" sheetId="4" r:id="rId6"/>
-    <sheet name="pop80" sheetId="5" r:id="rId7"/>
-    <sheet name="pop160" sheetId="6" r:id="rId8"/>
+    <sheet name="Fpop10" sheetId="2" r:id="rId3"/>
+    <sheet name="Fpop20" sheetId="3" r:id="rId5"/>
+    <sheet name="Fpop40" sheetId="4" r:id="rId6"/>
+    <sheet name="Fpop80" sheetId="5" r:id="rId7"/>
+    <sheet name="Fpop160" sheetId="6" r:id="rId8"/>
     <sheet name="Spop10" sheetId="7" r:id="rId9"/>
     <sheet name="Spop20" sheetId="8" r:id="rId10"/>
     <sheet name="Spop40" sheetId="9" r:id="rId11"/>
@@ -2059,45 +2059,45 @@
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="9.7109375" customWidth="true"/>
+    <col min="18" max="18" width="10.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="10.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
     <col min="33" max="33" width="11.7109375" customWidth="true"/>
     <col min="34" max="34" width="11.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
     <col min="38" max="38" width="11.7109375" customWidth="true"/>
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="11.7109375" customWidth="true"/>
-    <col min="41" max="41" width="12.7109375" customWidth="true"/>
-    <col min="42" max="42" width="10.7109375" customWidth="true"/>
+    <col min="41" max="41" width="11.7109375" customWidth="true"/>
+    <col min="42" max="42" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2233,127 +2233,127 @@
         <v>353</v>
       </c>
       <c r="B2" s="0">
-        <v>5.6765468873711526</v>
+        <v>4.4182604066792566</v>
       </c>
       <c r="C2" s="0">
-        <v>3.8807325645664048</v>
+        <v>6.2351910288509966</v>
       </c>
       <c r="D2" s="0">
-        <v>0.74657787327433156</v>
+        <v>3.5264410023926809</v>
       </c>
       <c r="E2" s="0">
-        <v>15.437214983392671</v>
+        <v>4.1720772724187443</v>
       </c>
       <c r="F2" s="0">
-        <v>1.3210869730578261</v>
+        <v>3.7554897652105397</v>
       </c>
       <c r="G2" s="0">
-        <v>13.395254784484209</v>
+        <v>4.152986373016244</v>
       </c>
       <c r="H2" s="0">
-        <v>1.9277721224257387</v>
+        <v>3.6799207913185024</v>
       </c>
       <c r="I2" s="0">
-        <v>2.6944077012762544</v>
+        <v>3.9684057503421561</v>
       </c>
       <c r="J2" s="0">
-        <v>1.7972302371855389</v>
+        <v>3.6230723291564817</v>
       </c>
       <c r="K2" s="0">
-        <v>0.85556330454876028</v>
+        <v>5.215176539104168</v>
       </c>
       <c r="L2" s="0">
-        <v>3.0146109276728073</v>
+        <v>4.196830310316896</v>
       </c>
       <c r="M2" s="0">
-        <v>0.22522106451933571</v>
+        <v>4.1771554787074274</v>
       </c>
       <c r="N2" s="0">
-        <v>3.2591965142998522</v>
+        <v>4.3247891619131247</v>
       </c>
       <c r="O2" s="0">
-        <v>6.8552215301268342</v>
+        <v>5.429998559306684</v>
       </c>
       <c r="P2" s="0">
-        <v>2.4417596542352817</v>
+        <v>3.3103687052834183</v>
       </c>
       <c r="Q2" s="0">
-        <v>1.6075167901785268</v>
+        <v>5.1152321995564458</v>
       </c>
       <c r="R2" s="0">
-        <v>4.0226460906072958</v>
+        <v>5.4352895804178019</v>
       </c>
       <c r="S2" s="0">
-        <v>0.87869365233724483</v>
+        <v>2.6146811349889676</v>
       </c>
       <c r="T2" s="0">
-        <v>2.3968557359054716</v>
+        <v>3.3122056338549188</v>
       </c>
       <c r="U2" s="0">
-        <v>4.335065148062724</v>
+        <v>4.7108926512880736</v>
       </c>
       <c r="V2" s="0">
-        <v>6.2781167860860077</v>
+        <v>4.1470203085697142</v>
       </c>
       <c r="W2" s="0">
-        <v>5.1705773423544699</v>
+        <v>4.4038506381526199</v>
       </c>
       <c r="X2" s="0">
-        <v>8.7876659596071836</v>
+        <v>4.7078353931013304</v>
       </c>
       <c r="Y2" s="0">
-        <v>4.0782085118213356</v>
+        <v>4.3949691630110799</v>
       </c>
       <c r="Z2" s="0">
-        <v>1.6437422529989096</v>
+        <v>5.7007004386432865</v>
       </c>
       <c r="AA2" s="0">
-        <v>4.2198785620824664</v>
+        <v>5.9490622384129335</v>
       </c>
       <c r="AB2" s="0">
-        <v>2.6238897476341529</v>
+        <v>2.6512662901375554</v>
       </c>
       <c r="AC2" s="0">
-        <v>1.9309058686539238</v>
+        <v>5.0596238722953064</v>
       </c>
       <c r="AD2" s="0">
-        <v>0.85604660241384234</v>
+        <v>4.4656738728613039</v>
       </c>
       <c r="AE2" s="0">
-        <v>5.0725467775731792</v>
+        <v>4.6648238563908428</v>
       </c>
       <c r="AF2" s="0">
-        <v>0.55538102905949205</v>
+        <v>4.0150139825891129</v>
       </c>
       <c r="AG2" s="0">
-        <v>1.0797583438654037</v>
+        <v>3.8342745961047187</v>
       </c>
       <c r="AH2" s="0">
-        <v>7.4166078740666022</v>
+        <v>5.1855784368740814</v>
       </c>
       <c r="AI2" s="0">
-        <v>13.624365705390192</v>
+        <v>5.6610946454677293</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.30500150340343024</v>
+        <v>3.5855390910745601</v>
       </c>
       <c r="AK2" s="0">
-        <v>1.2001717292905041</v>
+        <v>8.4920340556683076</v>
       </c>
       <c r="AL2" s="0">
-        <v>2.2554024523776457</v>
+        <v>4.4652495721130538</v>
       </c>
       <c r="AM2" s="0">
-        <v>2.3427387873359309</v>
+        <v>7.634490027032717</v>
       </c>
       <c r="AN2" s="0">
-        <v>4.8944888572943066</v>
+        <v>8.2877009332093881</v>
       </c>
       <c r="AO2" s="0">
-        <v>0.49208594931240923</v>
+        <v>6.1809845060989632</v>
       </c>
       <c r="AP2" s="0">
-        <v>3.7899188795537397</v>
+        <v>4.721531264798303</v>
       </c>
     </row>
     <row r="3">
@@ -2361,127 +2361,127 @@
         <v>354</v>
       </c>
       <c r="B3" s="0">
-        <v>0.57937337510075448</v>
+        <v>0.36925949901151101</v>
       </c>
       <c r="C3" s="0">
-        <v>0.10645290023841061</v>
+        <v>0.38913473468228355</v>
       </c>
       <c r="D3" s="0">
-        <v>0.32367503621590032</v>
+        <v>0.2907385306651491</v>
       </c>
       <c r="E3" s="0">
-        <v>0.15115789124108131</v>
+        <v>0.47301652693170237</v>
       </c>
       <c r="F3" s="0">
-        <v>0.32519149680363885</v>
+        <v>0.3428542101568588</v>
       </c>
       <c r="G3" s="0">
-        <v>0.15909569668456905</v>
+        <v>0.15726465811239479</v>
       </c>
       <c r="H3" s="0">
-        <v>0.060225800010307438</v>
+        <v>0.33510975092458328</v>
       </c>
       <c r="I3" s="0">
-        <v>0.22019184647324833</v>
+        <v>0.26591598825925733</v>
       </c>
       <c r="J3" s="0">
-        <v>0.10889751136224934</v>
+        <v>0.24280448612964331</v>
       </c>
       <c r="K3" s="0">
-        <v>0.20716755919481916</v>
+        <v>0.21397425539542511</v>
       </c>
       <c r="L3" s="0">
-        <v>0.29151633741967564</v>
+        <v>0.30573400924854732</v>
       </c>
       <c r="M3" s="0">
-        <v>0.038772724852660798</v>
+        <v>0.22250413605559671</v>
       </c>
       <c r="N3" s="0">
-        <v>0.32527435763130047</v>
+        <v>0.33964799356302411</v>
       </c>
       <c r="O3" s="0">
-        <v>0.23264275288067895</v>
+        <v>0.30290017655030083</v>
       </c>
       <c r="P3" s="0">
-        <v>0.41169233570025476</v>
+        <v>0.25226264562901457</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.41136206433531369</v>
+        <v>0.56118630037793826</v>
       </c>
       <c r="R3" s="0">
-        <v>0.094180616939830208</v>
+        <v>0.17607532012972962</v>
       </c>
       <c r="S3" s="0">
-        <v>0.02697528672954937</v>
+        <v>0.10681201052019933</v>
       </c>
       <c r="T3" s="0">
-        <v>0.74355444020547645</v>
+        <v>0.44752772489460857</v>
       </c>
       <c r="U3" s="0">
-        <v>0.17523981182076193</v>
+        <v>0.19697981035712134</v>
       </c>
       <c r="V3" s="0">
-        <v>0.18385095390340719</v>
+        <v>0.15950042368911135</v>
       </c>
       <c r="W3" s="0">
-        <v>0.9965441125928316</v>
+        <v>0.18682619818337176</v>
       </c>
       <c r="X3" s="0">
-        <v>0.12496076568139153</v>
+        <v>0.25869716547149912</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.51081725422871427</v>
+        <v>0.18588004902341312</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.75647039478872136</v>
+        <v>0.28488718367278665</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.42782576976398135</v>
+        <v>0.63893334923091705</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.1717196776290314</v>
+        <v>0.19147568152710692</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.14597927858955939</v>
+        <v>0.55692212635813798</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.68012940364877439</v>
+        <v>0.4928352163937077</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.11167185161010855</v>
+        <v>0.48511559145485694</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.34710051265630087</v>
+        <v>0.25075526432834594</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.47574657542211041</v>
+        <v>0.094444976972747535</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.22958086137226105</v>
+        <v>0.33438472537823594</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.43760347285492751</v>
+        <v>0.44668798075443283</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.12303485375972187</v>
+        <v>0.26175051526754889</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.49943227739146512</v>
+        <v>0.17219007501478237</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.29363229331834517</v>
+        <v>0.35464359944782403</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.42350072089308738</v>
+        <v>0.12250146146475518</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.17117394301226771</v>
+        <v>0.30780525802909736</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.10982787845028001</v>
+        <v>0.24203380793677182</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.30533106733519422</v>
+        <v>0.30049933542985852</v>
       </c>
     </row>
   </sheetData>
@@ -2495,43 +2495,43 @@
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="10.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" customWidth="true"/>
+    <col min="7" max="7" width="10.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="12.7109375" customWidth="true"/>
-    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="10.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="12.7109375" customWidth="true"/>
-    <col min="20" max="20" width="12.7109375" customWidth="true"/>
-    <col min="21" max="21" width="10.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="10.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="12.7109375" customWidth="true"/>
-    <col min="26" max="26" width="12.7109375" customWidth="true"/>
-    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="11.7109375" customWidth="true"/>
     <col min="34" max="34" width="11.7109375" customWidth="true"/>
-    <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="10.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
-    <col min="38" max="38" width="12.7109375" customWidth="true"/>
-    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="11.7109375" customWidth="true"/>
+    <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="11.7109375" customWidth="true"/>
     <col min="41" max="41" width="11.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
@@ -2670,127 +2670,127 @@
         <v>397</v>
       </c>
       <c r="B2" s="0">
-        <v>3.2658592737676355</v>
+        <v>1.5999362178719436</v>
       </c>
       <c r="C2" s="0">
-        <v>0.37877464709573971</v>
+        <v>3.3254171500714849</v>
       </c>
       <c r="D2" s="0">
-        <v>1.1691955721427825</v>
+        <v>1.5819360610431883</v>
       </c>
       <c r="E2" s="0">
-        <v>4.8959511505480169</v>
+        <v>2.5998884010443462</v>
       </c>
       <c r="F2" s="0">
-        <v>1.1694932442808346</v>
+        <v>1.9697600810889406</v>
       </c>
       <c r="G2" s="0">
-        <v>0.5565899728215602</v>
+        <v>2.0093412901589276</v>
       </c>
       <c r="H2" s="0">
-        <v>0.0089902606676280916</v>
+        <v>1.5804919174401171</v>
       </c>
       <c r="I2" s="0">
-        <v>4.8679093395019981</v>
+        <v>2.2194664287908825</v>
       </c>
       <c r="J2" s="0">
-        <v>2.8264667182289522</v>
+        <v>1.1897065749506457</v>
       </c>
       <c r="K2" s="0">
-        <v>1.4239160091382763</v>
+        <v>2.1339758431752527</v>
       </c>
       <c r="L2" s="0">
-        <v>0.87406006687594162</v>
+        <v>2.2028886922253204</v>
       </c>
       <c r="M2" s="0">
-        <v>0.565643599090356</v>
+        <v>1.8449130309913999</v>
       </c>
       <c r="N2" s="0">
-        <v>0.21296358636620155</v>
+        <v>2.9687647695837098</v>
       </c>
       <c r="O2" s="0">
-        <v>0.38282961578010682</v>
+        <v>2.5124836722931474</v>
       </c>
       <c r="P2" s="0">
-        <v>5.2569569240116358</v>
+        <v>1.7055451931600016</v>
       </c>
       <c r="Q2" s="0">
-        <v>1.0821819930827261</v>
+        <v>2.6858231071584058</v>
       </c>
       <c r="R2" s="0">
-        <v>0.338621307976119</v>
+        <v>1.8069254220660973</v>
       </c>
       <c r="S2" s="0">
-        <v>0.14324875351541788</v>
+        <v>1.2640579374238579</v>
       </c>
       <c r="T2" s="0">
-        <v>0.90146081411263856</v>
+        <v>2.924518862255399</v>
       </c>
       <c r="U2" s="0">
-        <v>1.3617364595087629</v>
+        <v>2.5804219718529122</v>
       </c>
       <c r="V2" s="0">
-        <v>1.0867872781538401</v>
+        <v>1.6461244314011554</v>
       </c>
       <c r="W2" s="0">
-        <v>1.2595637204300314</v>
+        <v>1.9802938270004229</v>
       </c>
       <c r="X2" s="0">
-        <v>5.6131396784913106</v>
+        <v>2.833421958254994</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.95385433515169071</v>
+        <v>2.3463462628270748</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.95840647726733041</v>
+        <v>1.8730306310519411</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.59038416355760293</v>
+        <v>3.4250795021894969</v>
       </c>
       <c r="AB2" s="0">
-        <v>1.0320773010093798</v>
+        <v>1.6104000763749993</v>
       </c>
       <c r="AC2" s="0">
-        <v>14.334494245716494</v>
+        <v>2.4956605853151173</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.967544361117227</v>
+        <v>3.0632597772958783</v>
       </c>
       <c r="AE2" s="0">
-        <v>0.73249916904984114</v>
+        <v>2.3142847883658804</v>
       </c>
       <c r="AF2" s="0">
-        <v>1.604781312951916</v>
+        <v>2.8124965851241921</v>
       </c>
       <c r="AG2" s="0">
-        <v>0.41006607822442265</v>
+        <v>1.8739187289926029</v>
       </c>
       <c r="AH2" s="0">
-        <v>6.7417684892697194</v>
+        <v>4.0769388657872074</v>
       </c>
       <c r="AI2" s="0">
-        <v>6.1588296324097298</v>
+        <v>2.3761466601304417</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.5890396424529748</v>
+        <v>2.4784705338497428</v>
       </c>
       <c r="AK2" s="0">
-        <v>2.4081414238344712</v>
+        <v>3.2074036864336346</v>
       </c>
       <c r="AL2" s="0">
-        <v>0.10327888485914896</v>
+        <v>2.9771122542447799</v>
       </c>
       <c r="AM2" s="0">
-        <v>0.82145664325286061</v>
+        <v>1.6780741339369603</v>
       </c>
       <c r="AN2" s="0">
-        <v>9.4148671854715147</v>
+        <v>3.4078200158629204</v>
       </c>
       <c r="AO2" s="0">
-        <v>2.6828966353231842</v>
+        <v>2.3543510309712827</v>
       </c>
       <c r="AP2" s="0">
-        <v>2.2786681491627006</v>
+        <v>2.3384224240014184</v>
       </c>
     </row>
     <row r="3">
@@ -2798,127 +2798,127 @@
         <v>398</v>
       </c>
       <c r="B3" s="0">
-        <v>0.46740390713041158</v>
+        <v>0.18909996121851561</v>
       </c>
       <c r="C3" s="0">
-        <v>0.096592623636595404</v>
+        <v>0.34161073877855397</v>
       </c>
       <c r="D3" s="0">
-        <v>0.32083008178624522</v>
+        <v>0.14027967264051072</v>
       </c>
       <c r="E3" s="0">
-        <v>0.68435788888775961</v>
+        <v>0.3785125247677476</v>
       </c>
       <c r="F3" s="0">
-        <v>0.31967405496806089</v>
+        <v>0.25617221212737518</v>
       </c>
       <c r="G3" s="0">
-        <v>0.1869247100456963</v>
+        <v>0.13988800122703429</v>
       </c>
       <c r="H3" s="0">
-        <v>0.07929848868266938</v>
+        <v>0.16513775305202855</v>
       </c>
       <c r="I3" s="0">
-        <v>0.25428310158635026</v>
+        <v>0.17962253383081669</v>
       </c>
       <c r="J3" s="0">
-        <v>0.20410288060831966</v>
+        <v>0.11020939147639508</v>
       </c>
       <c r="K3" s="0">
-        <v>0.030370075586929373</v>
+        <v>0.1496518541670612</v>
       </c>
       <c r="L3" s="0">
-        <v>0.33051631690839156</v>
+        <v>0.27692111268074665</v>
       </c>
       <c r="M3" s="0">
-        <v>0.045318205837639652</v>
+        <v>0.1212983392815553</v>
       </c>
       <c r="N3" s="0">
-        <v>0.30252253989609196</v>
+        <v>0.31698331677000591</v>
       </c>
       <c r="O3" s="0">
-        <v>0.30948802736597236</v>
+        <v>0.32253588048080761</v>
       </c>
       <c r="P3" s="0">
-        <v>0.3077181509046043</v>
+        <v>0.22831603431565378</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.41600205345702784</v>
+        <v>0.47283967585208037</v>
       </c>
       <c r="R3" s="0">
-        <v>0.071379937046767886</v>
+        <v>0.1408651493622865</v>
       </c>
       <c r="S3" s="0">
-        <v>0.052801504255167199</v>
+        <v>0.088125260096380387</v>
       </c>
       <c r="T3" s="0">
-        <v>0.50774429018852862</v>
+        <v>0.37883293911703153</v>
       </c>
       <c r="U3" s="0">
-        <v>0.16062521138355068</v>
+        <v>0.12741266931197684</v>
       </c>
       <c r="V3" s="0">
-        <v>0.030808516117685505</v>
+        <v>0.14985749435027534</v>
       </c>
       <c r="W3" s="0">
-        <v>0.46933899936746426</v>
+        <v>0.087630337641778119</v>
       </c>
       <c r="X3" s="0">
-        <v>0.20999640736174732</v>
+        <v>0.17827790285616399</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.4734405586835671</v>
+        <v>0.10833946989325384</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.2611699318905385</v>
+        <v>0.18225719561819057</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.32276472748338136</v>
+        <v>0.58823094601443471</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.65743021872101226</v>
+        <v>0.16020142454269268</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.15620233448559728</v>
+        <v>0.49150862197699524</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.21647202033501323</v>
+        <v>0.46549937281222764</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.11241151817525759</v>
+        <v>0.37009836088670184</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.30368869460622566</v>
+        <v>0.19986364717916061</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.49524815856517995</v>
+        <v>0.067517480174288505</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.42371254111006218</v>
+        <v>0.19009442211016289</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.4409125771580617</v>
+        <v>0.32624600103985546</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.15606286735465458</v>
+        <v>0.1161678834848979</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.30055204919271183</v>
+        <v>0.13706033120694031</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.2089254710749909</v>
+        <v>0.29620878076780427</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.46113281869998773</v>
+        <v>0.059282458892883971</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.21986713960073717</v>
+        <v>0.17146456978179969</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.51474129348926267</v>
+        <v>0.13348849143365696</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.28957082234089793</v>
+        <v>0.2250902553304682</v>
       </c>
     </row>
   </sheetData>
@@ -2934,41 +2934,41 @@
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="7.28515625" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="7.28515625" customWidth="true"/>
+    <col min="7" max="7" width="10.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="7.28515625" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="8.28515625" customWidth="true"/>
-    <col min="15" max="15" width="8.28515625" customWidth="true"/>
-    <col min="16" max="16" width="9.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="10.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="8.28515625" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="10.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="10.7109375" customWidth="true"/>
-    <col min="30" max="30" width="8.28515625" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
     <col min="33" max="33" width="11.7109375" customWidth="true"/>
-    <col min="34" max="34" width="11.7109375" customWidth="true"/>
+    <col min="34" max="34" width="10.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="10.7109375" customWidth="true"/>
-    <col min="37" max="37" width="10.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
+    <col min="37" max="37" width="11.7109375" customWidth="true"/>
     <col min="38" max="38" width="11.7109375" customWidth="true"/>
-    <col min="39" max="39" width="8.28515625" customWidth="true"/>
+    <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="11.7109375" customWidth="true"/>
     <col min="41" max="41" width="11.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
@@ -3107,127 +3107,127 @@
         <v>441</v>
       </c>
       <c r="B2" s="0">
-        <v>15.744786829452359</v>
+        <v>20.331463518654932</v>
       </c>
       <c r="C2" s="0">
-        <v>13.376919063669568</v>
+        <v>18.76223743650111</v>
       </c>
       <c r="D2" s="0">
-        <v>4.1221573571541015</v>
+        <v>26.563218240838555</v>
       </c>
       <c r="E2" s="0">
-        <v>50</v>
+        <v>27.697676885191218</v>
       </c>
       <c r="F2" s="0">
-        <v>3.8137089031023135</v>
+        <v>19.552180885943546</v>
       </c>
       <c r="G2" s="0">
-        <v>50</v>
+        <v>26.776410297481188</v>
       </c>
       <c r="H2" s="0">
-        <v>16.586146953121638</v>
+        <v>22.891557092384542</v>
       </c>
       <c r="I2" s="0">
-        <v>50</v>
+        <v>22.922226810961401</v>
       </c>
       <c r="J2" s="0">
-        <v>13.853250155075417</v>
+        <v>20.95646251986776</v>
       </c>
       <c r="K2" s="0">
-        <v>6.3453550720579308</v>
+        <v>23.041752542284282</v>
       </c>
       <c r="L2" s="0">
-        <v>27.036806725202386</v>
+        <v>20.05484604606562</v>
       </c>
       <c r="M2" s="0">
-        <v>3.1841342070661827</v>
+        <v>27.879907950606359</v>
       </c>
       <c r="N2" s="0">
-        <v>50</v>
+        <v>25.957562542201693</v>
       </c>
       <c r="O2" s="0">
-        <v>50</v>
+        <v>27.259517791553826</v>
       </c>
       <c r="P2" s="0">
-        <v>12.933685996679047</v>
+        <v>21.781651873597806</v>
       </c>
       <c r="Q2" s="0">
-        <v>9.0062571282539778</v>
+        <v>26.702292667774849</v>
       </c>
       <c r="R2" s="0">
-        <v>16.865693964085835</v>
+        <v>30.433953604946286</v>
       </c>
       <c r="S2" s="0">
-        <v>41.010998438012116</v>
+        <v>27.573475707335277</v>
       </c>
       <c r="T2" s="0">
-        <v>6.1395516461605073</v>
+        <v>30.124173161088159</v>
       </c>
       <c r="U2" s="0">
-        <v>50</v>
+        <v>29.732990254534403</v>
       </c>
       <c r="V2" s="0">
-        <v>8.7984124693229138</v>
+        <v>25.673160652483681</v>
       </c>
       <c r="W2" s="0">
-        <v>3.4662730495978309</v>
+        <v>26.99859746308621</v>
       </c>
       <c r="X2" s="0">
-        <v>17.893155450731747</v>
+        <v>28.681419766759266</v>
       </c>
       <c r="Y2" s="0">
-        <v>14.515358970191233</v>
+        <v>25.92655032017673</v>
       </c>
       <c r="Z2" s="0">
-        <v>4.9743482871686799</v>
+        <v>33.264538158629911</v>
       </c>
       <c r="AA2" s="0">
-        <v>31.4347298384744</v>
+        <v>26.361415470763383</v>
       </c>
       <c r="AB2" s="0">
-        <v>18.295607947824553</v>
+        <v>33.545355937909378</v>
       </c>
       <c r="AC2" s="0">
-        <v>36.954661402761495</v>
+        <v>35.374699297402778</v>
       </c>
       <c r="AD2" s="0">
-        <v>50</v>
+        <v>24.918394747320288</v>
       </c>
       <c r="AE2" s="0">
-        <v>2.6506006267701023</v>
+        <v>31.970947968985975</v>
       </c>
       <c r="AF2" s="0">
-        <v>17.00481675120545</v>
+        <v>30.274410133907789</v>
       </c>
       <c r="AG2" s="0">
-        <v>22.464754553281391</v>
+        <v>26.544058784396434</v>
       </c>
       <c r="AH2" s="0">
-        <v>48.43963551136676</v>
+        <v>28.093684698780319</v>
       </c>
       <c r="AI2" s="0">
-        <v>10.337835481329964</v>
+        <v>36.888998117586077</v>
       </c>
       <c r="AJ2" s="0">
-        <v>7.0044685198801186</v>
+        <v>29.02119198225574</v>
       </c>
       <c r="AK2" s="0">
-        <v>19.460468300580459</v>
+        <v>29.324808975008573</v>
       </c>
       <c r="AL2" s="0">
-        <v>13.839997169061229</v>
+        <v>30.288933388177227</v>
       </c>
       <c r="AM2" s="0">
-        <v>50</v>
+        <v>33.675663665641594</v>
       </c>
       <c r="AN2" s="0">
-        <v>21.327027043268721</v>
+        <v>28.578385932676976</v>
       </c>
       <c r="AO2" s="0">
-        <v>35.163030090090857</v>
+        <v>28.0032490524348</v>
       </c>
       <c r="AP2" s="0">
-        <v>23.101115847550034</v>
+        <v>27.260100558604893</v>
       </c>
     </row>
     <row r="3">
@@ -3235,127 +3235,127 @@
         <v>442</v>
       </c>
       <c r="B3" s="0">
-        <v>1.4917810631487507</v>
+        <v>2.7545386110890941</v>
       </c>
       <c r="C3" s="0">
-        <v>4.3022492019774088</v>
+        <v>3.5954019594989495</v>
       </c>
       <c r="D3" s="0">
-        <v>1.7174482032153335</v>
+        <v>2.8330539177652074</v>
       </c>
       <c r="E3" s="0">
-        <v>0.38236532677866675</v>
+        <v>2.531968309231114</v>
       </c>
       <c r="F3" s="0">
-        <v>2.4337186253160956</v>
+        <v>2.7961689545970123</v>
       </c>
       <c r="G3" s="0">
-        <v>8.4467181256874628</v>
+        <v>2.6033731309533894</v>
       </c>
       <c r="H3" s="0">
-        <v>0.70968386217629575</v>
+        <v>2.0740825412602546</v>
       </c>
       <c r="I3" s="0">
-        <v>1.6670663222638602</v>
+        <v>2.414172845586271</v>
       </c>
       <c r="J3" s="0">
-        <v>2.9587256271645015</v>
+        <v>2.5382570929561603</v>
       </c>
       <c r="K3" s="0">
-        <v>5.838542149254347</v>
+        <v>3.2505091506923049</v>
       </c>
       <c r="L3" s="0">
-        <v>5.3061439185795622</v>
+        <v>1.8838592597213244</v>
       </c>
       <c r="M3" s="0">
-        <v>5.3351337404636272</v>
+        <v>2.3002841875339661</v>
       </c>
       <c r="N3" s="0">
-        <v>1.2774847642790554</v>
+        <v>1.9758722429797149</v>
       </c>
       <c r="O3" s="0">
-        <v>4.6283738578853804</v>
+        <v>9.8328408153920801</v>
       </c>
       <c r="P3" s="0">
-        <v>3.9798069226860724</v>
+        <v>3.329041557330946</v>
       </c>
       <c r="Q3" s="0">
-        <v>2.6770087258563016</v>
+        <v>2.9858394559636094</v>
       </c>
       <c r="R3" s="0">
-        <v>1.0296675952256382</v>
+        <v>2.8861149268749324</v>
       </c>
       <c r="S3" s="0">
-        <v>0.20599643095374609</v>
+        <v>3.4610545885405766</v>
       </c>
       <c r="T3" s="0">
-        <v>3.314177366539278</v>
+        <v>1.4891371515788856</v>
       </c>
       <c r="U3" s="0">
-        <v>2.9078441445731857</v>
+        <v>1.7065783053602641</v>
       </c>
       <c r="V3" s="0">
-        <v>3.2987718558867076</v>
+        <v>3.151792462822967</v>
       </c>
       <c r="W3" s="0">
-        <v>2.1068536318169144</v>
+        <v>2.2157414176161327</v>
       </c>
       <c r="X3" s="0">
-        <v>6.3470666294510654</v>
+        <v>3.9579149250044536</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.65240421250902458</v>
+        <v>2.5201231445380103</v>
       </c>
       <c r="Z3" s="0">
-        <v>4.3035931807085417</v>
+        <v>3.0334188117434429</v>
       </c>
       <c r="AA3" s="0">
-        <v>1.6251237255747735</v>
+        <v>3.3631593863424865</v>
       </c>
       <c r="AB3" s="0">
-        <v>5.8636204212347991</v>
+        <v>2.514059460321703</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.29687135845553136</v>
+        <v>4.1205192545906426</v>
       </c>
       <c r="AD3" s="0">
-        <v>8.5205589379179738</v>
+        <v>3.2080394019965128</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.40336209965224717</v>
+        <v>3.8965202346114229</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.65255929172464089</v>
+        <v>1.9690519171778986</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.43560033575884072</v>
+        <v>2.5177312734255111</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.2382210240055164</v>
+        <v>3.1271389748865697</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.61972955396648644</v>
+        <v>3.9357687392169614</v>
       </c>
       <c r="AJ3" s="0">
-        <v>1.0459665667226898</v>
+        <v>3.149586288303349</v>
       </c>
       <c r="AK3" s="0">
-        <v>4.5728763882886678</v>
+        <v>6.9885304595928694</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.63568793205939389</v>
+        <v>4.3506409914798319</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.17080012479776396</v>
+        <v>3.1993325302558264</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.44877956437913041</v>
+        <v>7.9725501572117601</v>
       </c>
       <c r="AO3" s="0">
-        <v>1.1042387687361046</v>
+        <v>4.3123477873010669</v>
       </c>
       <c r="AP3" s="0">
-        <v>2.5988155394417842</v>
+        <v>3.3186529155836375</v>
       </c>
     </row>
   </sheetData>
@@ -3368,46 +3368,46 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="10.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.28515625" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="8.28515625" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="10.7109375" customWidth="true"/>
-    <col min="24" max="24" width="8.28515625" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="10.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="11.7109375" customWidth="true"/>
+    <col min="33" max="33" width="10.7109375" customWidth="true"/>
     <col min="34" max="34" width="11.7109375" customWidth="true"/>
-    <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="11.7109375" customWidth="true"/>
+    <col min="35" max="35" width="10.7109375" customWidth="true"/>
+    <col min="36" max="36" width="10.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
     <col min="38" max="38" width="11.7109375" customWidth="true"/>
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
-    <col min="40" max="40" width="8.28515625" customWidth="true"/>
-    <col min="41" max="41" width="10.7109375" customWidth="true"/>
+    <col min="40" max="40" width="10.7109375" customWidth="true"/>
+    <col min="41" max="41" width="11.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3544,127 +3544,127 @@
         <v>485</v>
       </c>
       <c r="B2" s="0">
-        <v>20.561775369304602</v>
+        <v>13.435492900413765</v>
       </c>
       <c r="C2" s="0">
-        <v>3.2300248371319129</v>
+        <v>16.887377524449352</v>
       </c>
       <c r="D2" s="0">
-        <v>8.3496956018351867</v>
+        <v>15.512204172186792</v>
       </c>
       <c r="E2" s="0">
-        <v>14.15940719989063</v>
+        <v>15.410682333678174</v>
       </c>
       <c r="F2" s="0">
-        <v>9.2431606515687061</v>
+        <v>14.285619468251761</v>
       </c>
       <c r="G2" s="0">
-        <v>9.2405668288723568</v>
+        <v>16.289877139009491</v>
       </c>
       <c r="H2" s="0">
-        <v>5.8530454110662724</v>
+        <v>17.941861370364027</v>
       </c>
       <c r="I2" s="0">
-        <v>0.7397998240920356</v>
+        <v>16.426366206029055</v>
       </c>
       <c r="J2" s="0">
-        <v>2.006776462774801</v>
+        <v>9.8866277782114835</v>
       </c>
       <c r="K2" s="0">
-        <v>11.870813623101569</v>
+        <v>16.858551138722099</v>
       </c>
       <c r="L2" s="0">
-        <v>20.269726695372825</v>
+        <v>11.6046205295258</v>
       </c>
       <c r="M2" s="0">
-        <v>2.0424893622963252</v>
+        <v>15.66111715901064</v>
       </c>
       <c r="N2" s="0">
-        <v>7.547460513526036</v>
+        <v>14.440299790584033</v>
       </c>
       <c r="O2" s="0">
-        <v>4.9738679372796852</v>
+        <v>22.220632806434196</v>
       </c>
       <c r="P2" s="0">
-        <v>50</v>
+        <v>9.8690013032355051</v>
       </c>
       <c r="Q2" s="0">
-        <v>18.504758316385335</v>
+        <v>16.403940937480275</v>
       </c>
       <c r="R2" s="0">
-        <v>50</v>
+        <v>16.153689307620102</v>
       </c>
       <c r="S2" s="0">
-        <v>20.571369921140708</v>
+        <v>22.063550443088168</v>
       </c>
       <c r="T2" s="0">
-        <v>1.0265202860869738</v>
+        <v>26.059221058122397</v>
       </c>
       <c r="U2" s="0">
-        <v>14.204676361377157</v>
+        <v>18.53256769114839</v>
       </c>
       <c r="V2" s="0">
-        <v>37.625233628873197</v>
+        <v>16.803476582913827</v>
       </c>
       <c r="W2" s="0">
-        <v>2.9344465898810683</v>
+        <v>14.728857704728348</v>
       </c>
       <c r="X2" s="0">
-        <v>50</v>
+        <v>16.611483788665712</v>
       </c>
       <c r="Y2" s="0">
-        <v>24.649186818739928</v>
+        <v>11.707175071438826</v>
       </c>
       <c r="Z2" s="0">
-        <v>15.213366369407277</v>
+        <v>13.415970489089158</v>
       </c>
       <c r="AA2" s="0">
-        <v>11.528844425336914</v>
+        <v>18.764301691674174</v>
       </c>
       <c r="AB2" s="0">
-        <v>29.227438926298454</v>
+        <v>11.09808496152819</v>
       </c>
       <c r="AC2" s="0">
-        <v>6.3890018212954196</v>
+        <v>19.831186433438983</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.2412144690626179</v>
+        <v>17.365859099163618</v>
       </c>
       <c r="AE2" s="0">
-        <v>3.3009107683949197</v>
+        <v>21.820861672373422</v>
       </c>
       <c r="AF2" s="0">
-        <v>37.503629534204173</v>
+        <v>17.015626912502974</v>
       </c>
       <c r="AG2" s="0">
-        <v>0.3663896210191781</v>
+        <v>12.933719299360812</v>
       </c>
       <c r="AH2" s="0">
-        <v>4.1590110236298354</v>
+        <v>16.995018674538382</v>
       </c>
       <c r="AI2" s="0">
-        <v>11.017690519835982</v>
+        <v>19.669857502384698</v>
       </c>
       <c r="AJ2" s="0">
-        <v>12.807472659884606</v>
+        <v>19.637216797562562</v>
       </c>
       <c r="AK2" s="0">
-        <v>5.6157670027949278</v>
+        <v>23.611490270027911</v>
       </c>
       <c r="AL2" s="0">
-        <v>2.5518823679486138</v>
+        <v>20.303454672890933</v>
       </c>
       <c r="AM2" s="0">
-        <v>14.337898543461483</v>
+        <v>24.138527261944041</v>
       </c>
       <c r="AN2" s="0">
-        <v>50</v>
+        <v>28.210888701861151</v>
       </c>
       <c r="AO2" s="0">
-        <v>9.2576137102089415</v>
+        <v>26.17127398052768</v>
       </c>
       <c r="AP2" s="0">
-        <v>15.103073350084514</v>
+        <v>17.419440815654525</v>
       </c>
     </row>
     <row r="3">
@@ -3672,127 +3672,127 @@
         <v>486</v>
       </c>
       <c r="B3" s="0">
-        <v>0.71459792247301712</v>
+        <v>0.98401888518778269</v>
       </c>
       <c r="C3" s="0">
-        <v>2.0886946291226414</v>
+        <v>0.97785346984662991</v>
       </c>
       <c r="D3" s="0">
-        <v>0.18354996922317049</v>
+        <v>0.74256567561837106</v>
       </c>
       <c r="E3" s="0">
-        <v>0.89176801383389492</v>
+        <v>1.2491780347141384</v>
       </c>
       <c r="F3" s="0">
-        <v>0.73461356770330555</v>
+        <v>0.68365653111995917</v>
       </c>
       <c r="G3" s="0">
-        <v>1.2339042005003977</v>
+        <v>0.48619995136990507</v>
       </c>
       <c r="H3" s="0">
-        <v>0.027938973385465356</v>
+        <v>1.240464697705139</v>
       </c>
       <c r="I3" s="0">
-        <v>0.20169986981824978</v>
+        <v>0.97002799070310586</v>
       </c>
       <c r="J3" s="0">
-        <v>1.3060759229783172</v>
+        <v>1.3205971228227635</v>
       </c>
       <c r="K3" s="0">
-        <v>0.33787043160422658</v>
+        <v>0.89596379322906072</v>
       </c>
       <c r="L3" s="0">
-        <v>0.58810689813358064</v>
+        <v>0.69701606334496036</v>
       </c>
       <c r="M3" s="0">
-        <v>0.4755935446054475</v>
+        <v>1.147147672332927</v>
       </c>
       <c r="N3" s="0">
-        <v>0.47698646289362712</v>
+        <v>0.81811850272898867</v>
       </c>
       <c r="O3" s="0">
-        <v>0.65445918668441194</v>
+        <v>1.4092201903801924</v>
       </c>
       <c r="P3" s="0">
-        <v>0.46186695208111594</v>
+        <v>0.8897515357758139</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.67535305521818367</v>
+        <v>0.89202415656047185</v>
       </c>
       <c r="R3" s="0">
-        <v>0.68271029304817243</v>
+        <v>0.98531886654933787</v>
       </c>
       <c r="S3" s="0">
-        <v>0.80687212901736094</v>
+        <v>1.1970638748787212</v>
       </c>
       <c r="T3" s="0">
-        <v>1.6915067080279906</v>
+        <v>0.99874114541654424</v>
       </c>
       <c r="U3" s="0">
-        <v>0.2917751372076452</v>
+        <v>0.67863881935555981</v>
       </c>
       <c r="V3" s="0">
-        <v>0.77720640695886023</v>
+        <v>1.1049946788219658</v>
       </c>
       <c r="W3" s="0">
-        <v>0.51745660169782792</v>
+        <v>0.59784030919071018</v>
       </c>
       <c r="X3" s="0">
-        <v>1.5025549598514281</v>
+        <v>0.67721826022927378</v>
       </c>
       <c r="Y3" s="0">
-        <v>1.3940249878557065</v>
+        <v>1.0866616229321882</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.56990207080609268</v>
+        <v>0.87010668499803068</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.49038672480719536</v>
+        <v>1.2536472836548593</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.62365761745737913</v>
+        <v>1.0864783292352371</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.41520317782605981</v>
+        <v>1.0089295462984524</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.35680163935309012</v>
+        <v>1.456386464414551</v>
       </c>
       <c r="AE3" s="0">
-        <v>1.3224927610516712</v>
+        <v>1.00804281755861</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.85875147767631343</v>
+        <v>0.91254902592782039</v>
       </c>
       <c r="AG3" s="0">
-        <v>1.8314066915115892</v>
+        <v>0.99611559139106398</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.53687505286989123</v>
+        <v>1.0786779721718769</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.46775797631975546</v>
+        <v>0.70898234203621147</v>
       </c>
       <c r="AJ3" s="0">
-        <v>1.049290624929202</v>
+        <v>1.3241294526649006</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.11898442766433044</v>
+        <v>2.0562080380815426</v>
       </c>
       <c r="AL3" s="0">
-        <v>3.8795329210669856</v>
+        <v>1.0895307065529962</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.36494002873171982</v>
+        <v>0.97947424760901625</v>
       </c>
       <c r="AN3" s="0">
-        <v>1.5041664594625523</v>
+        <v>2.7352368090057406</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.55980619498901529</v>
+        <v>1.9377489897525073</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.84167856676117236</v>
+        <v>1.0808131538041983</v>
       </c>
     </row>
   </sheetData>
@@ -3811,7 +3811,444 @@
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="10.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="10.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+    <col min="33" max="33" width="11.7109375" customWidth="true"/>
+    <col min="34" max="34" width="11.7109375" customWidth="true"/>
+    <col min="35" max="35" width="11.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
+    <col min="37" max="37" width="11.7109375" customWidth="true"/>
+    <col min="38" max="38" width="11.7109375" customWidth="true"/>
+    <col min="39" max="39" width="11.7109375" customWidth="true"/>
+    <col min="40" max="40" width="11.7109375" customWidth="true"/>
+    <col min="41" max="41" width="11.7109375" customWidth="true"/>
+    <col min="42" max="42" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="0">
+        <v>8.9690723049826193</v>
+      </c>
+      <c r="C2" s="0">
+        <v>9.657532809172011</v>
+      </c>
+      <c r="D2" s="0">
+        <v>7.371477970954512</v>
+      </c>
+      <c r="E2" s="0">
+        <v>6.4883334358691238</v>
+      </c>
+      <c r="F2" s="0">
+        <v>8.0119205323041243</v>
+      </c>
+      <c r="G2" s="0">
+        <v>8.3086534649836814</v>
+      </c>
+      <c r="H2" s="0">
+        <v>8.9599855763311815</v>
+      </c>
+      <c r="I2" s="0">
+        <v>10.867169731456471</v>
+      </c>
+      <c r="J2" s="0">
+        <v>8.9178363845308688</v>
+      </c>
+      <c r="K2" s="0">
+        <v>5.9862149401582139</v>
+      </c>
+      <c r="L2" s="0">
+        <v>5.4218718072845506</v>
+      </c>
+      <c r="M2" s="0">
+        <v>7.7763599808636901</v>
+      </c>
+      <c r="N2" s="0">
+        <v>5.6089809634600085</v>
+      </c>
+      <c r="O2" s="0">
+        <v>10.877751884361533</v>
+      </c>
+      <c r="P2" s="0">
+        <v>8.0355249496310979</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>8.0258251086368961</v>
+      </c>
+      <c r="R2" s="0">
+        <v>10.118312903659213</v>
+      </c>
+      <c r="S2" s="0">
+        <v>10.849913845437198</v>
+      </c>
+      <c r="T2" s="0">
+        <v>8.692486164673257</v>
+      </c>
+      <c r="U2" s="0">
+        <v>7.6300885533832448</v>
+      </c>
+      <c r="V2" s="0">
+        <v>8.8802597405376336</v>
+      </c>
+      <c r="W2" s="0">
+        <v>12.511202031238595</v>
+      </c>
+      <c r="X2" s="0">
+        <v>6.7467143494051856</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>7.9529256007053855</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>8.6267658323360159</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>10.697202831309763</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>7.2979249866048557</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>10.444292111731624</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>10.792592710421895</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>9.04373526545508</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>10.761151557475108</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>9.173505878006587</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>10.012555681923146</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>8.3082808784694553</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>7.0554848132921197</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>15.351405640531564</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>9.2297928544321728</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>9.9788134558466357</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>20.104841883022754</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>9.3953053064001839</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>9.2235016680319823</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.36952683368610473</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.40702571639422197</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.21741295668444446</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.63146719766996595</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.48800061847829751</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.5244023205750854</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.43314619681936428</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.40793304999234814</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.21098596971729672</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.25465634423486833</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.20082746458760542</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.64621382997653332</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.37268702289568539</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.40454956230087608</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.6095646472625591</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.53909184892635309</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.76888893192700658</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.62362856795703636</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.32655909040072217</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.52751731118127987</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.73790541330919035</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.35459128320646399</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.48173527904632885</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.3704595800068482</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.31025398704986673</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.42023535227850856</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.97617732324660189</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.58077225041644354</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.56508926431603246</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.41376709204237194</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.45429210326016439</v>
+      </c>
+      <c r="AG3" s="0">
+        <v>0.61955673893802343</v>
+      </c>
+      <c r="AH3" s="0">
+        <v>0.4340187191460339</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>0.48358305171543176</v>
+      </c>
+      <c r="AJ3" s="0">
+        <v>0.84464071291005316</v>
+      </c>
+      <c r="AK3" s="0">
+        <v>0.54955596128078499</v>
+      </c>
+      <c r="AL3" s="0">
+        <v>0.72335738310712872</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>0.61872560479891403</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>0.49681560722655854</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>0.4262946499108865</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>0.49564782097200732</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AP3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="10.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
@@ -3845,443 +4282,6 @@
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="11.7109375" customWidth="true"/>
     <col min="41" max="41" width="11.7109375" customWidth="true"/>
-    <col min="42" max="42" width="10.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM1" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="AN1" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="AO1" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="AP1" s="0" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="B2" s="0">
-        <v>5.861428766885953</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1.4610297729063557</v>
-      </c>
-      <c r="D2" s="0">
-        <v>23.754581216557032</v>
-      </c>
-      <c r="E2" s="0">
-        <v>6.9289150518629468</v>
-      </c>
-      <c r="F2" s="0">
-        <v>3.3932874841329461</v>
-      </c>
-      <c r="G2" s="0">
-        <v>10.771173542881947</v>
-      </c>
-      <c r="H2" s="0">
-        <v>0.4354046171426485</v>
-      </c>
-      <c r="I2" s="0">
-        <v>4.1570956266615244</v>
-      </c>
-      <c r="J2" s="0">
-        <v>11.510043018310519</v>
-      </c>
-      <c r="K2" s="0">
-        <v>9.1343834365164032</v>
-      </c>
-      <c r="L2" s="0">
-        <v>17.84607966132582</v>
-      </c>
-      <c r="M2" s="0">
-        <v>2.8776045115926032</v>
-      </c>
-      <c r="N2" s="0">
-        <v>6.0509039437815773</v>
-      </c>
-      <c r="O2" s="0">
-        <v>8.3762071060492591</v>
-      </c>
-      <c r="P2" s="0">
-        <v>1.5021749413803478</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>4.2064884210434235</v>
-      </c>
-      <c r="R2" s="0">
-        <v>27.251073420811245</v>
-      </c>
-      <c r="S2" s="0">
-        <v>32.61177374212744</v>
-      </c>
-      <c r="T2" s="0">
-        <v>12.151824563851749</v>
-      </c>
-      <c r="U2" s="0">
-        <v>2.4655475642965432</v>
-      </c>
-      <c r="V2" s="0">
-        <v>8.9881277743732753</v>
-      </c>
-      <c r="W2" s="0">
-        <v>15.085155009852135</v>
-      </c>
-      <c r="X2" s="0">
-        <v>6.6849134956481455</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>11.119628736999331</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>2.7570827114351153</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>5.7294198624287951</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>3.4512196242109789</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>30.844649576414568</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>7.6340087776129568</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>12.20260096016769</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>7.4173407565426883</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>6.9859447645126842</v>
-      </c>
-      <c r="AH2" s="0">
-        <v>8.4779461581366036</v>
-      </c>
-      <c r="AI2" s="0">
-        <v>3.3716597806923998</v>
-      </c>
-      <c r="AJ2" s="0">
-        <v>4.8010192392380873</v>
-      </c>
-      <c r="AK2" s="0">
-        <v>4.527388273308171</v>
-      </c>
-      <c r="AL2" s="0">
-        <v>13.829438040447034</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>3.489282057696697</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>13.150099213551476</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>16.171388790579403</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>9.4866333503491624</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.70818732356734682</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.48592571240631577</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.089679548091714245</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.54390279414749343</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.89001934619120449</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.24704530072803951</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.50087552942502045</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0.16012966861210035</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.42973866068489158</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0.60280807815289805</v>
-      </c>
-      <c r="L3" s="0">
-        <v>7.6052692264910453</v>
-      </c>
-      <c r="M3" s="0">
-        <v>0.48077392828220128</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0.44205251931360717</v>
-      </c>
-      <c r="O3" s="0">
-        <v>1.4924899982624042</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0.22985879186483738</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0.6491319438527523</v>
-      </c>
-      <c r="R3" s="0">
-        <v>0.63346762961234104</v>
-      </c>
-      <c r="S3" s="0">
-        <v>0.47211501335863171</v>
-      </c>
-      <c r="T3" s="0">
-        <v>0.69162824709259652</v>
-      </c>
-      <c r="U3" s="0">
-        <v>1.1319686076591973</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.58825993297293078</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.46491813992792047</v>
-      </c>
-      <c r="X3" s="0">
-        <v>0.56636400209348325</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>0.60354139577290278</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>2.9430984309729684</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>0.38897253214487626</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>1.0896381189953397</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.26689868055347299</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.50681608810752965</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.33844933465946697</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>0.5027855384572959</v>
-      </c>
-      <c r="AG3" s="0">
-        <v>0.84403652313522404</v>
-      </c>
-      <c r="AH3" s="0">
-        <v>0.40122296742097124</v>
-      </c>
-      <c r="AI3" s="0">
-        <v>0.24930388290830188</v>
-      </c>
-      <c r="AJ3" s="0">
-        <v>0.32619546912009306</v>
-      </c>
-      <c r="AK3" s="0">
-        <v>0.69297229155893236</v>
-      </c>
-      <c r="AL3" s="0">
-        <v>0.56330557014659177</v>
-      </c>
-      <c r="AM3" s="0">
-        <v>0.73740066131810633</v>
-      </c>
-      <c r="AN3" s="0">
-        <v>0.35159413024385605</v>
-      </c>
-      <c r="AO3" s="0">
-        <v>0.24720708121558385</v>
-      </c>
-      <c r="AP3" s="0">
-        <v>0.77900121598806205</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="12.7109375" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="10.7109375" customWidth="true"/>
-    <col min="19" max="19" width="12.7109375" customWidth="true"/>
-    <col min="20" max="20" width="10.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="12.7109375" customWidth="true"/>
-    <col min="23" max="23" width="10.7109375" customWidth="true"/>
-    <col min="24" max="24" width="12.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="10.7109375" customWidth="true"/>
-    <col min="34" max="34" width="11.7109375" customWidth="true"/>
-    <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="11.7109375" customWidth="true"/>
-    <col min="37" max="37" width="11.7109375" customWidth="true"/>
-    <col min="38" max="38" width="12.7109375" customWidth="true"/>
-    <col min="39" max="39" width="12.7109375" customWidth="true"/>
-    <col min="40" max="40" width="11.7109375" customWidth="true"/>
-    <col min="41" max="41" width="11.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -4418,127 +4418,127 @@
         <v>573</v>
       </c>
       <c r="B2" s="0">
-        <v>0.91613294659220934</v>
+        <v>4.0595318734267325</v>
       </c>
       <c r="C2" s="0">
-        <v>1.8379557177058805</v>
+        <v>4.7970413240059173</v>
       </c>
       <c r="D2" s="0">
-        <v>0.66241533062999836</v>
+        <v>4.1828043098313357</v>
       </c>
       <c r="E2" s="0">
-        <v>3.4685769927211068</v>
+        <v>4.8928084530308187</v>
       </c>
       <c r="F2" s="0">
-        <v>1.8850851793200714</v>
+        <v>3.2792389639393869</v>
       </c>
       <c r="G2" s="0">
-        <v>1.0368229206724169</v>
+        <v>3.6167322458151374</v>
       </c>
       <c r="H2" s="0">
-        <v>2.3087935089492677</v>
+        <v>4.4236410502230559</v>
       </c>
       <c r="I2" s="0">
-        <v>8.0531290791694978</v>
+        <v>4.8138715786522797</v>
       </c>
       <c r="J2" s="0">
-        <v>3.7082295885146155</v>
+        <v>4.0711305707818424</v>
       </c>
       <c r="K2" s="0">
-        <v>1.8068004962323481</v>
+        <v>6.3958586847431418</v>
       </c>
       <c r="L2" s="0">
-        <v>5.9635007912603797</v>
+        <v>4.5724952148866329</v>
       </c>
       <c r="M2" s="0">
-        <v>0.87702591037416133</v>
+        <v>3.5098866948450849</v>
       </c>
       <c r="N2" s="0">
-        <v>0.32435491624644375</v>
+        <v>4.4232487261800939</v>
       </c>
       <c r="O2" s="0">
-        <v>2.2263291799395128</v>
+        <v>7.4057999948666238</v>
       </c>
       <c r="P2" s="0">
-        <v>2.5330821897570321</v>
+        <v>5.0491867171086309</v>
       </c>
       <c r="Q2" s="0">
-        <v>5.1059938518748904</v>
+        <v>4.6444081036270992</v>
       </c>
       <c r="R2" s="0">
-        <v>1.5345437603002265</v>
+        <v>4.6617229669079441</v>
       </c>
       <c r="S2" s="0">
-        <v>0.79401482554285718</v>
+        <v>4.0867865306928177</v>
       </c>
       <c r="T2" s="0">
-        <v>18.31045070446147</v>
+        <v>3.6468461125261182</v>
       </c>
       <c r="U2" s="0">
-        <v>2.4201062052423081</v>
+        <v>5.7658853156923726</v>
       </c>
       <c r="V2" s="0">
-        <v>0.42804052993315306</v>
+        <v>4.9967708116091361</v>
       </c>
       <c r="W2" s="0">
-        <v>1.4762366899348507</v>
+        <v>4.1848381411020146</v>
       </c>
       <c r="X2" s="0">
-        <v>0.82587626741849429</v>
+        <v>4.2611811087897919</v>
       </c>
       <c r="Y2" s="0">
-        <v>2.3747192005578679</v>
+        <v>4.9780313533664833</v>
       </c>
       <c r="Z2" s="0">
-        <v>4.0528347952768451</v>
+        <v>5.9284222786257397</v>
       </c>
       <c r="AA2" s="0">
-        <v>4.1886064821421014</v>
+        <v>4.6584171337827671</v>
       </c>
       <c r="AB2" s="0">
-        <v>1.9113587791871116</v>
+        <v>4.8613101092410478</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.4582661614645258</v>
+        <v>6.0469739228276644</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.6261108353549645</v>
+        <v>4.6214839617052714</v>
       </c>
       <c r="AE2" s="0">
-        <v>13.392817740588242</v>
+        <v>5.8675941221929868</v>
       </c>
       <c r="AF2" s="0">
-        <v>4.8961475240383328</v>
+        <v>4.8637876564140532</v>
       </c>
       <c r="AG2" s="0">
-        <v>4.6681444700024084</v>
+        <v>2.9053516120886496</v>
       </c>
       <c r="AH2" s="0">
-        <v>1.1879062047518498</v>
+        <v>4.2867331660046384</v>
       </c>
       <c r="AI2" s="0">
-        <v>7.3833089764126933</v>
+        <v>4.2466239632048595</v>
       </c>
       <c r="AJ2" s="0">
-        <v>1.792850541299235</v>
+        <v>4.5650229491722039</v>
       </c>
       <c r="AK2" s="0">
-        <v>3.5646060431392423</v>
+        <v>5.1042003393518085</v>
       </c>
       <c r="AL2" s="0">
-        <v>0.54500220169941205</v>
+        <v>4.3609799665747788</v>
       </c>
       <c r="AM2" s="0">
-        <v>0.65441975418746445</v>
+        <v>3.9021783385910505</v>
       </c>
       <c r="AN2" s="0">
-        <v>6.226278504910975</v>
+        <v>10.974286326704576</v>
       </c>
       <c r="AO2" s="0">
-        <v>10.137275739695458</v>
+        <v>7.6267454657940537</v>
       </c>
       <c r="AP2" s="0">
-        <v>3.5141037884375477</v>
+        <v>4.8884964539731666</v>
       </c>
     </row>
     <row r="3">
@@ -4546,127 +4546,127 @@
         <v>574</v>
       </c>
       <c r="B3" s="0">
-        <v>0.76529459409794887</v>
+        <v>0.20758918472007884</v>
       </c>
       <c r="C3" s="0">
-        <v>0.48307916406102641</v>
+        <v>0.21992059282350337</v>
       </c>
       <c r="D3" s="0">
-        <v>0.097152056843400988</v>
+        <v>0.14372453676606028</v>
       </c>
       <c r="E3" s="0">
-        <v>0.38068328896535925</v>
+        <v>0.47646709539476922</v>
       </c>
       <c r="F3" s="0">
-        <v>0.11340597482992894</v>
+        <v>0.41084451841043962</v>
       </c>
       <c r="G3" s="0">
-        <v>0.27310120525763215</v>
+        <v>0.24797054800848425</v>
       </c>
       <c r="H3" s="0">
-        <v>0.18419654127577964</v>
+        <v>0.26331764825677617</v>
       </c>
       <c r="I3" s="0">
-        <v>0.2016718337865103</v>
+        <v>0.31776275683093258</v>
       </c>
       <c r="J3" s="0">
-        <v>1.0317681623743695</v>
+        <v>0.21509724366491526</v>
       </c>
       <c r="K3" s="0">
-        <v>0.47199034697618103</v>
+        <v>0.18784445197303495</v>
       </c>
       <c r="L3" s="0">
-        <v>1.3733833714382773</v>
+        <v>0.12157829829147673</v>
       </c>
       <c r="M3" s="0">
-        <v>0.40856908559608762</v>
+        <v>0.45794185949641941</v>
       </c>
       <c r="N3" s="0">
-        <v>0.13420318229099432</v>
+        <v>0.21567637464321182</v>
       </c>
       <c r="O3" s="0">
-        <v>0.69090516068375074</v>
+        <v>0.48394097987706175</v>
       </c>
       <c r="P3" s="0">
-        <v>0.27202902477461971</v>
+        <v>0.53746002063113474</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.60921879426290082</v>
+        <v>0.45958726722115606</v>
       </c>
       <c r="R3" s="0">
-        <v>0.92654479373264031</v>
+        <v>0.61258432922526784</v>
       </c>
       <c r="S3" s="0">
-        <v>0.33677874668472807</v>
+        <v>0.3234239795386486</v>
       </c>
       <c r="T3" s="0">
-        <v>0.40598974862588483</v>
+        <v>0.14821929779824991</v>
       </c>
       <c r="U3" s="0">
-        <v>0.27676348756297514</v>
+        <v>0.23283482087702115</v>
       </c>
       <c r="V3" s="0">
-        <v>0.4326218890203043</v>
+        <v>0.48388931018249437</v>
       </c>
       <c r="W3" s="0">
-        <v>0.66925526816302139</v>
+        <v>0.20271879115446448</v>
       </c>
       <c r="X3" s="0">
-        <v>0.69964430275034295</v>
+        <v>0.25620007952385687</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.50571114000350159</v>
+        <v>0.27428761050242706</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.9041217684146623</v>
+        <v>0.32135411235505335</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.58222277747603257</v>
+        <v>0.38608430258696536</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.54061856068715697</v>
+        <v>0.48912778409878921</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.31752025393287503</v>
+        <v>0.23735238962519564</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.26721521420016731</v>
+        <v>0.48814739642062199</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.22521726523882654</v>
+        <v>0.3533748070280891</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.31567824752943419</v>
+        <v>0.33270119915711144</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.89323774371962339</v>
+        <v>0.49657318517291743</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.20140061229344708</v>
+        <v>0.25143920884908261</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.53873559753171396</v>
+        <v>0.2831750706642282</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.71514005215380194</v>
+        <v>0.51961617522294212</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.15310233967945922</v>
+        <v>0.29595482285247987</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.20016387062876689</v>
+        <v>0.55463909583864035</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.28794136879024285</v>
+        <v>0.37685259879941563</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.46229671435761954</v>
+        <v>0.16868750262023915</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.24782098282262074</v>
+        <v>0.2937877394268541</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.46490986333786549</v>
+        <v>0.3337437246632628</v>
       </c>
     </row>
   </sheetData>
@@ -4681,44 +4681,44 @@
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="9.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="12.7109375" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="10.7109375" customWidth="true"/>
+    <col min="27" max="27" width="10.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
     <col min="33" max="33" width="11.7109375" customWidth="true"/>
-    <col min="34" max="34" width="10.7109375" customWidth="true"/>
+    <col min="34" max="34" width="11.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
-    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="11.7109375" customWidth="true"/>
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="11.7109375" customWidth="true"/>
-    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="11.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -4855,127 +4855,127 @@
         <v>617</v>
       </c>
       <c r="B2" s="0">
-        <v>1.2543158347373489</v>
+        <v>2.5507399651158003</v>
       </c>
       <c r="C2" s="0">
-        <v>5.3737854441657262</v>
+        <v>2.0680750307166123</v>
       </c>
       <c r="D2" s="0">
-        <v>0.15003911638512846</v>
+        <v>1.2951753385115261</v>
       </c>
       <c r="E2" s="0">
-        <v>0.3167483833853198</v>
+        <v>2.1090898454681035</v>
       </c>
       <c r="F2" s="0">
-        <v>1.825121514710706</v>
+        <v>2.3491128486588715</v>
       </c>
       <c r="G2" s="0">
-        <v>0.21217731114084781</v>
+        <v>2.0172782287392059</v>
       </c>
       <c r="H2" s="0">
-        <v>0.17150800347140396</v>
+        <v>2.5629772248579021</v>
       </c>
       <c r="I2" s="0">
-        <v>3.3514875924116132</v>
+        <v>2.81221624874521</v>
       </c>
       <c r="J2" s="0">
-        <v>1.9607548997796258</v>
+        <v>1.9848995044838433</v>
       </c>
       <c r="K2" s="0">
-        <v>1.321893507651609</v>
+        <v>2.320840485265427</v>
       </c>
       <c r="L2" s="0">
-        <v>5.8855044784629111</v>
+        <v>1.895068836629034</v>
       </c>
       <c r="M2" s="0">
-        <v>7.1061054491021265</v>
+        <v>2.9881925720727573</v>
       </c>
       <c r="N2" s="0">
-        <v>0.87053376443163011</v>
+        <v>2.5614359206532198</v>
       </c>
       <c r="O2" s="0">
-        <v>2.8606139200344924</v>
+        <v>3.9438592992329995</v>
       </c>
       <c r="P2" s="0">
-        <v>3.5419432576765022</v>
+        <v>2.3208668990320982</v>
       </c>
       <c r="Q2" s="0">
-        <v>5.5608523511471031</v>
+        <v>2.8218173977096175</v>
       </c>
       <c r="R2" s="0">
-        <v>1.3963846550462515</v>
+        <v>1.8156650827679974</v>
       </c>
       <c r="S2" s="0">
-        <v>0.78131055152793694</v>
+        <v>2.7597405506290817</v>
       </c>
       <c r="T2" s="0">
-        <v>2.7704854915409616</v>
+        <v>2.4340996377191422</v>
       </c>
       <c r="U2" s="0">
-        <v>0.7075853656534421</v>
+        <v>1.8063155864969334</v>
       </c>
       <c r="V2" s="0">
-        <v>2.7555443177195516</v>
+        <v>2.483401281118347</v>
       </c>
       <c r="W2" s="0">
-        <v>1.8085014425530244</v>
+        <v>1.8324781519131352</v>
       </c>
       <c r="X2" s="0">
-        <v>1.4676950861613065</v>
+        <v>2.3189555791911292</v>
       </c>
       <c r="Y2" s="0">
-        <v>3.4704315168272317</v>
+        <v>2.2794946858202803</v>
       </c>
       <c r="Z2" s="0">
-        <v>4.4036493720162024</v>
+        <v>2.8693593679099374</v>
       </c>
       <c r="AA2" s="0">
-        <v>6.5739708436257969</v>
+        <v>2.2030454404152295</v>
       </c>
       <c r="AB2" s="0">
-        <v>9.0187716504906756</v>
+        <v>2.439877229440869</v>
       </c>
       <c r="AC2" s="0">
-        <v>0.87673337297195697</v>
+        <v>2.5473976019683851</v>
       </c>
       <c r="AD2" s="0">
-        <v>0.19442065012548099</v>
+        <v>2.972508310800237</v>
       </c>
       <c r="AE2" s="0">
-        <v>1.2249680713898243</v>
+        <v>2.2551651944774309</v>
       </c>
       <c r="AF2" s="0">
-        <v>0.27698799730918999</v>
+        <v>2.7409176706610765</v>
       </c>
       <c r="AG2" s="0">
-        <v>6.7680597227187347</v>
+        <v>1.7928164474347712</v>
       </c>
       <c r="AH2" s="0">
-        <v>1.0414384398288936</v>
+        <v>1.6493941045081482</v>
       </c>
       <c r="AI2" s="0">
-        <v>0.71334742102550397</v>
+        <v>2.5964329993270812</v>
       </c>
       <c r="AJ2" s="0">
-        <v>2.3577810264819323</v>
+        <v>2.814544261452729</v>
       </c>
       <c r="AK2" s="0">
-        <v>11.200613572066516</v>
+        <v>4.7361379840210232</v>
       </c>
       <c r="AL2" s="0">
-        <v>0.25636721730306444</v>
+        <v>3.0574624143774431</v>
       </c>
       <c r="AM2" s="0">
-        <v>3.5524630938271975</v>
+        <v>2.5290884757944943</v>
       </c>
       <c r="AN2" s="0">
-        <v>5.0866463956725445</v>
+        <v>5.9384498051425547</v>
       </c>
       <c r="AO2" s="0">
-        <v>0.144671260910118</v>
+        <v>1.745409217741664</v>
       </c>
       <c r="AP2" s="0">
-        <v>2.765305334087186</v>
+        <v>2.5304950681755338</v>
       </c>
     </row>
     <row r="3">
@@ -4983,127 +4983,127 @@
         <v>618</v>
       </c>
       <c r="B3" s="0">
-        <v>0.51850101145394623</v>
+        <v>0.14993790129025028</v>
       </c>
       <c r="C3" s="0">
-        <v>0.48853085046305145</v>
+        <v>0.19733120045084282</v>
       </c>
       <c r="D3" s="0">
-        <v>0.013258456784494374</v>
+        <v>0.11549656691227071</v>
       </c>
       <c r="E3" s="0">
-        <v>0.39966591409491858</v>
+        <v>0.40602600682088846</v>
       </c>
       <c r="F3" s="0">
-        <v>0.09047467238980926</v>
+        <v>0.40891526361493774</v>
       </c>
       <c r="G3" s="0">
-        <v>0.24693654915684415</v>
+        <v>0.10044780230134262</v>
       </c>
       <c r="H3" s="0">
-        <v>0.29991868183761528</v>
+        <v>0.23621962701024496</v>
       </c>
       <c r="I3" s="0">
-        <v>0.15616668997867314</v>
+        <v>0.25504377431989578</v>
       </c>
       <c r="J3" s="0">
-        <v>0.048190552457824949</v>
+        <v>0.12721908407646193</v>
       </c>
       <c r="K3" s="0">
-        <v>0.28091882778892124</v>
+        <v>0.090866176279829014</v>
       </c>
       <c r="L3" s="0">
-        <v>0.99669158970885263</v>
+        <v>0.074643942934871907</v>
       </c>
       <c r="M3" s="0">
-        <v>0.42391681537170633</v>
+        <v>0.44300713115643359</v>
       </c>
       <c r="N3" s="0">
-        <v>0.15402857152177488</v>
+        <v>0.16961501559974401</v>
       </c>
       <c r="O3" s="0">
-        <v>0.23278141390596568</v>
+        <v>0.29892134930901854</v>
       </c>
       <c r="P3" s="0">
-        <v>0.23453534991916802</v>
+        <v>0.40354949131674006</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.59694538730885383</v>
+        <v>0.42523871016579678</v>
       </c>
       <c r="R3" s="0">
-        <v>0.46014216877125175</v>
+        <v>0.50984113424865352</v>
       </c>
       <c r="S3" s="0">
-        <v>0.22635621763705979</v>
+        <v>0.24901635155648674</v>
       </c>
       <c r="T3" s="0">
-        <v>0.45478300081238249</v>
+        <v>0.086755452189508434</v>
       </c>
       <c r="U3" s="0">
-        <v>0.36281392408804869</v>
+        <v>0.16341061862823794</v>
       </c>
       <c r="V3" s="0">
-        <v>0.66080697584127024</v>
+        <v>0.43743539177541557</v>
       </c>
       <c r="W3" s="0">
-        <v>0.43427272508793918</v>
+        <v>0.14686984425303287</v>
       </c>
       <c r="X3" s="0">
-        <v>0.48535757966662951</v>
+        <v>0.17499093691020812</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.50754332541656089</v>
+        <v>0.26864294620713453</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.24929526708082192</v>
+        <v>0.23890514418673392</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.21546633387174793</v>
+        <v>0.25162068321449133</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.5262678784291458</v>
+        <v>0.34109586235172029</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.27806706449656438</v>
+        <v>0.27273563982484567</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.29691986158094563</v>
+        <v>0.43503488134703211</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.25788654032158881</v>
+        <v>0.22126661095179403</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.33915555890583871</v>
+        <v>0.30668555854099078</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.39735734704776204</v>
+        <v>0.41574600514727805</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.2076542339853116</v>
+        <v>0.15659896647939014</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.26970506681530926</v>
+        <v>0.1943658052375245</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.4085311181003779</v>
+        <v>0.34285524650640303</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.040372700161937884</v>
+        <v>0.20317815171250461</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.21854168957814635</v>
+        <v>0.47931576975807644</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.17267683910269707</v>
+        <v>0.22141893241036278</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.53437124513395973</v>
+        <v>0.1196661625353265</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.13999956976441269</v>
+        <v>0.15290815457270276</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.33314513914600324</v>
+        <v>0.25732098235263556</v>
       </c>
     </row>
   </sheetData>
@@ -5118,35 +5118,35 @@
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="7.28515625" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.7109375" customWidth="true"/>
-    <col min="7" max="7" width="7.28515625" customWidth="true"/>
-    <col min="8" max="8" width="7.28515625" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" customWidth="true"/>
+    <col min="7" max="7" width="10.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="9.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="8.28515625" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="8.28515625" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="9.7109375" customWidth="true"/>
-    <col min="24" max="24" width="8.28515625" customWidth="true"/>
-    <col min="25" max="25" width="8.28515625" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="10.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="8.28515625" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
     <col min="33" max="33" width="11.7109375" customWidth="true"/>
     <col min="34" max="34" width="11.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
@@ -5155,7 +5155,7 @@
     <col min="38" max="38" width="11.7109375" customWidth="true"/>
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="11.7109375" customWidth="true"/>
-    <col min="41" max="41" width="8.28515625" customWidth="true"/>
+    <col min="41" max="41" width="11.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -5292,127 +5292,127 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>2.6162616321094045</v>
+        <v>33.392847257548972</v>
       </c>
       <c r="C2" s="0">
-        <v>11.220256266941144</v>
+        <v>28.533429509693736</v>
       </c>
       <c r="D2" s="0">
-        <v>50</v>
+        <v>26.300781054657623</v>
       </c>
       <c r="E2" s="0">
-        <v>2.8448774741228764</v>
+        <v>28.375997033936393</v>
       </c>
       <c r="F2" s="0">
-        <v>3.5921128295277143</v>
+        <v>24.097051397396292</v>
       </c>
       <c r="G2" s="0">
-        <v>50</v>
+        <v>31.213956497547915</v>
       </c>
       <c r="H2" s="0">
-        <v>50</v>
+        <v>17.794609308602514</v>
       </c>
       <c r="I2" s="0">
-        <v>14.110847399261448</v>
+        <v>34.33689875694531</v>
       </c>
       <c r="J2" s="0">
-        <v>3.3667614230813325</v>
+        <v>16.398353432427168</v>
       </c>
       <c r="K2" s="0">
-        <v>32.624067012503446</v>
+        <v>20.468064740748712</v>
       </c>
       <c r="L2" s="0">
-        <v>17.859178158402099</v>
+        <v>19.434498641222351</v>
       </c>
       <c r="M2" s="0">
-        <v>2.6067644004036881</v>
+        <v>29.974730566298344</v>
       </c>
       <c r="N2" s="0">
-        <v>29.601587288753421</v>
+        <v>20.94054682751575</v>
       </c>
       <c r="O2" s="0">
-        <v>19.592273922865829</v>
+        <v>21.926919837511779</v>
       </c>
       <c r="P2" s="0">
-        <v>11.306829555919075</v>
+        <v>24.260345970861596</v>
       </c>
       <c r="Q2" s="0">
-        <v>23.22042290917129</v>
+        <v>28.887486343008032</v>
       </c>
       <c r="R2" s="0">
-        <v>50</v>
+        <v>29.363274772823299</v>
       </c>
       <c r="S2" s="0">
-        <v>15.811887743480373</v>
+        <v>27.171626442328883</v>
       </c>
       <c r="T2" s="0">
-        <v>32.495177261332437</v>
+        <v>24.592358173534567</v>
       </c>
       <c r="U2" s="0">
-        <v>50</v>
+        <v>32.5180785640135</v>
       </c>
       <c r="V2" s="0">
-        <v>32.836816417006382</v>
+        <v>36.964124783188943</v>
       </c>
       <c r="W2" s="0">
-        <v>37.348837001550102</v>
+        <v>26.459817728231084</v>
       </c>
       <c r="X2" s="0">
-        <v>50</v>
+        <v>14.216956211843756</v>
       </c>
       <c r="Y2" s="0">
-        <v>50</v>
+        <v>21.576942610601172</v>
       </c>
       <c r="Z2" s="0">
-        <v>36.020072733313881</v>
+        <v>28.188935404519079</v>
       </c>
       <c r="AA2" s="0">
-        <v>9.1715008591403198</v>
+        <v>25.734907666924926</v>
       </c>
       <c r="AB2" s="0">
-        <v>46.452523537242257</v>
+        <v>25.93864976146288</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.1735595853023844</v>
+        <v>22.592991320169638</v>
       </c>
       <c r="AD2" s="0">
-        <v>21.098506899192486</v>
+        <v>25.626245460222549</v>
       </c>
       <c r="AE2" s="0">
-        <v>46.601448611440645</v>
+        <v>29.326245536542054</v>
       </c>
       <c r="AF2" s="0">
-        <v>50</v>
+        <v>29.791685094631806</v>
       </c>
       <c r="AG2" s="0">
-        <v>49.094538351182081</v>
+        <v>24.480499210777939</v>
       </c>
       <c r="AH2" s="0">
-        <v>9.0175828287417037</v>
+        <v>24.932862039269995</v>
       </c>
       <c r="AI2" s="0">
-        <v>22.211752021414924</v>
+        <v>29.956757575840982</v>
       </c>
       <c r="AJ2" s="0">
-        <v>32.254857678623416</v>
+        <v>32.688896749131793</v>
       </c>
       <c r="AK2" s="0">
-        <v>31.180942546591762</v>
+        <v>27.389407342514026</v>
       </c>
       <c r="AL2" s="0">
-        <v>45.581124417172788</v>
+        <v>22.783424894394837</v>
       </c>
       <c r="AM2" s="0">
-        <v>2.3116680187696046</v>
+        <v>34.451199665132762</v>
       </c>
       <c r="AN2" s="0">
-        <v>18.226916750993517</v>
+        <v>26.414208709193211</v>
       </c>
       <c r="AO2" s="0">
-        <v>50</v>
+        <v>23.251905908377299</v>
       </c>
       <c r="AP2" s="0">
-        <v>27.861298838388848</v>
+        <v>26.318712970039833</v>
       </c>
     </row>
     <row r="3">
@@ -5420,127 +5420,127 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.1106855877896005</v>
+        <v>1.8134373140646574</v>
       </c>
       <c r="C3" s="0">
-        <v>2.901022031148806</v>
+        <v>2.1847404921571605</v>
       </c>
       <c r="D3" s="0">
-        <v>5.7469603280291599</v>
+        <v>3.2902099572940684</v>
       </c>
       <c r="E3" s="0">
-        <v>5.575271682791878</v>
+        <v>2.3897029927994149</v>
       </c>
       <c r="F3" s="0">
-        <v>1.883256453881091</v>
+        <v>4.1136700966697264</v>
       </c>
       <c r="G3" s="0">
-        <v>1.039645307529325</v>
+        <v>1.9354955726791434</v>
       </c>
       <c r="H3" s="0">
-        <v>0.73773329499547213</v>
+        <v>3.013015620692725</v>
       </c>
       <c r="I3" s="0">
-        <v>0.25890708906413384</v>
+        <v>4.7052688978760102</v>
       </c>
       <c r="J3" s="0">
-        <v>0.50494100864572267</v>
+        <v>1.1044595713648364</v>
       </c>
       <c r="K3" s="0">
-        <v>19.695765507855246</v>
+        <v>5.6996283614985801</v>
       </c>
       <c r="L3" s="0">
-        <v>1.9275189091024993</v>
+        <v>1.218979056572753</v>
       </c>
       <c r="M3" s="0">
-        <v>0.46565878570586583</v>
+        <v>2.6109213152614656</v>
       </c>
       <c r="N3" s="0">
-        <v>9.4400992635088681</v>
+        <v>3.6931571267809162</v>
       </c>
       <c r="O3" s="0">
-        <v>0.62375234897169618</v>
+        <v>3.0788877242169201</v>
       </c>
       <c r="P3" s="0">
-        <v>2.7914849923049285</v>
+        <v>3.4332200390458967</v>
       </c>
       <c r="Q3" s="0">
-        <v>3.7801476386365906</v>
+        <v>3.2144377357598417</v>
       </c>
       <c r="R3" s="0">
-        <v>7.0007444677477517</v>
+        <v>2.6449763865397413</v>
       </c>
       <c r="S3" s="0">
-        <v>7.9016890451952637</v>
+        <v>3.1649975254213101</v>
       </c>
       <c r="T3" s="0">
-        <v>2.2872787928899396</v>
+        <v>2.1956266340039767</v>
       </c>
       <c r="U3" s="0">
-        <v>0.69762164987194519</v>
+        <v>2.8067151449260468</v>
       </c>
       <c r="V3" s="0">
-        <v>0.39120122836472676</v>
+        <v>2.3376476078859842</v>
       </c>
       <c r="W3" s="0">
-        <v>0.77032965270467668</v>
+        <v>2.5864264821093852</v>
       </c>
       <c r="X3" s="0">
-        <v>2.7403673691072794</v>
+        <v>2.5334020403711563</v>
       </c>
       <c r="Y3" s="0">
-        <v>1.8761502436632023</v>
+        <v>2.9758528988527257</v>
       </c>
       <c r="Z3" s="0">
-        <v>1.3065218223473354</v>
+        <v>2.5651617191849296</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.18165143079974014</v>
+        <v>1.9354796181127918</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.38758063019818073</v>
+        <v>4.380194552211492</v>
       </c>
       <c r="AC3" s="0">
-        <v>2.1924006084852805</v>
+        <v>2.3517982571401168</v>
       </c>
       <c r="AD3" s="0">
-        <v>1.5831899766813968</v>
+        <v>3.8208889285293393</v>
       </c>
       <c r="AE3" s="0">
-        <v>1.7631038285418852</v>
+        <v>2.0918313200739713</v>
       </c>
       <c r="AF3" s="0">
-        <v>3.1302848479463288</v>
+        <v>1.9828251614890309</v>
       </c>
       <c r="AG3" s="0">
-        <v>2.176693272554501</v>
+        <v>3.2289327641255681</v>
       </c>
       <c r="AH3" s="0">
-        <v>2.310448939010219</v>
+        <v>3.052390391352354</v>
       </c>
       <c r="AI3" s="0">
-        <v>2.9571568786996538</v>
+        <v>2.2009099772033673</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.23079258431082686</v>
+        <v>5.6700907761625672</v>
       </c>
       <c r="AK3" s="0">
-        <v>1.9070067096904793</v>
+        <v>2.239503947313219</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.71713392710045076</v>
+        <v>3.4134892393860303</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.55171074571558631</v>
+        <v>5.1676323311031362</v>
       </c>
       <c r="AN3" s="0">
-        <v>5.5734601599228553</v>
+        <v>2.4414322874702852</v>
       </c>
       <c r="AO3" s="0">
-        <v>2.4819552003893866</v>
+        <v>2.0601862187097182</v>
       </c>
       <c r="AP3" s="0">
-        <v>2.7649831060474952</v>
+        <v>2.9336906021103091</v>
       </c>
     </row>
   </sheetData>
@@ -5561,16 +5561,16 @@
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="10.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="8.28515625" customWidth="true"/>
-    <col min="19" max="19" width="8.28515625" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
@@ -5581,13 +5581,13 @@
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="10.7109375" customWidth="true"/>
+    <col min="30" max="30" width="9.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
     <col min="33" max="33" width="11.7109375" customWidth="true"/>
-    <col min="34" max="34" width="8.28515625" customWidth="true"/>
+    <col min="34" max="34" width="11.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="11.7109375" customWidth="true"/>
+    <col min="36" max="36" width="10.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
     <col min="38" max="38" width="11.7109375" customWidth="true"/>
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
@@ -5729,127 +5729,127 @@
         <v>45</v>
       </c>
       <c r="B2" s="0">
-        <v>7.5153411283120164</v>
+        <v>17.54724271037583</v>
       </c>
       <c r="C2" s="0">
-        <v>31.690471151668621</v>
+        <v>14.245092969652536</v>
       </c>
       <c r="D2" s="0">
-        <v>1.5451635081497668</v>
+        <v>14.201760175887022</v>
       </c>
       <c r="E2" s="0">
-        <v>6.8090364813226936</v>
+        <v>11.498449359224681</v>
       </c>
       <c r="F2" s="0">
-        <v>13.213631753139467</v>
+        <v>12.407503456955647</v>
       </c>
       <c r="G2" s="0">
-        <v>22.046376848372692</v>
+        <v>25.224220659492889</v>
       </c>
       <c r="H2" s="0">
-        <v>24.767306873424403</v>
+        <v>12.228721557464249</v>
       </c>
       <c r="I2" s="0">
-        <v>5.0299298248293933</v>
+        <v>24.586671443692374</v>
       </c>
       <c r="J2" s="0">
-        <v>29.838106759311771</v>
+        <v>8.8959155297682138</v>
       </c>
       <c r="K2" s="0">
-        <v>16.647059008425831</v>
+        <v>17.507170456528346</v>
       </c>
       <c r="L2" s="0">
-        <v>3.4176570660311976</v>
+        <v>11.323810230425176</v>
       </c>
       <c r="M2" s="0">
-        <v>13.914122684897949</v>
+        <v>13.506470324939478</v>
       </c>
       <c r="N2" s="0">
-        <v>4.3027242639119789</v>
+        <v>16.46668559490201</v>
       </c>
       <c r="O2" s="0">
-        <v>0.33505172423243201</v>
+        <v>13.496160655268509</v>
       </c>
       <c r="P2" s="0">
-        <v>10.290192086208515</v>
+        <v>19.991797010160735</v>
       </c>
       <c r="Q2" s="0">
-        <v>19.441379567570944</v>
+        <v>18.436108100491008</v>
       </c>
       <c r="R2" s="0">
-        <v>50</v>
+        <v>21.843483646488046</v>
       </c>
       <c r="S2" s="0">
-        <v>50</v>
+        <v>14.378021452992787</v>
       </c>
       <c r="T2" s="0">
-        <v>25.020756227598017</v>
+        <v>14.910065571555519</v>
       </c>
       <c r="U2" s="0">
-        <v>21.686104715034638</v>
+        <v>18.078978394025206</v>
       </c>
       <c r="V2" s="0">
-        <v>30.372412608263364</v>
+        <v>20.616904151844565</v>
       </c>
       <c r="W2" s="0">
-        <v>6.9810797160609575</v>
+        <v>12.459152115001425</v>
       </c>
       <c r="X2" s="0">
-        <v>6.2098132767541365</v>
+        <v>10.577047986810134</v>
       </c>
       <c r="Y2" s="0">
-        <v>41.009336431690095</v>
+        <v>15.127876028016001</v>
       </c>
       <c r="Z2" s="0">
-        <v>4.0414130736897693</v>
+        <v>20.903827489164193</v>
       </c>
       <c r="AA2" s="0">
-        <v>9.6582990135152986</v>
+        <v>19.805377421469224</v>
       </c>
       <c r="AB2" s="0">
-        <v>42.986671461460872</v>
+        <v>19.656858738164225</v>
       </c>
       <c r="AC2" s="0">
-        <v>10.596623258666638</v>
+        <v>14.985371656547725</v>
       </c>
       <c r="AD2" s="0">
-        <v>12.37876869744723</v>
+        <v>20.003864000504311</v>
       </c>
       <c r="AE2" s="0">
-        <v>12.863042757966307</v>
+        <v>15.443613511855638</v>
       </c>
       <c r="AF2" s="0">
-        <v>19.55936536172954</v>
+        <v>14.597817718760728</v>
       </c>
       <c r="AG2" s="0">
-        <v>8.0518546428188724</v>
+        <v>17.078456020371114</v>
       </c>
       <c r="AH2" s="0">
-        <v>50</v>
+        <v>16.053858477119348</v>
       </c>
       <c r="AI2" s="0">
-        <v>7.8562129255827999</v>
+        <v>12.879809870583445</v>
       </c>
       <c r="AJ2" s="0">
-        <v>15.817697461091743</v>
+        <v>18.495975402043392</v>
       </c>
       <c r="AK2" s="0">
-        <v>39.26594161562597</v>
+        <v>18.353680276885992</v>
       </c>
       <c r="AL2" s="0">
-        <v>10.220417968816127</v>
+        <v>14.374106432431724</v>
       </c>
       <c r="AM2" s="0">
-        <v>32.137517937921295</v>
+        <v>11.229010888164781</v>
       </c>
       <c r="AN2" s="0">
-        <v>9.5797348007195673</v>
+        <v>15.29994521511842</v>
       </c>
       <c r="AO2" s="0">
-        <v>1.2081310362274198</v>
+        <v>12.290178420293254</v>
       </c>
       <c r="AP2" s="0">
-        <v>18.20761864296226</v>
+        <v>16.025176528035999</v>
       </c>
     </row>
     <row r="3">
@@ -5857,127 +5857,127 @@
         <v>46</v>
       </c>
       <c r="B3" s="0">
-        <v>0.24272387916197111</v>
+        <v>0.49263271811389919</v>
       </c>
       <c r="C3" s="0">
-        <v>3.2305851901782869</v>
+        <v>1.116797882145121</v>
       </c>
       <c r="D3" s="0">
-        <v>0.81610563640156741</v>
+        <v>1.2559483588017211</v>
       </c>
       <c r="E3" s="0">
-        <v>0.81585111447798242</v>
+        <v>1.5271701419306611</v>
       </c>
       <c r="F3" s="0">
-        <v>0.28186660783941092</v>
+        <v>1.4198908715970568</v>
       </c>
       <c r="G3" s="0">
-        <v>1.2968528649118962</v>
+        <v>1.9062862594633658</v>
       </c>
       <c r="H3" s="0">
-        <v>1.680595564530162</v>
+        <v>1.1036776947704223</v>
       </c>
       <c r="I3" s="0">
-        <v>1.2008044077579476</v>
+        <v>1.809426900261496</v>
       </c>
       <c r="J3" s="0">
-        <v>1.0417616026647751</v>
+        <v>0.75819324217331263</v>
       </c>
       <c r="K3" s="0">
-        <v>4.3409099323704838</v>
+        <v>1.2667631996987283</v>
       </c>
       <c r="L3" s="0">
-        <v>0.51619303036853736</v>
+        <v>0.827097684731118</v>
       </c>
       <c r="M3" s="0">
-        <v>11.881422747100109</v>
+        <v>0.96050305412770953</v>
       </c>
       <c r="N3" s="0">
-        <v>0.80842748616539417</v>
+        <v>1.4009322245675198</v>
       </c>
       <c r="O3" s="0">
-        <v>0.20613805047111991</v>
+        <v>0.95532397912790656</v>
       </c>
       <c r="P3" s="0">
-        <v>1.6105651446611218</v>
+        <v>1.2642052578669667</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.40194053366486066</v>
+        <v>0.74003044708067667</v>
       </c>
       <c r="R3" s="0">
-        <v>0.30320652223385786</v>
+        <v>1.3306658995467049</v>
       </c>
       <c r="S3" s="0">
-        <v>0.97495355669848793</v>
+        <v>1.2446430748367641</v>
       </c>
       <c r="T3" s="0">
-        <v>0.75108997789156251</v>
+        <v>1.3605527226887719</v>
       </c>
       <c r="U3" s="0">
-        <v>0.54639139253938973</v>
+        <v>1.0736146321269782</v>
       </c>
       <c r="V3" s="0">
-        <v>0.48297628624309979</v>
+        <v>0.50905933185695129</v>
       </c>
       <c r="W3" s="0">
-        <v>0.287303295530275</v>
+        <v>1.5243597356834446</v>
       </c>
       <c r="X3" s="0">
-        <v>0.11433144583596196</v>
+        <v>0.63521068870614272</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.80487441616976496</v>
+        <v>1.0983880723586752</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.61527219290140145</v>
+        <v>0.91558468523759384</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.35351442983686793</v>
+        <v>1.0307071879244607</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.47964717053378669</v>
+        <v>0.82966687351177693</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.4659893591635893</v>
+        <v>1.3331332386808188</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.62568803516734672</v>
+        <v>1.5404212645877178</v>
       </c>
       <c r="AE3" s="0">
-        <v>1.1128485555696166</v>
+        <v>1.2573330625189962</v>
       </c>
       <c r="AF3" s="0">
-        <v>1.1409508132611266</v>
+        <v>1.0548007439983327</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.37580720467457712</v>
+        <v>1.1355175637266306</v>
       </c>
       <c r="AH3" s="0">
-        <v>4.8542752823833473</v>
+        <v>1.2248879021797634</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.34998623223347186</v>
+        <v>0.9493193712538307</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.14827098141225559</v>
+        <v>0.73531664747220793</v>
       </c>
       <c r="AK3" s="0">
-        <v>1.5119998321004786</v>
+        <v>0.81259673809925015</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.36535698655776139</v>
+        <v>1.3472922659333724</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.16202668424123529</v>
+        <v>0.80442518832739429</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.59426059300084144</v>
+        <v>1.5545707338988515</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.43128570957818957</v>
+        <v>0.90474166528106825</v>
       </c>
       <c r="AP3" s="0">
-        <v>1.205626268712098</v>
+        <v>1.1252922301723542</v>
       </c>
     </row>
   </sheetData>
@@ -5990,445 +5990,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="10.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="10.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="10.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="11.7109375" customWidth="true"/>
-    <col min="34" max="34" width="8.28515625" customWidth="true"/>
-    <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="11.7109375" customWidth="true"/>
-    <col min="37" max="37" width="11.7109375" customWidth="true"/>
-    <col min="38" max="38" width="11.7109375" customWidth="true"/>
-    <col min="39" max="39" width="11.7109375" customWidth="true"/>
-    <col min="40" max="40" width="11.7109375" customWidth="true"/>
-    <col min="41" max="41" width="11.7109375" customWidth="true"/>
-    <col min="42" max="42" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM1" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN1" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO1" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP1" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="0">
-        <v>4.1353814801266102</v>
-      </c>
-      <c r="C2" s="0">
-        <v>15.561123616968864</v>
-      </c>
-      <c r="D2" s="0">
-        <v>1.3336169714421748</v>
-      </c>
-      <c r="E2" s="0">
-        <v>1.2047142619150677</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.047726190219277348</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1.3332964353268508</v>
-      </c>
-      <c r="H2" s="0">
-        <v>5.7284847808718951</v>
-      </c>
-      <c r="I2" s="0">
-        <v>6.7995558405225136</v>
-      </c>
-      <c r="J2" s="0">
-        <v>9.5101491233821704</v>
-      </c>
-      <c r="K2" s="0">
-        <v>16.004518568147013</v>
-      </c>
-      <c r="L2" s="0">
-        <v>8.9684184125404975</v>
-      </c>
-      <c r="M2" s="0">
-        <v>11.048271395161859</v>
-      </c>
-      <c r="N2" s="0">
-        <v>5.8845514373127914</v>
-      </c>
-      <c r="O2" s="0">
-        <v>3.3443436418367369</v>
-      </c>
-      <c r="P2" s="0">
-        <v>10.279340746843234</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>7.0086064886674073</v>
-      </c>
-      <c r="R2" s="0">
-        <v>1.22916965301447</v>
-      </c>
-      <c r="S2" s="0">
-        <v>2.6986262637504126</v>
-      </c>
-      <c r="T2" s="0">
-        <v>11.315452287708723</v>
-      </c>
-      <c r="U2" s="0">
-        <v>2.5720818589943781</v>
-      </c>
-      <c r="V2" s="0">
-        <v>14.537018895163687</v>
-      </c>
-      <c r="W2" s="0">
-        <v>2.1342891518387752</v>
-      </c>
-      <c r="X2" s="0">
-        <v>13.954034571679966</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>11.849828663030049</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>1.1305143374138604</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>3.3458715149962606</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>2.6656145836026091</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>3.9633202966956342</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>1.0828639050276887</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>4.8464215395520771</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>1.3954973526904286</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>7.649516012038668</v>
-      </c>
-      <c r="AH2" s="0">
-        <v>50</v>
-      </c>
-      <c r="AI2" s="0">
-        <v>8.6692149674900509</v>
-      </c>
-      <c r="AJ2" s="0">
-        <v>12.611940014799627</v>
-      </c>
-      <c r="AK2" s="0">
-        <v>26.879119064611725</v>
-      </c>
-      <c r="AL2" s="0">
-        <v>31.047770664024597</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>1.1135199316759441</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>6.5193246784451162</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>9.1458245888664198</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>8.5137233547099047</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.14542546233010911</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.2353557028413816</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.17109335352256674</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.26908837221684306</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.93458448036430353</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.25788610838355075</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.72354181949101615</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0.082465587413663166</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.90010285668852208</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0.3393088083976486</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0.14091085117352076</v>
-      </c>
-      <c r="M3" s="0">
-        <v>0.36104549651640006</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0.14249500480239272</v>
-      </c>
-      <c r="O3" s="0">
-        <v>0.0086319255433944791</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0.26059764265366908</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0.60787471055952746</v>
-      </c>
-      <c r="R3" s="0">
-        <v>0.62470813924260327</v>
-      </c>
-      <c r="S3" s="0">
-        <v>0.53894735680807271</v>
-      </c>
-      <c r="T3" s="0">
-        <v>0.48053868400364319</v>
-      </c>
-      <c r="U3" s="0">
-        <v>1.6599548676959934</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.68084737510081039</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.46537942602325888</v>
-      </c>
-      <c r="X3" s="0">
-        <v>0.64684412982965434</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>0.25530028458079146</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>1.1375692448187675</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>0.19883849930048011</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>0.71280583345545423</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.88872829038620738</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.33265247573334938</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.80110759680879362</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>0.42458115517711842</v>
-      </c>
-      <c r="AG3" s="0">
-        <v>0.36402335583490064</v>
-      </c>
-      <c r="AH3" s="0">
-        <v>0.81865598376017501</v>
-      </c>
-      <c r="AI3" s="0">
-        <v>0.68397444804352092</v>
-      </c>
-      <c r="AJ3" s="0">
-        <v>0.48927758812585465</v>
-      </c>
-      <c r="AK3" s="0">
-        <v>1.2770546897111172</v>
-      </c>
-      <c r="AL3" s="0">
-        <v>0.13688507388727239</v>
-      </c>
-      <c r="AM3" s="0">
-        <v>0.11575794910234473</v>
-      </c>
-      <c r="AN3" s="0">
-        <v>0.3572157384248752</v>
-      </c>
-      <c r="AO3" s="0">
-        <v>1.3225812035552553</v>
-      </c>
-      <c r="AP3" s="0">
-        <v>0.52486593930772063</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="10.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -6440,21 +6003,21 @@
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="12.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="10.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="10.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="10.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
@@ -6472,6 +6035,443 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="0">
+        <v>9.6121097827218307</v>
+      </c>
+      <c r="C2" s="0">
+        <v>8.6786544545654198</v>
+      </c>
+      <c r="D2" s="0">
+        <v>8.2764469931971316</v>
+      </c>
+      <c r="E2" s="0">
+        <v>10.946238271691083</v>
+      </c>
+      <c r="F2" s="0">
+        <v>9.4018523766888329</v>
+      </c>
+      <c r="G2" s="0">
+        <v>8.7629692813198652</v>
+      </c>
+      <c r="H2" s="0">
+        <v>7.8238406380603935</v>
+      </c>
+      <c r="I2" s="0">
+        <v>9.656498571825308</v>
+      </c>
+      <c r="J2" s="0">
+        <v>7.1859607052782106</v>
+      </c>
+      <c r="K2" s="0">
+        <v>7.2780482850003825</v>
+      </c>
+      <c r="L2" s="0">
+        <v>3.6815798233874641</v>
+      </c>
+      <c r="M2" s="0">
+        <v>7.9721983582513998</v>
+      </c>
+      <c r="N2" s="0">
+        <v>7.2959659280871252</v>
+      </c>
+      <c r="O2" s="0">
+        <v>6.3023228647711242</v>
+      </c>
+      <c r="P2" s="0">
+        <v>14.962940598922653</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>11.015388255955607</v>
+      </c>
+      <c r="R2" s="0">
+        <v>9.3026996307752103</v>
+      </c>
+      <c r="S2" s="0">
+        <v>6.8651487657088852</v>
+      </c>
+      <c r="T2" s="0">
+        <v>8.5093971041107537</v>
+      </c>
+      <c r="U2" s="0">
+        <v>9.4002130841309448</v>
+      </c>
+      <c r="V2" s="0">
+        <v>16.572439894312222</v>
+      </c>
+      <c r="W2" s="0">
+        <v>7.8506022672396938</v>
+      </c>
+      <c r="X2" s="0">
+        <v>5.485049253061228</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>6.4299651200899017</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>6.1445293738918849</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>10.976444577138908</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>9.0373062258027517</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>10.96317474852493</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>8.390345819046658</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>8.5723743046185454</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>9.3914818254947825</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>7.6038956989153883</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>9.1239723360130451</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>8.9833845611594949</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>11.282197728282195</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>8.5598722144004054</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>11.308643871811414</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>8.667697325436114</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>10.84354607482889</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>7.7975954573309929</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>8.9228748112962268</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.2190704881545536</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.5058470438779189</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.87587284037191437</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.53998580125564843</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.58488379892595077</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.41586724692324795</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.35040971335317134</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.35048732316556547</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.36629272165749766</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.5826756764580624</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.60178041497917623</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.73446509787598735</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.64731755155888571</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.64268406947217294</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.61747772527501177</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.42546768667499169</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.40861241919094404</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.53783535849159525</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.60983523747536916</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.73528153548152753</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.17844475762482251</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.45202855528336511</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.26065188644537185</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.54439204421420684</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.65138638408837446</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.43652839471662858</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.25123808800629405</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.69947237189584044</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.69041521721076926</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.853213898521339</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.560539083482258</v>
+      </c>
+      <c r="AG3" s="0">
+        <v>0.61975766198075555</v>
+      </c>
+      <c r="AH3" s="0">
+        <v>0.80615789055133646</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>0.61395422175437875</v>
+      </c>
+      <c r="AJ3" s="0">
+        <v>0.49035180953187507</v>
+      </c>
+      <c r="AK3" s="0">
+        <v>0.76608561268528419</v>
+      </c>
+      <c r="AL3" s="0">
+        <v>0.3009232348825549</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>0.43943930574468448</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>0.32650362109976244</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>0.48319449235010281</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>0.52942070706722999</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AP3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="10.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+    <col min="33" max="33" width="11.7109375" customWidth="true"/>
+    <col min="34" max="34" width="11.7109375" customWidth="true"/>
+    <col min="35" max="35" width="11.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
+    <col min="37" max="37" width="10.7109375" customWidth="true"/>
+    <col min="38" max="38" width="11.7109375" customWidth="true"/>
+    <col min="39" max="39" width="11.7109375" customWidth="true"/>
+    <col min="40" max="40" width="11.7109375" customWidth="true"/>
+    <col min="41" max="41" width="11.7109375" customWidth="true"/>
+    <col min="42" max="42" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -6603,127 +6603,127 @@
         <v>133</v>
       </c>
       <c r="B2" s="0">
-        <v>3.1814446009843884</v>
+        <v>5.8550784461842627</v>
       </c>
       <c r="C2" s="0">
-        <v>2.9608805400521154</v>
+        <v>4.7237338161670426</v>
       </c>
       <c r="D2" s="0">
-        <v>2.3698834378680305</v>
+        <v>4.463784393721304</v>
       </c>
       <c r="E2" s="0">
-        <v>7.2232769258698317</v>
+        <v>3.7944804469225688</v>
       </c>
       <c r="F2" s="0">
-        <v>5.6993888291507773</v>
+        <v>4.5653204234398741</v>
       </c>
       <c r="G2" s="0">
-        <v>8.1921632378412195</v>
+        <v>5.1969993257326506</v>
       </c>
       <c r="H2" s="0">
-        <v>5.7453498144072359</v>
+        <v>3.5227708259292232</v>
       </c>
       <c r="I2" s="0">
-        <v>13.980780160935504</v>
+        <v>6.5684095635328044</v>
       </c>
       <c r="J2" s="0">
-        <v>5.3140423346097334</v>
+        <v>2.9397605282455981</v>
       </c>
       <c r="K2" s="0">
-        <v>1.4832208833738112</v>
+        <v>6.0422456357040328</v>
       </c>
       <c r="L2" s="0">
-        <v>2.6754577392077916</v>
+        <v>2.4765343473112638</v>
       </c>
       <c r="M2" s="0">
-        <v>10.197003628040205</v>
+        <v>3.7630334046657619</v>
       </c>
       <c r="N2" s="0">
-        <v>13.455358291455905</v>
+        <v>4.2789621774607136</v>
       </c>
       <c r="O2" s="0">
-        <v>0.13830346947466898</v>
+        <v>2.9791487653857684</v>
       </c>
       <c r="P2" s="0">
-        <v>2.7370319444546007</v>
+        <v>4.0986963691851956</v>
       </c>
       <c r="Q2" s="0">
-        <v>2.6230032634814466</v>
+        <v>4.7616264901307677</v>
       </c>
       <c r="R2" s="0">
-        <v>9.9373067035494334</v>
+        <v>6.5590143766623656</v>
       </c>
       <c r="S2" s="0">
-        <v>2.9817890489113954</v>
+        <v>5.2318918563535748</v>
       </c>
       <c r="T2" s="0">
-        <v>4.0108176314556632</v>
+        <v>4.5038922790382721</v>
       </c>
       <c r="U2" s="0">
-        <v>1.6207959670347365</v>
+        <v>4.9091644696406123</v>
       </c>
       <c r="V2" s="0">
-        <v>2.5018708768614175</v>
+        <v>6.4743208927921456</v>
       </c>
       <c r="W2" s="0">
-        <v>2.3946875399055565</v>
+        <v>4.7547722134761363</v>
       </c>
       <c r="X2" s="0">
-        <v>3.6700958204976026</v>
+        <v>4.5251599114797063</v>
       </c>
       <c r="Y2" s="0">
-        <v>1.5309422841137366</v>
+        <v>4.6266885878797011</v>
       </c>
       <c r="Z2" s="0">
-        <v>2.1260289960367738</v>
+        <v>5.4226756464779475</v>
       </c>
       <c r="AA2" s="0">
-        <v>2.0842059899247816</v>
+        <v>4.1381384844926377</v>
       </c>
       <c r="AB2" s="0">
-        <v>15.27143356200876</v>
+        <v>5.2687841364558858</v>
       </c>
       <c r="AC2" s="0">
-        <v>0.64288878327238608</v>
+        <v>4.5046824347545291</v>
       </c>
       <c r="AD2" s="0">
-        <v>16.871495419114822</v>
+        <v>5.1111359923659423</v>
       </c>
       <c r="AE2" s="0">
-        <v>14.094448643900112</v>
+        <v>5.0972956988535953</v>
       </c>
       <c r="AF2" s="0">
-        <v>1.2817120834786364</v>
+        <v>4.4847674778982434</v>
       </c>
       <c r="AG2" s="0">
-        <v>2.8226234635526408</v>
+        <v>5.0586311967117847</v>
       </c>
       <c r="AH2" s="0">
-        <v>1.809197400749712</v>
+        <v>4.6690758716063092</v>
       </c>
       <c r="AI2" s="0">
-        <v>3.7516162751068736</v>
+        <v>5.4425919245647441</v>
       </c>
       <c r="AJ2" s="0">
-        <v>18.092286605635746</v>
+        <v>3.8989952334341469</v>
       </c>
       <c r="AK2" s="0">
-        <v>8.9687362810260307</v>
+        <v>5.7613129297899945</v>
       </c>
       <c r="AL2" s="0">
-        <v>6.6190362713462783</v>
+        <v>6.4480186265653572</v>
       </c>
       <c r="AM2" s="0">
-        <v>4.3264801182210073</v>
+        <v>7.1681009320246538</v>
       </c>
       <c r="AN2" s="0">
-        <v>19.929743521913025</v>
+        <v>5.9260033721804719</v>
       </c>
       <c r="AO2" s="0">
-        <v>9.4305115645197635</v>
+        <v>4.1100369437434701</v>
       </c>
       <c r="AP2" s="0">
-        <v>6.1186834988336045</v>
+        <v>4.8531434112240266</v>
       </c>
     </row>
     <row r="3">
@@ -6731,127 +6731,127 @@
         <v>134</v>
       </c>
       <c r="B3" s="0">
-        <v>0.054856584208234575</v>
+        <v>0.12366267923156478</v>
       </c>
       <c r="C3" s="0">
-        <v>0.089062441179739923</v>
+        <v>0.37260233029569473</v>
       </c>
       <c r="D3" s="0">
-        <v>0.22044704006067684</v>
+        <v>0.69611297916754056</v>
       </c>
       <c r="E3" s="0">
-        <v>0.40429305150179878</v>
+        <v>0.33007260032454971</v>
       </c>
       <c r="F3" s="0">
-        <v>0.16328396772113238</v>
+        <v>0.33877682558474936</v>
       </c>
       <c r="G3" s="0">
-        <v>0.39767628213023443</v>
+        <v>0.328258992599957</v>
       </c>
       <c r="H3" s="0">
-        <v>0.26250529150446184</v>
+        <v>0.36302806493319184</v>
       </c>
       <c r="I3" s="0">
-        <v>0.068439196169494856</v>
+        <v>0.11473943878146182</v>
       </c>
       <c r="J3" s="0">
-        <v>0.30784443627387303</v>
+        <v>0.36115218739251459</v>
       </c>
       <c r="K3" s="0">
-        <v>0.099876142414926636</v>
+        <v>0.43643978644554488</v>
       </c>
       <c r="L3" s="0">
-        <v>0.33321883788828188</v>
+        <v>0.40016662625689403</v>
       </c>
       <c r="M3" s="0">
-        <v>0.11579459155984663</v>
+        <v>0.57014114270866578</v>
       </c>
       <c r="N3" s="0">
-        <v>0.33844416511673231</v>
+        <v>0.50219628527900018</v>
       </c>
       <c r="O3" s="0">
-        <v>0.69117866084835244</v>
+        <v>0.52657706892961209</v>
       </c>
       <c r="P3" s="0">
-        <v>1.2692357122015834</v>
+        <v>0.48731854985885315</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.40189180932885576</v>
+        <v>0.26542160603830267</v>
       </c>
       <c r="R3" s="0">
-        <v>0.78944150718893247</v>
+        <v>0.36741890290024254</v>
       </c>
       <c r="S3" s="0">
-        <v>0.55511886802849297</v>
+        <v>0.28322103933530318</v>
       </c>
       <c r="T3" s="0">
-        <v>0.51337168494281371</v>
+        <v>0.57290745556661149</v>
       </c>
       <c r="U3" s="0">
-        <v>0.75441007806737981</v>
+        <v>0.64021422880063616</v>
       </c>
       <c r="V3" s="0">
-        <v>0.24365880810156312</v>
+        <v>0.11075884867467921</v>
       </c>
       <c r="W3" s="0">
-        <v>0.5888435168128876</v>
+        <v>0.21253011494926405</v>
       </c>
       <c r="X3" s="0">
-        <v>0.14175926597637306</v>
+        <v>0.07245938553248682</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.153400368428803</v>
+        <v>0.44502206184668586</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.45691365485794444</v>
+        <v>0.43868968538324077</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.50659269890582481</v>
+        <v>0.253830989254203</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.48201149168001334</v>
+        <v>0.19826827251183463</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.39052635698804727</v>
+        <v>0.6064453384553623</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.48554738158315353</v>
+        <v>0.5258568376979923</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.14933728809447194</v>
+        <v>0.61638470484623398</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.469958571784583</v>
+        <v>0.32725474543274191</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.27457286813900733</v>
+        <v>0.50338024134180437</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.51563681169857212</v>
+        <v>0.63661231307603316</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.54636874041935202</v>
+        <v>0.43780270632226159</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.08358293688574818</v>
+        <v>0.38108937429299344</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.20591528924345731</v>
+        <v>0.58525370224070605</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.0595075841074484</v>
+        <v>0.1542112259608176</v>
       </c>
       <c r="AM3" s="0">
-        <v>1.0279977596173469</v>
+        <v>0.35666502892496549</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.27948035253618314</v>
+        <v>0.21209173247110211</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.22948226142637351</v>
+        <v>0.17465794469387819</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.3780371088905749</v>
+        <v>0.38324235110850446</v>
       </c>
     </row>
   </sheetData>
@@ -6869,40 +6869,40 @@
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="13.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="10.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="12.7109375" customWidth="true"/>
-    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="10.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
     <col min="33" max="33" width="11.7109375" customWidth="true"/>
     <col min="34" max="34" width="11.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
-    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="11.7109375" customWidth="true"/>
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
-    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="11.7109375" customWidth="true"/>
     <col min="41" max="41" width="11.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
   </cols>
@@ -7040,127 +7040,127 @@
         <v>177</v>
       </c>
       <c r="B2" s="0">
-        <v>3.7519743350098103</v>
+        <v>1.5797771052092962</v>
       </c>
       <c r="C2" s="0">
-        <v>3.3813491131582549</v>
+        <v>2.6565757428464183</v>
       </c>
       <c r="D2" s="0">
-        <v>2.2866981210700135</v>
+        <v>2.3472087109404183</v>
       </c>
       <c r="E2" s="0">
-        <v>2.1201975656443244</v>
+        <v>1.9269009088366176</v>
       </c>
       <c r="F2" s="0">
-        <v>3.9431773331625326</v>
+        <v>1.9662023293337176</v>
       </c>
       <c r="G2" s="0">
-        <v>0.90184607455327037</v>
+        <v>2.8988968488356375</v>
       </c>
       <c r="H2" s="0">
-        <v>4.3617855113100106</v>
+        <v>1.6013430747571313</v>
       </c>
       <c r="I2" s="0">
-        <v>0.32369888878112552</v>
+        <v>3.5924190927451312</v>
       </c>
       <c r="J2" s="0">
-        <v>3.7935724224323568</v>
+        <v>1.3582127551347645</v>
       </c>
       <c r="K2" s="0">
-        <v>6.8110221125740988</v>
+        <v>2.3555000830886943</v>
       </c>
       <c r="L2" s="0">
-        <v>0.47143853811788178</v>
+        <v>1.6664251435015893</v>
       </c>
       <c r="M2" s="0">
-        <v>1.2125720522579373</v>
+        <v>2.6004279730334621</v>
       </c>
       <c r="N2" s="0">
-        <v>5.1782661290456957</v>
+        <v>2.6426228721758274</v>
       </c>
       <c r="O2" s="0">
-        <v>0.045981970073222564</v>
+        <v>2.2239678340068614</v>
       </c>
       <c r="P2" s="0">
-        <v>11.412333025503592</v>
+        <v>2.549575913837236</v>
       </c>
       <c r="Q2" s="0">
-        <v>2.0102634712049943</v>
+        <v>1.7789705079863372</v>
       </c>
       <c r="R2" s="0">
-        <v>6.5277177408315952</v>
+        <v>3.0863996359474046</v>
       </c>
       <c r="S2" s="0">
-        <v>4.4702605693472046</v>
+        <v>1.8935189402168064</v>
       </c>
       <c r="T2" s="0">
-        <v>2.3706991068491488</v>
+        <v>2.2369372688106619</v>
       </c>
       <c r="U2" s="0">
-        <v>1.7990164977517544</v>
+        <v>2.6134379505012593</v>
       </c>
       <c r="V2" s="0">
-        <v>2.6547640608152334</v>
+        <v>2.0793386041862463</v>
       </c>
       <c r="W2" s="0">
-        <v>0.32279079645376524</v>
+        <v>2.2149299904649267</v>
       </c>
       <c r="X2" s="0">
-        <v>0.47403005456554148</v>
+        <v>1.8772927679094074</v>
       </c>
       <c r="Y2" s="0">
-        <v>2.0843845276310216</v>
+        <v>2.2231642374330165</v>
       </c>
       <c r="Z2" s="0">
-        <v>2.8624579919556679</v>
+        <v>2.3462331691913096</v>
       </c>
       <c r="AA2" s="0">
-        <v>6.7819378955369798</v>
+        <v>1.9007154715980896</v>
       </c>
       <c r="AB2" s="0">
-        <v>1.0833242589807903</v>
+        <v>2.858426437069812</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.8289706395482654</v>
+        <v>2.536021284977187</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.1171861511450212</v>
+        <v>2.4835056318988533</v>
       </c>
       <c r="AE2" s="0">
-        <v>2.1307775475552786</v>
+        <v>2.5895283332074421</v>
       </c>
       <c r="AF2" s="0">
-        <v>1.0203400245757579</v>
+        <v>1.7542835660424763</v>
       </c>
       <c r="AG2" s="0">
-        <v>2.9874446042923521</v>
+        <v>2.2805339711271873</v>
       </c>
       <c r="AH2" s="0">
-        <v>12.089965571871991</v>
+        <v>2.8518968538293881</v>
       </c>
       <c r="AI2" s="0">
-        <v>1.4651148854823968</v>
+        <v>2.2762027750828091</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.83889871012458628</v>
+        <v>3.097430557981705</v>
       </c>
       <c r="AK2" s="0">
-        <v>5.99852991820143</v>
+        <v>3.5691729994578041</v>
       </c>
       <c r="AL2" s="0">
-        <v>0.1773509593974778</v>
+        <v>4.4432624487569177</v>
       </c>
       <c r="AM2" s="0">
-        <v>1.2052374046503798</v>
+        <v>2.6532569470311445</v>
       </c>
       <c r="AN2" s="0">
-        <v>0.20733972812653279</v>
+        <v>1.6242923819903459</v>
       </c>
       <c r="AO2" s="0">
-        <v>12.948356445926089</v>
+        <v>2.0492030450542109</v>
       </c>
       <c r="AP2" s="0">
-        <v>3.2363268188878842</v>
+        <v>2.3821003041508884</v>
       </c>
     </row>
     <row r="3">
@@ -7168,127 +7168,127 @@
         <v>178</v>
       </c>
       <c r="B3" s="0">
-        <v>0.050363020194617303</v>
+        <v>0.065032491030474676</v>
       </c>
       <c r="C3" s="0">
-        <v>0.15901974948976325</v>
+        <v>0.30903316778023876</v>
       </c>
       <c r="D3" s="0">
-        <v>0.20122981665131687</v>
+        <v>0.64583766374230167</v>
       </c>
       <c r="E3" s="0">
-        <v>0.21701955476915943</v>
+        <v>0.18739671847887285</v>
       </c>
       <c r="F3" s="0">
-        <v>0.055895644880615193</v>
+        <v>0.14514243513644362</v>
       </c>
       <c r="G3" s="0">
-        <v>0.073531053519989786</v>
+        <v>0.12490882430135601</v>
       </c>
       <c r="H3" s="0">
-        <v>0.42740748836329573</v>
+        <v>0.18722412556625345</v>
       </c>
       <c r="I3" s="0">
-        <v>0.14655342938045612</v>
+        <v>0.11276919612368005</v>
       </c>
       <c r="J3" s="0">
-        <v>0.083481148160602703</v>
+        <v>0.30645067048384755</v>
       </c>
       <c r="K3" s="0">
-        <v>0.055917261575477051</v>
+        <v>0.38070719753699372</v>
       </c>
       <c r="L3" s="0">
-        <v>0.29853376291235506</v>
+        <v>0.39023892961333029</v>
       </c>
       <c r="M3" s="0">
-        <v>0.13270927334125859</v>
+        <v>0.51815167821030084</v>
       </c>
       <c r="N3" s="0">
-        <v>0.09420313907418236</v>
+        <v>0.45078331743453942</v>
       </c>
       <c r="O3" s="0">
-        <v>0.06052892671820722</v>
+        <v>0.50590750747491109</v>
       </c>
       <c r="P3" s="0">
-        <v>0.43679214138444761</v>
+        <v>0.35748169072134306</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.53918807157159709</v>
+        <v>0.25142430469882104</v>
       </c>
       <c r="R3" s="0">
-        <v>0.18849847340265855</v>
+        <v>0.19472488757569997</v>
       </c>
       <c r="S3" s="0">
-        <v>0.51612586570073293</v>
+        <v>0.24721606198308485</v>
       </c>
       <c r="T3" s="0">
-        <v>0.50702014796139205</v>
+        <v>0.39316558645184119</v>
       </c>
       <c r="U3" s="0">
-        <v>0.47393380518095657</v>
+        <v>0.56701912268793442</v>
       </c>
       <c r="V3" s="0">
-        <v>0.11625675168956759</v>
+        <v>0.076374205225810149</v>
       </c>
       <c r="W3" s="0">
-        <v>0.34456223151914722</v>
+        <v>0.16847319050998955</v>
       </c>
       <c r="X3" s="0">
-        <v>0.22632690061021474</v>
+        <v>0.048609901752721375</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.27541763871866259</v>
+        <v>0.28252803876680216</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.67620837492437746</v>
+        <v>0.33097120030048699</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.27043620954396869</v>
+        <v>0.19701574889680934</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.19227054138980726</v>
+        <v>0.17051909161740017</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.34332437306751512</v>
+        <v>0.54200411193437825</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.32218462746990401</v>
+        <v>0.43852869873940281</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.23376486342768504</v>
+        <v>0.58817492516892089</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.3378783776750911</v>
+        <v>0.25746044486485997</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.2649424755589882</v>
+        <v>0.43011659636348348</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.20640568050962069</v>
+        <v>0.543120448025326</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.52881456183775899</v>
+        <v>0.41428993736537245</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.075326782868514158</v>
+        <v>0.28489586247564042</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.13681379714418379</v>
+        <v>0.57133936827031451</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.058152751573709027</v>
+        <v>0.1164035092388223</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.21143580443721269</v>
+        <v>0.21010448166103124</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.26829020860417524</v>
+        <v>0.13651156237941905</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.070550585820765246</v>
+        <v>0.095975719612880248</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.24693288281559883</v>
+        <v>0.30610081550505341</v>
       </c>
     </row>
   </sheetData>
@@ -7301,45 +7301,45 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="7.28515625" customWidth="true"/>
+    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="7.28515625" customWidth="true"/>
+    <col min="8" max="8" width="10.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="10.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.28515625" customWidth="true"/>
-    <col min="17" max="17" width="8.28515625" customWidth="true"/>
-    <col min="18" max="18" width="8.28515625" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="10.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="8.28515625" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="10.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="8.28515625" customWidth="true"/>
+    <col min="24" max="24" width="10.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="8.28515625" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="8.28515625" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="10.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="8.28515625" customWidth="true"/>
+    <col min="33" max="33" width="11.7109375" customWidth="true"/>
     <col min="34" max="34" width="11.7109375" customWidth="true"/>
-    <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="8.28515625" customWidth="true"/>
+    <col min="35" max="35" width="8.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
     <col min="38" max="38" width="11.7109375" customWidth="true"/>
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
-    <col min="40" max="40" width="8.28515625" customWidth="true"/>
+    <col min="40" max="40" width="11.7109375" customWidth="true"/>
     <col min="41" max="41" width="11.7109375" customWidth="true"/>
     <col min="42" max="42" width="10.7109375" customWidth="true"/>
   </cols>
@@ -7477,127 +7477,127 @@
         <v>221</v>
       </c>
       <c r="B2" s="0">
-        <v>21.859546354578502</v>
+        <v>31.953532701945228</v>
       </c>
       <c r="C2" s="0">
-        <v>4.6796720481770278</v>
+        <v>30.601749573964071</v>
       </c>
       <c r="D2" s="0">
-        <v>7.8380468388629714</v>
+        <v>27.357488897831072</v>
       </c>
       <c r="E2" s="0">
-        <v>50</v>
+        <v>29.174742687279569</v>
       </c>
       <c r="F2" s="0">
-        <v>33.998188353411003</v>
+        <v>26.947459889735203</v>
       </c>
       <c r="G2" s="0">
-        <v>6.6333228371229271</v>
+        <v>25.426829732077312</v>
       </c>
       <c r="H2" s="0">
-        <v>6.2849147936111684</v>
+        <v>14.778416498857325</v>
       </c>
       <c r="I2" s="0">
-        <v>50</v>
+        <v>24.167639263218899</v>
       </c>
       <c r="J2" s="0">
-        <v>29.522505111646559</v>
+        <v>27.639742116063697</v>
       </c>
       <c r="K2" s="0">
-        <v>6.1080702471520665</v>
+        <v>23.677183044777173</v>
       </c>
       <c r="L2" s="0">
-        <v>11.524510839385673</v>
+        <v>23.948331906991442</v>
       </c>
       <c r="M2" s="0">
-        <v>27.448004428619665</v>
+        <v>30.787038597754627</v>
       </c>
       <c r="N2" s="0">
-        <v>32.261393745846483</v>
+        <v>19.190028370832508</v>
       </c>
       <c r="O2" s="0">
-        <v>15.024188288063346</v>
+        <v>31.686548843727486</v>
       </c>
       <c r="P2" s="0">
-        <v>50</v>
+        <v>32.575996359736976</v>
       </c>
       <c r="Q2" s="0">
-        <v>50</v>
+        <v>22.000678267397099</v>
       </c>
       <c r="R2" s="0">
-        <v>50</v>
+        <v>23.425473754323857</v>
       </c>
       <c r="S2" s="0">
-        <v>1.9959081168768791</v>
+        <v>23.471941103949153</v>
       </c>
       <c r="T2" s="0">
-        <v>17.592136541457631</v>
+        <v>23.956714719124658</v>
       </c>
       <c r="U2" s="0">
-        <v>50</v>
+        <v>27.317743719585529</v>
       </c>
       <c r="V2" s="0">
-        <v>44.767158989690138</v>
+        <v>27.573007196504317</v>
       </c>
       <c r="W2" s="0">
-        <v>29.305944569933079</v>
+        <v>21.20359214394837</v>
       </c>
       <c r="X2" s="0">
-        <v>50</v>
+        <v>33.69468550276482</v>
       </c>
       <c r="Y2" s="0">
-        <v>19.51415018599193</v>
+        <v>29.262074890688776</v>
       </c>
       <c r="Z2" s="0">
-        <v>50</v>
+        <v>27.101425071240808</v>
       </c>
       <c r="AA2" s="0">
-        <v>3.9823223810381925</v>
+        <v>18.512939738084977</v>
       </c>
       <c r="AB2" s="0">
-        <v>50</v>
+        <v>21.720369858222977</v>
       </c>
       <c r="AC2" s="0">
-        <v>31.376862827627747</v>
+        <v>26.546924786705915</v>
       </c>
       <c r="AD2" s="0">
-        <v>38.207861831332174</v>
+        <v>22.956060206021348</v>
       </c>
       <c r="AE2" s="0">
-        <v>7.5404318485306598</v>
+        <v>23.850083201881571</v>
       </c>
       <c r="AF2" s="0">
-        <v>3.6318631474476009</v>
+        <v>21.915586669794784</v>
       </c>
       <c r="AG2" s="0">
-        <v>50</v>
+        <v>19.056291688277931</v>
       </c>
       <c r="AH2" s="0">
-        <v>8.3676897235207921</v>
+        <v>33.125939189137753</v>
       </c>
       <c r="AI2" s="0">
-        <v>26.835779357242423</v>
+        <v>24.393769995363286</v>
       </c>
       <c r="AJ2" s="0">
-        <v>50</v>
+        <v>33.081884359493863</v>
       </c>
       <c r="AK2" s="0">
-        <v>35.174959415030784</v>
+        <v>26.338376814814232</v>
       </c>
       <c r="AL2" s="0">
-        <v>1.3059825973191206</v>
+        <v>34.302331359202732</v>
       </c>
       <c r="AM2" s="0">
-        <v>18.698716415887656</v>
+        <v>36.64410128206756</v>
       </c>
       <c r="AN2" s="0">
-        <v>50</v>
+        <v>38.153843039592736</v>
       </c>
       <c r="AO2" s="0">
-        <v>10.552736330470051</v>
+        <v>27.556825059724993</v>
       </c>
       <c r="AP2" s="0">
-        <v>27.550821704146863</v>
+        <v>26.676884802567667</v>
       </c>
     </row>
     <row r="3">
@@ -7605,127 +7605,127 @@
         <v>222</v>
       </c>
       <c r="B3" s="0">
-        <v>3.6956934453984402</v>
+        <v>3.8520336474507002</v>
       </c>
       <c r="C3" s="0">
-        <v>2.3184913305278578</v>
+        <v>5.7987321020835081</v>
       </c>
       <c r="D3" s="0">
-        <v>1.9319703061468776</v>
+        <v>2.4667345251786146</v>
       </c>
       <c r="E3" s="0">
-        <v>0.61464311997080068</v>
+        <v>3.1964384025159016</v>
       </c>
       <c r="F3" s="0">
-        <v>1.7610948870772758</v>
+        <v>2.3708304300084864</v>
       </c>
       <c r="G3" s="0">
-        <v>2.2072513246533076</v>
+        <v>3.1936506449691886</v>
       </c>
       <c r="H3" s="0">
-        <v>25.385197857681746</v>
+        <v>2.0565051483015204</v>
       </c>
       <c r="I3" s="0">
-        <v>0.25250565337109254</v>
+        <v>2.299458605088962</v>
       </c>
       <c r="J3" s="0">
-        <v>0.20027675752975913</v>
+        <v>1.2793993670265367</v>
       </c>
       <c r="K3" s="0">
-        <v>0.24501274359674019</v>
+        <v>2.4690915307498584</v>
       </c>
       <c r="L3" s="0">
-        <v>1.1152653827209802</v>
+        <v>1.9632934783155602</v>
       </c>
       <c r="M3" s="0">
-        <v>0.94628803883338219</v>
+        <v>2.7586123564700218</v>
       </c>
       <c r="N3" s="0">
-        <v>6.5454958504859686</v>
+        <v>4.7899846672071522</v>
       </c>
       <c r="O3" s="0">
-        <v>4.3941496141741432</v>
+        <v>3.2799316334900115</v>
       </c>
       <c r="P3" s="0">
-        <v>3.0804984066341494</v>
+        <v>1.5067169217514949</v>
       </c>
       <c r="Q3" s="0">
-        <v>1.0026261223746047</v>
+        <v>2.0600445865768555</v>
       </c>
       <c r="R3" s="0">
-        <v>1.9524579401694981</v>
+        <v>3.0401779754304226</v>
       </c>
       <c r="S3" s="0">
-        <v>0.42524313202373226</v>
+        <v>1.4186776512562205</v>
       </c>
       <c r="T3" s="0">
-        <v>4.2705229632866404</v>
+        <v>3.1106882222153494</v>
       </c>
       <c r="U3" s="0">
-        <v>2.0528815953118431</v>
+        <v>2.8168545927279354</v>
       </c>
       <c r="V3" s="0">
-        <v>0.15447151192526196</v>
+        <v>1.9515031650520176</v>
       </c>
       <c r="W3" s="0">
-        <v>0.60124559767051611</v>
+        <v>2.4269245846244107</v>
       </c>
       <c r="X3" s="0">
-        <v>13.036023964214502</v>
+        <v>3.234807919930041</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.88449165175968514</v>
+        <v>2.5208591556527526</v>
       </c>
       <c r="Z3" s="0">
-        <v>1.0525201166079705</v>
+        <v>3.1251472634545792</v>
       </c>
       <c r="AA3" s="0">
-        <v>3.47439879577755</v>
+        <v>2.6217392454880941</v>
       </c>
       <c r="AB3" s="0">
-        <v>6.0966944861141821</v>
+        <v>1.9238612283795331</v>
       </c>
       <c r="AC3" s="0">
-        <v>6.2941669839151384</v>
+        <v>3.694075815277361</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.48944641251252141</v>
+        <v>4.0916923197303934</v>
       </c>
       <c r="AE3" s="0">
-        <v>2.1416621955122666</v>
+        <v>3.3314555251808335</v>
       </c>
       <c r="AF3" s="0">
-        <v>2.474677624857315</v>
+        <v>2.8837473830132807</v>
       </c>
       <c r="AG3" s="0">
-        <v>4.7373996146436239</v>
+        <v>3.2024198473406362</v>
       </c>
       <c r="AH3" s="0">
-        <v>15.659715078637229</v>
+        <v>3.4477102877188224</v>
       </c>
       <c r="AI3" s="0">
-        <v>3.2128475027134882</v>
+        <v>3.3128199879531994</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.44640394720733578</v>
+        <v>2.2042327578516199</v>
       </c>
       <c r="AK3" s="0">
-        <v>10.926507986146452</v>
+        <v>4.2169927568212655</v>
       </c>
       <c r="AL3" s="0">
-        <v>7.1720609170528773</v>
+        <v>2.7559916127334421</v>
       </c>
       <c r="AM3" s="0">
-        <v>1.1996000292076294</v>
+        <v>9.4815081732759392</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.22600735310392156</v>
+        <v>3.9868064123126854</v>
       </c>
       <c r="AO3" s="0">
-        <v>4.2613458862473061</v>
+        <v>2.6569417468841583</v>
       </c>
       <c r="AP3" s="0">
-        <v>3.7234813531948903</v>
+        <v>3.0699773419372347</v>
       </c>
     </row>
   </sheetData>
@@ -7745,7 +7745,7 @@
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="7.28515625" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
@@ -7756,28 +7756,28 @@
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
-    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.28515625" customWidth="true"/>
-    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="8.28515625" customWidth="true"/>
-    <col min="34" max="34" width="10.7109375" customWidth="true"/>
+    <col min="33" max="33" width="11.7109375" customWidth="true"/>
+    <col min="34" max="34" width="11.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
     <col min="38" max="38" width="11.7109375" customWidth="true"/>
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="11.7109375" customWidth="true"/>
-    <col min="41" max="41" width="11.7109375" customWidth="true"/>
+    <col min="41" max="41" width="10.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -7914,127 +7914,127 @@
         <v>265</v>
       </c>
       <c r="B2" s="0">
-        <v>1.7600029973551927</v>
+        <v>12.955339387951764</v>
       </c>
       <c r="C2" s="0">
-        <v>9.218909507033354</v>
+        <v>17.017591839381875</v>
       </c>
       <c r="D2" s="0">
-        <v>3.263067876946895</v>
+        <v>18.987490480602062</v>
       </c>
       <c r="E2" s="0">
-        <v>1.5420043155416134</v>
+        <v>11.103803658770939</v>
       </c>
       <c r="F2" s="0">
-        <v>9.8190141482626174</v>
+        <v>13.607628988744004</v>
       </c>
       <c r="G2" s="0">
-        <v>19.744910227123377</v>
+        <v>14.297081064092469</v>
       </c>
       <c r="H2" s="0">
-        <v>11.930492807873367</v>
+        <v>9.3516875662407521</v>
       </c>
       <c r="I2" s="0">
-        <v>50</v>
+        <v>15.413445393255683</v>
       </c>
       <c r="J2" s="0">
-        <v>17.718125225411683</v>
+        <v>18.327189969554698</v>
       </c>
       <c r="K2" s="0">
-        <v>33.963786157864881</v>
+        <v>14.751682484407008</v>
       </c>
       <c r="L2" s="0">
-        <v>5.6689568981725467</v>
+        <v>17.145558351957241</v>
       </c>
       <c r="M2" s="0">
-        <v>25.083763334854513</v>
+        <v>27.175896678522157</v>
       </c>
       <c r="N2" s="0">
-        <v>33.235409772950234</v>
+        <v>13.213368587331098</v>
       </c>
       <c r="O2" s="0">
-        <v>24.8843575097087</v>
+        <v>23.269696585152264</v>
       </c>
       <c r="P2" s="0">
-        <v>9.6084176073779375</v>
+        <v>14.324052339840753</v>
       </c>
       <c r="Q2" s="0">
-        <v>4.5303381481079068</v>
+        <v>13.164254505290071</v>
       </c>
       <c r="R2" s="0">
-        <v>28.909328145173298</v>
+        <v>16.906308578177946</v>
       </c>
       <c r="S2" s="0">
-        <v>1.0527318552262048</v>
+        <v>15.366468911411689</v>
       </c>
       <c r="T2" s="0">
-        <v>0.40967416219802905</v>
+        <v>21.114888161111267</v>
       </c>
       <c r="U2" s="0">
-        <v>5.8924173874755486</v>
+        <v>18.488269853922073</v>
       </c>
       <c r="V2" s="0">
-        <v>50</v>
+        <v>18.701888693801799</v>
       </c>
       <c r="W2" s="0">
-        <v>0.82007510712295162</v>
+        <v>13.340474366520974</v>
       </c>
       <c r="X2" s="0">
-        <v>13.34182123901585</v>
+        <v>18.800721760840087</v>
       </c>
       <c r="Y2" s="0">
-        <v>40.239034627893005</v>
+        <v>15.150255130905938</v>
       </c>
       <c r="Z2" s="0">
-        <v>13.339120230783305</v>
+        <v>10.473994161281944</v>
       </c>
       <c r="AA2" s="0">
-        <v>28.275657231489497</v>
+        <v>19.583543356978371</v>
       </c>
       <c r="AB2" s="0">
-        <v>19.89725447994908</v>
+        <v>12.534634013626084</v>
       </c>
       <c r="AC2" s="0">
-        <v>0.81648545757626612</v>
+        <v>18.525940384678112</v>
       </c>
       <c r="AD2" s="0">
-        <v>16.95625167214591</v>
+        <v>14.809211123015956</v>
       </c>
       <c r="AE2" s="0">
-        <v>8.9627819672156885</v>
+        <v>13.196466064953592</v>
       </c>
       <c r="AF2" s="0">
-        <v>3.5875261872844764</v>
+        <v>11.55288274451223</v>
       </c>
       <c r="AG2" s="0">
-        <v>50</v>
+        <v>11.78897901820733</v>
       </c>
       <c r="AH2" s="0">
-        <v>1.0239996102774154</v>
+        <v>15.531439627620816</v>
       </c>
       <c r="AI2" s="0">
-        <v>10.807367442570635</v>
+        <v>13.583391577592952</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.17098428581515496</v>
+        <v>15.546420431616845</v>
       </c>
       <c r="AK2" s="0">
-        <v>11.697481726209263</v>
+        <v>26.149948362878533</v>
       </c>
       <c r="AL2" s="0">
-        <v>33.734156193558491</v>
+        <v>19.050754833047076</v>
       </c>
       <c r="AM2" s="0">
-        <v>23.171784726129736</v>
+        <v>30.488285113947423</v>
       </c>
       <c r="AN2" s="0">
-        <v>13.447816568129838</v>
+        <v>20.312747334919013</v>
       </c>
       <c r="AO2" s="0">
-        <v>5.3328942886450248</v>
+        <v>19.536116904551385</v>
       </c>
       <c r="AP2" s="0">
-        <v>16.096455028161738</v>
+        <v>16.615994959780355</v>
       </c>
     </row>
     <row r="3">
@@ -8042,127 +8042,127 @@
         <v>266</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13619327350334345</v>
+        <v>1.2759328559376608</v>
       </c>
       <c r="C3" s="0">
-        <v>0.12229736138500649</v>
+        <v>2.8574501471448657</v>
       </c>
       <c r="D3" s="0">
-        <v>0.7173088966767851</v>
+        <v>1.1638925309086203</v>
       </c>
       <c r="E3" s="0">
-        <v>0.17892175758272366</v>
+        <v>1.2775233320542694</v>
       </c>
       <c r="F3" s="0">
-        <v>0.31737464236491469</v>
+        <v>0.94751063928257151</v>
       </c>
       <c r="G3" s="0">
-        <v>0.64319712170254661</v>
+        <v>0.67771720943974212</v>
       </c>
       <c r="H3" s="0">
-        <v>0.94483306284302637</v>
+        <v>1.1002913652973563</v>
       </c>
       <c r="I3" s="0">
-        <v>0.15466282660317265</v>
+        <v>1.0712888922712611</v>
       </c>
       <c r="J3" s="0">
-        <v>0.34275272346379443</v>
+        <v>0.73986563466993571</v>
       </c>
       <c r="K3" s="0">
-        <v>0.85373347709405145</v>
+        <v>0.57528560710584187</v>
       </c>
       <c r="L3" s="0">
-        <v>1.6504374687088059</v>
+        <v>0.88639683984232731</v>
       </c>
       <c r="M3" s="0">
-        <v>0.99524447056941112</v>
+        <v>0.91758361078887596</v>
       </c>
       <c r="N3" s="0">
-        <v>0.38229100793968401</v>
+        <v>1.3011459513863939</v>
       </c>
       <c r="O3" s="0">
-        <v>0.52587933500837825</v>
+        <v>1.0972183118342012</v>
       </c>
       <c r="P3" s="0">
-        <v>1.7832908319537335</v>
+        <v>0.7455383815233253</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.56265578477059952</v>
+        <v>1.0332522710507581</v>
       </c>
       <c r="R3" s="0">
-        <v>1.007907952837382</v>
+        <v>0.82875901751403724</v>
       </c>
       <c r="S3" s="0">
-        <v>0.22349750681949229</v>
+        <v>0.35657468199969083</v>
       </c>
       <c r="T3" s="0">
-        <v>2.1724909354801345</v>
+        <v>1.172265382478143</v>
       </c>
       <c r="U3" s="0">
-        <v>0.85361641933074717</v>
+        <v>2.4539693517279821</v>
       </c>
       <c r="V3" s="0">
-        <v>0.12574698418460656</v>
+        <v>0.64606721691188673</v>
       </c>
       <c r="W3" s="0">
-        <v>2.0925365379183414</v>
+        <v>0.54810262787409203</v>
       </c>
       <c r="X3" s="0">
-        <v>1.5284490044110906</v>
+        <v>0.85377255786737749</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.62624834635115678</v>
+        <v>0.94570123217823887</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.33844434303956011</v>
+        <v>0.83067340732687867</v>
       </c>
       <c r="AA3" s="0">
-        <v>1.2521037405354225</v>
+        <v>1.2264441329919409</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.3278667499940689</v>
+        <v>0.69467929371701442</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.34903186505204675</v>
+        <v>1.1628299257840065</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.28565863729536917</v>
+        <v>1.0295055772965955</v>
       </c>
       <c r="AE3" s="0">
-        <v>1.9918522460859258</v>
+        <v>1.2759506230331223</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.15880760300610364</v>
+        <v>1.0445584857753702</v>
       </c>
       <c r="AG3" s="0">
-        <v>1.3979557460731333</v>
+        <v>0.86994889750096427</v>
       </c>
       <c r="AH3" s="0">
-        <v>3.1000468084074826</v>
+        <v>1.0823482922708287</v>
       </c>
       <c r="AI3" s="0">
-        <v>2.6908459095044033</v>
+        <v>1.2946596548886162</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.88617783979691789</v>
+        <v>1.0925108820226761</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.22473046159916243</v>
+        <v>1.1156207993964016</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.28708522917613305</v>
+        <v>1.0142081530895517</v>
       </c>
       <c r="AM3" s="0">
-        <v>1.426422229718066</v>
+        <v>2.2259293690658635</v>
       </c>
       <c r="AN3" s="0">
-        <v>1.5719165243494981</v>
+        <v>1.0363875451056204</v>
       </c>
       <c r="AO3" s="0">
-        <v>0.19235204917674287</v>
+        <v>0.59533731721915339</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.88557164280782408</v>
+        <v>1.0766174501393515</v>
       </c>
     </row>
   </sheetData>
@@ -8175,7 +8175,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
@@ -8192,7 +8192,7 @@
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
@@ -8201,18 +8201,18 @@
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.7109375" customWidth="true"/>
-    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="11.7109375" customWidth="true"/>
+    <col min="33" max="33" width="10.7109375" customWidth="true"/>
     <col min="34" max="34" width="11.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
     <col min="38" max="38" width="11.7109375" customWidth="true"/>
-    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="11.7109375" customWidth="true"/>
     <col min="41" max="41" width="11.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
@@ -8351,127 +8351,127 @@
         <v>309</v>
       </c>
       <c r="B2" s="0">
-        <v>0.43933422157275337</v>
+        <v>7.9700248366693289</v>
       </c>
       <c r="C2" s="0">
-        <v>1.7064735112760772</v>
+        <v>15.401311373666365</v>
       </c>
       <c r="D2" s="0">
-        <v>20.535807674269421</v>
+        <v>8.1068446538945516</v>
       </c>
       <c r="E2" s="0">
-        <v>5.0434942406803369</v>
+        <v>7.8028263018315966</v>
       </c>
       <c r="F2" s="0">
-        <v>3.1957267186209939</v>
+        <v>5.8621269612301541</v>
       </c>
       <c r="G2" s="0">
-        <v>20.402144621259687</v>
+        <v>6.6876665659462864</v>
       </c>
       <c r="H2" s="0">
-        <v>27.193224006113148</v>
+        <v>4.3074555153589769</v>
       </c>
       <c r="I2" s="0">
-        <v>1.2482202979609802</v>
+        <v>11.770196844696779</v>
       </c>
       <c r="J2" s="0">
-        <v>10.82375980659133</v>
+        <v>6.8315002958442497</v>
       </c>
       <c r="K2" s="0">
-        <v>14.744176922911091</v>
+        <v>9.4189236368906997</v>
       </c>
       <c r="L2" s="0">
-        <v>10.878373510969549</v>
+        <v>9.0328834205372157</v>
       </c>
       <c r="M2" s="0">
-        <v>25.332167481209801</v>
+        <v>12.45654993343738</v>
       </c>
       <c r="N2" s="0">
-        <v>4.5147712141111622</v>
+        <v>6.9861891532751379</v>
       </c>
       <c r="O2" s="0">
-        <v>8.9302315042406253</v>
+        <v>9.2045368322960535</v>
       </c>
       <c r="P2" s="0">
-        <v>3.4058516032437822</v>
+        <v>7.7478451672861448</v>
       </c>
       <c r="Q2" s="0">
-        <v>2.1951099554205591</v>
+        <v>8.5991469947032133</v>
       </c>
       <c r="R2" s="0">
-        <v>24.164144719921335</v>
+        <v>10.57326463440031</v>
       </c>
       <c r="S2" s="0">
-        <v>0.47889969849625841</v>
+        <v>5.5368492048267024</v>
       </c>
       <c r="T2" s="0">
-        <v>2.4194717759531565</v>
+        <v>9.5148459942776746</v>
       </c>
       <c r="U2" s="0">
-        <v>11.319479309246953</v>
+        <v>13.452484183615052</v>
       </c>
       <c r="V2" s="0">
-        <v>1.1749379457020352</v>
+        <v>9.4832568987837096</v>
       </c>
       <c r="W2" s="0">
-        <v>9.0368260315840754</v>
+        <v>7.0768042024793383</v>
       </c>
       <c r="X2" s="0">
-        <v>6.1974643459727341</v>
+        <v>10.838953326295528</v>
       </c>
       <c r="Y2" s="0">
-        <v>2.1667539294095239</v>
+        <v>7.3300235251647701</v>
       </c>
       <c r="Z2" s="0">
-        <v>4.6572291993475394</v>
+        <v>9.3705568249242983</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.1326282659608089</v>
+        <v>9.2322776294239652</v>
       </c>
       <c r="AB2" s="0">
-        <v>0.60243472267345699</v>
+        <v>10.25074912491292</v>
       </c>
       <c r="AC2" s="0">
-        <v>1.262985669773472</v>
+        <v>10.497317573113795</v>
       </c>
       <c r="AD2" s="0">
-        <v>0.2170834213943979</v>
+        <v>9.3707649252137344</v>
       </c>
       <c r="AE2" s="0">
-        <v>13.769245560102419</v>
+        <v>10.413058179969909</v>
       </c>
       <c r="AF2" s="0">
-        <v>9.7700869360127207</v>
+        <v>8.5134844771786931</v>
       </c>
       <c r="AG2" s="0">
-        <v>27.281055881415615</v>
+        <v>8.2343429104333374</v>
       </c>
       <c r="AH2" s="0">
-        <v>8.8270362554635984</v>
+        <v>8.3036160126127889</v>
       </c>
       <c r="AI2" s="0">
-        <v>7.8421100039617739</v>
+        <v>6.9321062685802017</v>
       </c>
       <c r="AJ2" s="0">
-        <v>2.7044436792817836</v>
+        <v>8.2462282488378431</v>
       </c>
       <c r="AK2" s="0">
-        <v>18.990200885970186</v>
+        <v>13.324446547102331</v>
       </c>
       <c r="AL2" s="0">
-        <v>16.253102950319491</v>
+        <v>11.954167347859949</v>
       </c>
       <c r="AM2" s="0">
-        <v>0.89525635617689825</v>
+        <v>18.452379381040892</v>
       </c>
       <c r="AN2" s="0">
-        <v>1.1295802750534241</v>
+        <v>11.522571254541395</v>
       </c>
       <c r="AO2" s="0">
-        <v>6.599021443440277</v>
+        <v>12.649166943112187</v>
       </c>
       <c r="AP2" s="0">
-        <v>8.4870086638271296</v>
+        <v>9.4814936026566325</v>
       </c>
     </row>
     <row r="3">
@@ -8479,127 +8479,127 @@
         <v>310</v>
       </c>
       <c r="B3" s="0">
-        <v>0.41486751117690063</v>
+        <v>0.53075470878882403</v>
       </c>
       <c r="C3" s="0">
-        <v>0.36075519557532221</v>
+        <v>0.86160609699040158</v>
       </c>
       <c r="D3" s="0">
-        <v>0.4324195969659213</v>
+        <v>0.27881431191612016</v>
       </c>
       <c r="E3" s="0">
-        <v>0.17746475652367363</v>
+        <v>0.73570112076279626</v>
       </c>
       <c r="F3" s="0">
-        <v>0.44006853291948839</v>
+        <v>0.56239436951753752</v>
       </c>
       <c r="G3" s="0">
-        <v>0.21627188617380907</v>
+        <v>0.3085879610235206</v>
       </c>
       <c r="H3" s="0">
-        <v>0.1721785037373402</v>
+        <v>0.28973121561694437</v>
       </c>
       <c r="I3" s="0">
-        <v>0.28149872853107749</v>
+        <v>0.46839169587211577</v>
       </c>
       <c r="J3" s="0">
-        <v>0.25643153476679509</v>
+        <v>0.31320760089995697</v>
       </c>
       <c r="K3" s="0">
-        <v>0.042944208620183513</v>
+        <v>0.25351790572838867</v>
       </c>
       <c r="L3" s="0">
-        <v>0.22956759951563183</v>
+        <v>0.42096934222020871</v>
       </c>
       <c r="M3" s="0">
-        <v>0.19354496180696765</v>
+        <v>0.25098580958398142</v>
       </c>
       <c r="N3" s="0">
-        <v>0.27787234048594839</v>
+        <v>0.70759478022902644</v>
       </c>
       <c r="O3" s="0">
-        <v>0.57318392919163152</v>
+        <v>0.66444157520444591</v>
       </c>
       <c r="P3" s="0">
-        <v>0.490523924473868</v>
+        <v>0.40210974963380658</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.39560985530406384</v>
+        <v>0.63617128197925288</v>
       </c>
       <c r="R3" s="0">
-        <v>0.12616004156229432</v>
+        <v>0.3385271251456638</v>
       </c>
       <c r="S3" s="0">
-        <v>0.048905424727733404</v>
+        <v>0.2779786638741617</v>
       </c>
       <c r="T3" s="0">
-        <v>0.56775507322357877</v>
+        <v>0.64077119561269746</v>
       </c>
       <c r="U3" s="0">
-        <v>0.4905256260070418</v>
+        <v>0.36799942852925194</v>
       </c>
       <c r="V3" s="0">
-        <v>0.43628989683152908</v>
+        <v>0.38440433853223438</v>
       </c>
       <c r="W3" s="0">
-        <v>0.81088199624376789</v>
+        <v>0.29335843194420957</v>
       </c>
       <c r="X3" s="0">
-        <v>0.057956903764568558</v>
+        <v>0.42010370513514761</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.48283466141896575</v>
+        <v>0.58629979740275506</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.4901130429014558</v>
+        <v>0.44528533720501989</v>
       </c>
       <c r="AA3" s="0">
-        <v>1.1342895551221175</v>
+        <v>0.8131278858220512</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.26794278021561085</v>
+        <v>0.58565336756997344</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.38101027789556452</v>
+        <v>0.65930291660155638</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.81927418042533517</v>
+        <v>0.74723266560705581</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.33099051281961295</v>
+        <v>0.60573341172716588</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.46700636716307092</v>
+        <v>0.35747851803296793</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.48986517322061618</v>
+        <v>0.42075401340059015</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.40532908272091778</v>
+        <v>0.37603268535980316</v>
       </c>
       <c r="AI3" s="0">
-        <v>0.99776819654978266</v>
+        <v>0.64639942077628787</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.31665577015453461</v>
+        <v>0.34513902173981731</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.42157871880022013</v>
+        <v>0.22633373408232113</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.42374111754074895</v>
+        <v>0.58958251158351671</v>
       </c>
       <c r="AM3" s="0">
-        <v>1.4360951228681167</v>
+        <v>0.31266082519210053</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.24838400131961086</v>
+        <v>0.73065618620914929</v>
       </c>
       <c r="AO3" s="0">
-        <v>1.5808374151811495</v>
+        <v>0.36201637014768934</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.45468485011116416</v>
+        <v>0.48044527708001289</v>
       </c>
     </row>
   </sheetData>

--- a/GA_Parameters/ErForPopulationCase.xlsx
+++ b/GA_Parameters/ErForPopulationCase.xlsx
@@ -1611,14 +1611,14 @@
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="10.7109375" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="10.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="10.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
@@ -1633,7 +1633,7 @@
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="10.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
@@ -1743,97 +1743,97 @@
         <v>273</v>
       </c>
       <c r="B2" s="0">
-        <v>5.0139888981502256</v>
+        <v>6.6835271344863196</v>
       </c>
       <c r="C2" s="0">
-        <v>4.9573434907453073</v>
+        <v>6.4856814362360309</v>
       </c>
       <c r="D2" s="0">
-        <v>5.8345725363276202</v>
+        <v>3.0830808971400403</v>
       </c>
       <c r="E2" s="0">
-        <v>4.5995440751152117</v>
+        <v>4.6585882323518053</v>
       </c>
       <c r="F2" s="0">
-        <v>3.7201282925695245</v>
+        <v>4.9062747396982029</v>
       </c>
       <c r="G2" s="0">
-        <v>5.6927310588203834</v>
+        <v>4.6464483820591012</v>
       </c>
       <c r="H2" s="0">
-        <v>4.2586737090263007</v>
+        <v>4.015939690144922</v>
       </c>
       <c r="I2" s="0">
-        <v>4.4578464525401191</v>
+        <v>2.9184116798857547</v>
       </c>
       <c r="J2" s="0">
-        <v>5.1655896456283248</v>
+        <v>3.902620842494128</v>
       </c>
       <c r="K2" s="0">
-        <v>3.3583195149487501</v>
+        <v>2.6093834702486194</v>
       </c>
       <c r="L2" s="0">
-        <v>4.2421052092056986</v>
+        <v>3.9759123334371504</v>
       </c>
       <c r="M2" s="0">
-        <v>5.5178056696037094</v>
+        <v>4.5515980229750976</v>
       </c>
       <c r="N2" s="0">
-        <v>3.6217467945635526</v>
+        <v>2.9492041035602914</v>
       </c>
       <c r="O2" s="0">
-        <v>4.1685500930072727</v>
+        <v>6.9802196167506478</v>
       </c>
       <c r="P2" s="0">
-        <v>5.2642492406313028</v>
+        <v>5.4704156634022754</v>
       </c>
       <c r="Q2" s="0">
-        <v>5.2783920806012912</v>
+        <v>2.740248444014254</v>
       </c>
       <c r="R2" s="0">
-        <v>4.4763608128717793</v>
+        <v>3.9687116160035045</v>
       </c>
       <c r="S2" s="0">
-        <v>4.0903252368078507</v>
+        <v>3.7432371712842945</v>
       </c>
       <c r="T2" s="0">
-        <v>5.1271678968078547</v>
+        <v>5.0158136625195731</v>
       </c>
       <c r="U2" s="0">
-        <v>5.724709265372403</v>
+        <v>4.5064831478404113</v>
       </c>
       <c r="V2" s="0">
-        <v>4.0685749471691119</v>
+        <v>3.0546560283930106</v>
       </c>
       <c r="W2" s="0">
-        <v>4.7945726717998278</v>
+        <v>4.9651088808456398</v>
       </c>
       <c r="X2" s="0">
-        <v>3.3892489941335051</v>
+        <v>5.3631404740039628</v>
       </c>
       <c r="Y2" s="0">
-        <v>4.1965440937394174</v>
+        <v>4.156817487730577</v>
       </c>
       <c r="Z2" s="0">
-        <v>4.5123709173926674</v>
+        <v>3.9823030368784589</v>
       </c>
       <c r="AA2" s="0">
-        <v>4.1777456923569485</v>
+        <v>3.0617764292812319</v>
       </c>
       <c r="AB2" s="0">
-        <v>3.6594187857578744</v>
+        <v>3.1086957504623935</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.1114835865102872</v>
+        <v>4.4448258041816588</v>
       </c>
       <c r="AD2" s="0">
-        <v>6.0015405867312968</v>
+        <v>3.9662996225511504</v>
       </c>
       <c r="AE2" s="0">
-        <v>4.2147842559941839</v>
+        <v>3.6961891117880321</v>
       </c>
       <c r="AF2" s="0">
-        <v>4.5898811501643202</v>
+        <v>4.2537204304216178</v>
       </c>
     </row>
     <row r="3">
@@ -1841,97 +1841,97 @@
         <v>274</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31005769394247829</v>
+        <v>0.17279876176464218</v>
       </c>
       <c r="C3" s="0">
-        <v>0.2640194130811262</v>
+        <v>0.24331211482477152</v>
       </c>
       <c r="D3" s="0">
-        <v>0.24517288843923746</v>
+        <v>0.2982364843853843</v>
       </c>
       <c r="E3" s="0">
-        <v>0.26944094454319484</v>
+        <v>0.24565884650772868</v>
       </c>
       <c r="F3" s="0">
-        <v>0.2292345046385878</v>
+        <v>0.22704917448507786</v>
       </c>
       <c r="G3" s="0">
-        <v>0.24257394226655932</v>
+        <v>0.25925529978402939</v>
       </c>
       <c r="H3" s="0">
-        <v>0.26614916239580827</v>
+        <v>0.25040631655558304</v>
       </c>
       <c r="I3" s="0">
-        <v>0.24367604723579711</v>
+        <v>0.40243143876619297</v>
       </c>
       <c r="J3" s="0">
-        <v>0.26723629708261443</v>
+        <v>0.22620023151726737</v>
       </c>
       <c r="K3" s="0">
-        <v>0.23871640874449382</v>
+        <v>0.22224965200346328</v>
       </c>
       <c r="L3" s="0">
-        <v>0.32364013964789745</v>
+        <v>0.23047203213360684</v>
       </c>
       <c r="M3" s="0">
-        <v>0.262636643512976</v>
+        <v>0.2081218849594991</v>
       </c>
       <c r="N3" s="0">
-        <v>0.28488959693244825</v>
+        <v>0.24745710273368163</v>
       </c>
       <c r="O3" s="0">
-        <v>0.29152022478380135</v>
+        <v>0.23110724737632046</v>
       </c>
       <c r="P3" s="0">
-        <v>0.23432959755629051</v>
+        <v>0.32816132760494227</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.24932912350233352</v>
+        <v>0.24189164675397334</v>
       </c>
       <c r="R3" s="0">
-        <v>0.23372765450264091</v>
+        <v>0.30161682285598407</v>
       </c>
       <c r="S3" s="0">
-        <v>0.24904252104761587</v>
+        <v>0.2456467868601992</v>
       </c>
       <c r="T3" s="0">
-        <v>0.22563455316840053</v>
+        <v>0.23531745405989932</v>
       </c>
       <c r="U3" s="0">
-        <v>0.28051743685188191</v>
+        <v>0.2293488646475268</v>
       </c>
       <c r="V3" s="0">
-        <v>0.25133050696124754</v>
+        <v>0.21777544886230732</v>
       </c>
       <c r="W3" s="0">
-        <v>0.26317279619226636</v>
+        <v>0.21261053041097849</v>
       </c>
       <c r="X3" s="0">
-        <v>0.28370269528818853</v>
+        <v>0.19759774484611756</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.31183604994040948</v>
+        <v>0.27613205425324533</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.24634565834669503</v>
+        <v>0.2337453579535537</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.24254389081576924</v>
+        <v>0.22384681137119761</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.28373742953112407</v>
+        <v>0.26870879809753617</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.28835129532822468</v>
+        <v>0.22814761383100729</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.27884692517541704</v>
+        <v>0.3508872400245332</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.23306409681635171</v>
+        <v>0.22085639295371509</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.26314920460906255</v>
+        <v>0.24923491610613216</v>
       </c>
     </row>
   </sheetData>
@@ -1939,343 +1939,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1.7705151825288521</v>
-      </c>
-      <c r="C2" s="0">
-        <v>2.4751838317028509</v>
-      </c>
-      <c r="D2" s="0">
-        <v>2.1104756837996659</v>
-      </c>
-      <c r="E2" s="0">
-        <v>2.5009736197825414</v>
-      </c>
-      <c r="F2" s="0">
-        <v>2.3650795534851685</v>
-      </c>
-      <c r="G2" s="0">
-        <v>2.2545633704128787</v>
-      </c>
-      <c r="H2" s="0">
-        <v>2.372168014054127</v>
-      </c>
-      <c r="I2" s="0">
-        <v>2.7148299420077029</v>
-      </c>
-      <c r="J2" s="0">
-        <v>3.0360179660406947</v>
-      </c>
-      <c r="K2" s="0">
-        <v>1.791061899908351</v>
-      </c>
-      <c r="L2" s="0">
-        <v>2.0614687422653204</v>
-      </c>
-      <c r="M2" s="0">
-        <v>2.7155516306277425</v>
-      </c>
-      <c r="N2" s="0">
-        <v>2.2262549040958688</v>
-      </c>
-      <c r="O2" s="0">
-        <v>2.542710506977671</v>
-      </c>
-      <c r="P2" s="0">
-        <v>1.9570425850615016</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>3.4164581643844345</v>
-      </c>
-      <c r="R2" s="0">
-        <v>2.4658272034639945</v>
-      </c>
-      <c r="S2" s="0">
-        <v>2.4388211800375044</v>
-      </c>
-      <c r="T2" s="0">
-        <v>2.64513596354475</v>
-      </c>
-      <c r="U2" s="0">
-        <v>2.0767070638632155</v>
-      </c>
-      <c r="V2" s="0">
-        <v>2.1920764066057079</v>
-      </c>
-      <c r="W2" s="0">
-        <v>2.7327997050550366</v>
-      </c>
-      <c r="X2" s="0">
-        <v>3.052415128500416</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>1.9783172659467234</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>3.2774664630401937</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>2.4869482243920746</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>1.8084393166659756</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>2.233189557206432</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>2.6648735678579176</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>2.4313194271891772</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>2.4264897356834831</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.2006338828486704</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.19116418284468312</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.19565469540666214</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.17843585206548687</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.19490815460371727</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.18350967227649032</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.18606643319475252</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0.18995239191365715</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.19049906839310574</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0.19241164677101355</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0.20438763961324158</v>
-      </c>
-      <c r="M3" s="0">
-        <v>0.20045484877086367</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0.19805677533539787</v>
-      </c>
-      <c r="O3" s="0">
-        <v>0.18986031406470852</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0.18299830908661832</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0.19200263774938189</v>
-      </c>
-      <c r="R3" s="0">
-        <v>0.18868549046965563</v>
-      </c>
-      <c r="S3" s="0">
-        <v>0.18696800688043191</v>
-      </c>
-      <c r="T3" s="0">
-        <v>0.18681518554902324</v>
-      </c>
-      <c r="U3" s="0">
-        <v>0.20832266553998732</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.18238785206752067</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.18015483282247952</v>
-      </c>
-      <c r="X3" s="0">
-        <v>0.18370545935228724</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>0.17835524291825461</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>0.18172470798860979</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>0.18270496083949256</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>0.19811125817539538</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.20565015456288696</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.20319905322181478</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.18962128405274162</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>0.19091342197930111</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2316,6 +1979,343 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2.3290040490098733</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1.7872836655578019</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1.7597301277533646</v>
+      </c>
+      <c r="E2" s="0">
+        <v>2.9736292550783516</v>
+      </c>
+      <c r="F2" s="0">
+        <v>2.8037014009828045</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1.7973929794610117</v>
+      </c>
+      <c r="H2" s="0">
+        <v>2.1898693308224844</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1.7282022449446635</v>
+      </c>
+      <c r="J2" s="0">
+        <v>2.3465938737254217</v>
+      </c>
+      <c r="K2" s="0">
+        <v>1.7178212035466411</v>
+      </c>
+      <c r="L2" s="0">
+        <v>3.1054472742326578</v>
+      </c>
+      <c r="M2" s="0">
+        <v>1.654405085068084</v>
+      </c>
+      <c r="N2" s="0">
+        <v>1.7967107840509067</v>
+      </c>
+      <c r="O2" s="0">
+        <v>1.5493783619659267</v>
+      </c>
+      <c r="P2" s="0">
+        <v>1.7478803193799366</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>1.9363761060381208</v>
+      </c>
+      <c r="R2" s="0">
+        <v>3.2118152329918752</v>
+      </c>
+      <c r="S2" s="0">
+        <v>2.4145567859661692</v>
+      </c>
+      <c r="T2" s="0">
+        <v>2.1118026637026013</v>
+      </c>
+      <c r="U2" s="0">
+        <v>2.1929473233322327</v>
+      </c>
+      <c r="V2" s="0">
+        <v>2.5937003111567889</v>
+      </c>
+      <c r="W2" s="0">
+        <v>2.6015320733155907</v>
+      </c>
+      <c r="X2" s="0">
+        <v>2.0407750408872474</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>2.0215191492466729</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>3.4021410638580245</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>2.5094642611011269</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>2.6260864690642265</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>2.1498947909002952</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>2.1998069175243935</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>1.5584686830027787</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>2.2285978942556022</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.17362243671812161</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.18603369673691239</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.26541549375668799</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.18191980139672428</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.1835918468914208</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.17439948738226302</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.18586740816186606</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.19598769737536312</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.18760919955463645</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.18349914195569003</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.16915375693268808</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.17417843167246336</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.17899499396066842</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.18558491290572171</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.18950544683415949</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.16756939384769595</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.20098734569022306</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.17861906478811154</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.1762913105008293</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.17873106725451365</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.17474277014160877</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.18200604597424036</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.18474356189713306</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.17518080054659232</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.19747296855779037</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.17175589745316436</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.18022658402933012</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.20041782130736277</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.2011543931428984</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.17950066277973051</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.18549211467155374</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="10.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="10.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>340</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -2417,97 +2417,97 @@
         <v>341</v>
       </c>
       <c r="B2" s="0">
-        <v>24.710486752916257</v>
+        <v>32.467951358203045</v>
       </c>
       <c r="C2" s="0">
-        <v>26.357059460678403</v>
+        <v>24.778000175544189</v>
       </c>
       <c r="D2" s="0">
-        <v>25.521248427173131</v>
+        <v>28.83778635141261</v>
       </c>
       <c r="E2" s="0">
-        <v>30.12467289467827</v>
+        <v>23.915401723217219</v>
       </c>
       <c r="F2" s="0">
-        <v>30.077622250669879</v>
+        <v>25.984200196124768</v>
       </c>
       <c r="G2" s="0">
-        <v>27.928383982880888</v>
+        <v>22.351582959463443</v>
       </c>
       <c r="H2" s="0">
-        <v>25.919307072185042</v>
+        <v>23.567493160943624</v>
       </c>
       <c r="I2" s="0">
-        <v>29.320643932738289</v>
+        <v>25.188032647289301</v>
       </c>
       <c r="J2" s="0">
-        <v>28.903292316509827</v>
+        <v>19.320040146561933</v>
       </c>
       <c r="K2" s="0">
-        <v>27.694202535062082</v>
+        <v>15.680075594980904</v>
       </c>
       <c r="L2" s="0">
-        <v>31.853376516228604</v>
+        <v>22.986017148363697</v>
       </c>
       <c r="M2" s="0">
-        <v>27.829966592872335</v>
+        <v>27.429827077461507</v>
       </c>
       <c r="N2" s="0">
-        <v>31.140385558427589</v>
+        <v>27.259468899306004</v>
       </c>
       <c r="O2" s="0">
-        <v>27.7323244845036</v>
+        <v>26.954315166237841</v>
       </c>
       <c r="P2" s="0">
-        <v>26.606506514449205</v>
+        <v>29.405464748488267</v>
       </c>
       <c r="Q2" s="0">
-        <v>25.206384620821137</v>
+        <v>18.941174485177118</v>
       </c>
       <c r="R2" s="0">
-        <v>27.26054401858956</v>
+        <v>25.413584711391309</v>
       </c>
       <c r="S2" s="0">
-        <v>28.386831457315804</v>
+        <v>26.834903096532464</v>
       </c>
       <c r="T2" s="0">
-        <v>30.927746981325715</v>
+        <v>24.630754479022848</v>
       </c>
       <c r="U2" s="0">
-        <v>25.670517185320904</v>
+        <v>24.441285910776749</v>
       </c>
       <c r="V2" s="0">
-        <v>28.966033428082341</v>
+        <v>23.300525828946242</v>
       </c>
       <c r="W2" s="0">
-        <v>25.987088446931949</v>
+        <v>21.64102126471666</v>
       </c>
       <c r="X2" s="0">
-        <v>26.452509142742663</v>
+        <v>24.056269227469542</v>
       </c>
       <c r="Y2" s="0">
-        <v>26.62748540800148</v>
+        <v>21.063479435358719</v>
       </c>
       <c r="Z2" s="0">
-        <v>28.81639427823842</v>
+        <v>23.880614083801262</v>
       </c>
       <c r="AA2" s="0">
-        <v>29.482745361075398</v>
+        <v>27.660669513933662</v>
       </c>
       <c r="AB2" s="0">
-        <v>30.899023350182841</v>
+        <v>21.558411389118174</v>
       </c>
       <c r="AC2" s="0">
-        <v>32.861557239675335</v>
+        <v>22.905205662629836</v>
       </c>
       <c r="AD2" s="0">
-        <v>27.204787719935087</v>
+        <v>20.784883849016165</v>
       </c>
       <c r="AE2" s="0">
-        <v>28.78273546160683</v>
+        <v>22.873361014007632</v>
       </c>
       <c r="AF2" s="0">
-        <v>28.175062113060626</v>
+        <v>24.203726710183222</v>
       </c>
     </row>
     <row r="3">
@@ -2515,97 +2515,97 @@
         <v>342</v>
       </c>
       <c r="B3" s="0">
-        <v>2.7077417430349242</v>
+        <v>4.0149498095074092</v>
       </c>
       <c r="C3" s="0">
-        <v>3.5807420854576266</v>
+        <v>2.6811805659829071</v>
       </c>
       <c r="D3" s="0">
-        <v>4.0130745668670667</v>
+        <v>3.1581355324611371</v>
       </c>
       <c r="E3" s="0">
-        <v>3.1775466562083503</v>
+        <v>2.7883238441550371</v>
       </c>
       <c r="F3" s="0">
-        <v>2.7965472688725788</v>
+        <v>3.2822412429462067</v>
       </c>
       <c r="G3" s="0">
-        <v>3.941943058981451</v>
+        <v>1.9650320232224134</v>
       </c>
       <c r="H3" s="0">
-        <v>3.2483826763798391</v>
+        <v>2.701901233492999</v>
       </c>
       <c r="I3" s="0">
-        <v>3.4427439958942712</v>
+        <v>2.4776050674757362</v>
       </c>
       <c r="J3" s="0">
-        <v>4.172541033247045</v>
+        <v>3.3294381346269897</v>
       </c>
       <c r="K3" s="0">
-        <v>4.0162292971319591</v>
+        <v>2.3904626413948766</v>
       </c>
       <c r="L3" s="0">
-        <v>4.3203558802615394</v>
+        <v>2.8325498925365737</v>
       </c>
       <c r="M3" s="0">
-        <v>2.2898931957471329</v>
+        <v>3.2352220741997133</v>
       </c>
       <c r="N3" s="0">
-        <v>3.9942623167883378</v>
+        <v>2.5324507610628735</v>
       </c>
       <c r="O3" s="0">
-        <v>3.277017593415823</v>
+        <v>1.9397136190724813</v>
       </c>
       <c r="P3" s="0">
-        <v>2.6801016681693546</v>
+        <v>3.2194131666629717</v>
       </c>
       <c r="Q3" s="0">
-        <v>3.7893898300231994</v>
+        <v>3.5737777649054694</v>
       </c>
       <c r="R3" s="0">
-        <v>2.8510862367622063</v>
+        <v>2.1867233517525468</v>
       </c>
       <c r="S3" s="0">
-        <v>3.3322538499120711</v>
+        <v>2.3355299360727741</v>
       </c>
       <c r="T3" s="0">
-        <v>4.7424639884121849</v>
+        <v>1.8365316982860318</v>
       </c>
       <c r="U3" s="0">
-        <v>3.871568273819721</v>
+        <v>3.9146262943092385</v>
       </c>
       <c r="V3" s="0">
-        <v>3.6085413082243685</v>
+        <v>2.7475844566178207</v>
       </c>
       <c r="W3" s="0">
-        <v>2.6457329598995223</v>
+        <v>2.6695866567267172</v>
       </c>
       <c r="X3" s="0">
-        <v>3.6962719687678756</v>
+        <v>2.6554672970551936</v>
       </c>
       <c r="Y3" s="0">
-        <v>3.0019490605562567</v>
+        <v>2.3397487245718631</v>
       </c>
       <c r="Z3" s="0">
-        <v>3.8962082180284794</v>
+        <v>2.3404093295768131</v>
       </c>
       <c r="AA3" s="0">
-        <v>3.673590283463219</v>
+        <v>2.4538631690172896</v>
       </c>
       <c r="AB3" s="0">
-        <v>4.3676275397463531</v>
+        <v>3.8792375452738614</v>
       </c>
       <c r="AC3" s="0">
-        <v>4.244388452481564</v>
+        <v>1.7084240733688141</v>
       </c>
       <c r="AD3" s="0">
-        <v>3.8326187755202774</v>
+        <v>2.2649176622893217</v>
       </c>
       <c r="AE3" s="0">
-        <v>3.6360880627103365</v>
+        <v>3.0660316529780967</v>
       </c>
       <c r="AF3" s="0">
-        <v>3.5616300614928305</v>
+        <v>2.750702640720073</v>
       </c>
     </row>
   </sheetData>
@@ -2624,17 +2624,691 @@
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="10.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="9.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="0">
+        <v>16.346437168659371</v>
+      </c>
+      <c r="C2" s="0">
+        <v>13.234068427994789</v>
+      </c>
+      <c r="D2" s="0">
+        <v>17.840838252715706</v>
+      </c>
+      <c r="E2" s="0">
+        <v>19.133409384583107</v>
+      </c>
+      <c r="F2" s="0">
+        <v>18.478360055936125</v>
+      </c>
+      <c r="G2" s="0">
+        <v>13.815444161340857</v>
+      </c>
+      <c r="H2" s="0">
+        <v>12.337255582823561</v>
+      </c>
+      <c r="I2" s="0">
+        <v>14.306664203556945</v>
+      </c>
+      <c r="J2" s="0">
+        <v>16.388609575299032</v>
+      </c>
+      <c r="K2" s="0">
+        <v>14.613422436346521</v>
+      </c>
+      <c r="L2" s="0">
+        <v>14.266329932549942</v>
+      </c>
+      <c r="M2" s="0">
+        <v>12.866862424586619</v>
+      </c>
+      <c r="N2" s="0">
+        <v>10.568962618281992</v>
+      </c>
+      <c r="O2" s="0">
+        <v>16.493016513624344</v>
+      </c>
+      <c r="P2" s="0">
+        <v>13.448517868077781</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>16.96151648677569</v>
+      </c>
+      <c r="R2" s="0">
+        <v>14.686084489809316</v>
+      </c>
+      <c r="S2" s="0">
+        <v>12.414124639764701</v>
+      </c>
+      <c r="T2" s="0">
+        <v>13.736013868756187</v>
+      </c>
+      <c r="U2" s="0">
+        <v>11.753981797173376</v>
+      </c>
+      <c r="V2" s="0">
+        <v>17.442166959897911</v>
+      </c>
+      <c r="W2" s="0">
+        <v>16.24552761744275</v>
+      </c>
+      <c r="X2" s="0">
+        <v>9.459160230873966</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>16.702767288133753</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>9.3732379164053139</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>17.454942344239495</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>11.801491437745629</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>17.010453001006379</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>13.851365413637133</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>14.609846105927456</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>14.588029273465526</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.79003531133529425</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1.1583511940039235</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.8960435821345244</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1.1188684401695796</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.83166495927026163</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1.1371591979798874</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.74385335101607108</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.76416399063540363</v>
+      </c>
+      <c r="J3" s="0">
+        <v>1.0514294870774987</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.90357095278796451</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.82593626120678632</v>
+      </c>
+      <c r="M3" s="0">
+        <v>1.1292065547519294</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.94573907078146502</v>
+      </c>
+      <c r="O3" s="0">
+        <v>1.2046017846046568</v>
+      </c>
+      <c r="P3" s="0">
+        <v>2.3155606458707436</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.99531798891264145</v>
+      </c>
+      <c r="R3" s="0">
+        <v>1.0717807624042968</v>
+      </c>
+      <c r="S3" s="0">
+        <v>1.0671089667905691</v>
+      </c>
+      <c r="T3" s="0">
+        <v>1.0800826433596977</v>
+      </c>
+      <c r="U3" s="0">
+        <v>1.5855478478198739</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.85265355327261261</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.97098286976016746</v>
+      </c>
+      <c r="X3" s="0">
+        <v>1.2036896497440177</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.96525106497820612</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.86451422925734822</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.99260764067710616</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.91371200544773479</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.62042245730239709</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>1.1001885168351442</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.77584145041037822</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>1.0291962143532729</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="10.7109375" customWidth="true"/>
     <col min="8" max="8" width="10.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="0">
+        <v>8.6510966553413429</v>
+      </c>
+      <c r="C2" s="0">
+        <v>5.1398447012346242</v>
+      </c>
+      <c r="D2" s="0">
+        <v>9.7150930411578713</v>
+      </c>
+      <c r="E2" s="0">
+        <v>11.271987228682708</v>
+      </c>
+      <c r="F2" s="0">
+        <v>7.8786091981155701</v>
+      </c>
+      <c r="G2" s="0">
+        <v>9.4182193903505027</v>
+      </c>
+      <c r="H2" s="0">
+        <v>6.1064707701191772</v>
+      </c>
+      <c r="I2" s="0">
+        <v>6.2969679294132508</v>
+      </c>
+      <c r="J2" s="0">
+        <v>8.0430374810238856</v>
+      </c>
+      <c r="K2" s="0">
+        <v>7.0856741022902145</v>
+      </c>
+      <c r="L2" s="0">
+        <v>8.272633930347622</v>
+      </c>
+      <c r="M2" s="0">
+        <v>7.3443615989906794</v>
+      </c>
+      <c r="N2" s="0">
+        <v>10.392632855202603</v>
+      </c>
+      <c r="O2" s="0">
+        <v>9.9938279099649474</v>
+      </c>
+      <c r="P2" s="0">
+        <v>9.3464584608348655</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>9.4803196601324249</v>
+      </c>
+      <c r="R2" s="0">
+        <v>6.9082678055991416</v>
+      </c>
+      <c r="S2" s="0">
+        <v>9.3551160391143675</v>
+      </c>
+      <c r="T2" s="0">
+        <v>7.4708477444729544</v>
+      </c>
+      <c r="U2" s="0">
+        <v>7.3432947515580302</v>
+      </c>
+      <c r="V2" s="0">
+        <v>6.4536991919309958</v>
+      </c>
+      <c r="W2" s="0">
+        <v>8.1613561171713709</v>
+      </c>
+      <c r="X2" s="0">
+        <v>7.9670016504440131</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>4.5997583543669265</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>8.3754235884240344</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>6.5915281225710149</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>8.0584288135604609</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>6.1972812454580115</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>8.5917579246174576</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>8.5755222006481961</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>7.9695506154379778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.41543461749333943</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.35341886665775618</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.59647511442220447</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.48897322538531107</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.3887338727012184</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.40975989924767198</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.58264458929932883</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.56932981557537288</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.41756981943945204</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.45600071665044584</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.58839037913323478</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.61300719147457172</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.37643753118687162</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.42622581195296871</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.4256228760573198</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.40707063423698003</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.45980834293992162</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.37955961367237673</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.40416659138956929</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.36326248131909772</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.56991523942056366</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.37593675741015564</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.48641244715851129</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.47420314668638402</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.50831035695788696</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.44819462432983415</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.55626977535003508</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.5680326397979284</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.52424954354095044</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.47812511714662276</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.47038472126779612</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="10.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
@@ -2653,303 +3327,303 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>374</v>
+        <v>442</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>375</v>
+        <v>443</v>
       </c>
       <c r="B2" s="0">
-        <v>18.321231481471052</v>
+        <v>4.8505409420667034</v>
       </c>
       <c r="C2" s="0">
-        <v>20.200133687136706</v>
+        <v>4.474145780522913</v>
       </c>
       <c r="D2" s="0">
-        <v>18.954528463198208</v>
+        <v>2.621284220596003</v>
       </c>
       <c r="E2" s="0">
-        <v>17.496668536795873</v>
+        <v>3.8690306075573697</v>
       </c>
       <c r="F2" s="0">
-        <v>18.173678414161124</v>
+        <v>4.5983373363360123</v>
       </c>
       <c r="G2" s="0">
-        <v>16.926926109687038</v>
+        <v>3.1184674779232839</v>
       </c>
       <c r="H2" s="0">
-        <v>19.071201601015147</v>
+        <v>3.2228901293360432</v>
       </c>
       <c r="I2" s="0">
-        <v>13.082285228731621</v>
+        <v>3.3530141255474573</v>
       </c>
       <c r="J2" s="0">
-        <v>17.105222046229777</v>
+        <v>4.8791294585871237</v>
       </c>
       <c r="K2" s="0">
-        <v>15.788492236979646</v>
+        <v>3.5564864039561725</v>
       </c>
       <c r="L2" s="0">
-        <v>15.361649125779717</v>
+        <v>4.5641587173187421</v>
       </c>
       <c r="M2" s="0">
-        <v>23.109918219531785</v>
+        <v>4.071155592776365</v>
       </c>
       <c r="N2" s="0">
-        <v>16.624575318884087</v>
+        <v>2.8377578440296598</v>
       </c>
       <c r="O2" s="0">
-        <v>17.306668323471147</v>
+        <v>4.411231889505757</v>
       </c>
       <c r="P2" s="0">
-        <v>14.230976196903139</v>
+        <v>3.2526387124461649</v>
       </c>
       <c r="Q2" s="0">
-        <v>10.676408064201688</v>
+        <v>3.5107058731543623</v>
       </c>
       <c r="R2" s="0">
-        <v>13.310817789959398</v>
+        <v>5.8285920698615552</v>
       </c>
       <c r="S2" s="0">
-        <v>18.433575537604575</v>
+        <v>3.6548750912649988</v>
       </c>
       <c r="T2" s="0">
-        <v>19.005196247477151</v>
+        <v>4.6582658080371919</v>
       </c>
       <c r="U2" s="0">
-        <v>15.605604972747312</v>
+        <v>5.0344307707593945</v>
       </c>
       <c r="V2" s="0">
-        <v>19.344492514831455</v>
+        <v>3.3976930632865465</v>
       </c>
       <c r="W2" s="0">
-        <v>20.704513805095637</v>
+        <v>4.7840680738786618</v>
       </c>
       <c r="X2" s="0">
-        <v>17.940974667885563</v>
+        <v>3.4281525373607531</v>
       </c>
       <c r="Y2" s="0">
-        <v>19.1507351592535</v>
+        <v>4.8750495624983374</v>
       </c>
       <c r="Z2" s="0">
-        <v>20.932467608027615</v>
+        <v>4.2349662260214354</v>
       </c>
       <c r="AA2" s="0">
-        <v>16.224444312832411</v>
+        <v>3.340112225692986</v>
       </c>
       <c r="AB2" s="0">
-        <v>20.620078367769892</v>
+        <v>4.252407727716589</v>
       </c>
       <c r="AC2" s="0">
-        <v>18.801948520696541</v>
+        <v>4.2907341989595356</v>
       </c>
       <c r="AD2" s="0">
-        <v>17.763454128540765</v>
+        <v>3.9636227759180676</v>
       </c>
       <c r="AE2" s="0">
-        <v>18.709348359953918</v>
+        <v>4.449041746142905</v>
       </c>
       <c r="AF2" s="0">
-        <v>17.63260716822845</v>
+        <v>4.0460995663019705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0724208989612274</v>
+        <v>0.2374679881476135</v>
       </c>
       <c r="C3" s="0">
-        <v>0.91537243407363589</v>
+        <v>0.26125425947209646</v>
       </c>
       <c r="D3" s="0">
-        <v>1.510009761640134</v>
+        <v>0.2300828864154825</v>
       </c>
       <c r="E3" s="0">
-        <v>0.91377963486619351</v>
+        <v>0.33155058712496338</v>
       </c>
       <c r="F3" s="0">
-        <v>1.0106588885390324</v>
+        <v>0.33508777591761646</v>
       </c>
       <c r="G3" s="0">
-        <v>1.222640705600091</v>
+        <v>0.24013420608511307</v>
       </c>
       <c r="H3" s="0">
-        <v>1.0245499679678454</v>
+        <v>0.34088137994517381</v>
       </c>
       <c r="I3" s="0">
-        <v>0.73562498527791531</v>
+        <v>0.23749901932129427</v>
       </c>
       <c r="J3" s="0">
-        <v>1.3350085803175982</v>
+        <v>0.26584334237067997</v>
       </c>
       <c r="K3" s="0">
-        <v>1.1441732891978682</v>
+        <v>0.2294083477995511</v>
       </c>
       <c r="L3" s="0">
-        <v>1.5247313495823578</v>
+        <v>0.2590089033711967</v>
       </c>
       <c r="M3" s="0">
-        <v>1.2131173815346925</v>
+        <v>0.29623278257045949</v>
       </c>
       <c r="N3" s="0">
-        <v>1.1930669857778233</v>
+        <v>0.25079629770311085</v>
       </c>
       <c r="O3" s="0">
-        <v>1.1991876044239276</v>
+        <v>0.27366278183112352</v>
       </c>
       <c r="P3" s="0">
-        <v>1.2544288528198106</v>
+        <v>0.23715534812361244</v>
       </c>
       <c r="Q3" s="0">
-        <v>1.3084024675935988</v>
+        <v>0.23059558982260059</v>
       </c>
       <c r="R3" s="0">
-        <v>1.4540598590143723</v>
+        <v>0.27744339337990553</v>
       </c>
       <c r="S3" s="0">
-        <v>0.89109653619004681</v>
+        <v>0.24008633235048824</v>
       </c>
       <c r="T3" s="0">
-        <v>1.1553727188390357</v>
+        <v>0.23173345755566721</v>
       </c>
       <c r="U3" s="0">
-        <v>1.2771934567727512</v>
+        <v>0.27466552187415538</v>
       </c>
       <c r="V3" s="0">
-        <v>1.6628459141116045</v>
+        <v>0.30629310119843145</v>
       </c>
       <c r="W3" s="0">
-        <v>0.96172311939298072</v>
+        <v>0.29271779294709216</v>
       </c>
       <c r="X3" s="0">
-        <v>0.93599740602025006</v>
+        <v>0.25262801247920741</v>
       </c>
       <c r="Y3" s="0">
-        <v>1.5373117078488963</v>
+        <v>0.33427797248671937</v>
       </c>
       <c r="Z3" s="0">
-        <v>1.15620925979497</v>
+        <v>0.31983960269773259</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.86262098660539588</v>
+        <v>0.22440242194971122</v>
       </c>
       <c r="AB3" s="0">
-        <v>1.2335914549214009</v>
+        <v>0.23518312919139167</v>
       </c>
       <c r="AC3" s="0">
-        <v>1.0780334840601109</v>
+        <v>0.28017619000212446</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.96038686152821628</v>
+        <v>0.24338629870567091</v>
       </c>
       <c r="AE3" s="0">
-        <v>1.5270447953864723</v>
+        <v>0.25431633985725649</v>
       </c>
       <c r="AF3" s="0">
-        <v>1.1756887116220085</v>
+        <v>0.26746036875657475</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2962,6 +3636,343 @@
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="10.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" customWidth="true"/>
+    <col min="18" max="18" width="10.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="10.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="10.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2.2963726384910266</v>
+      </c>
+      <c r="C2" s="0">
+        <v>3.2113725774546387</v>
+      </c>
+      <c r="D2" s="0">
+        <v>2.0480005984234961</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1.7284510066674892</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1.8599680014409017</v>
+      </c>
+      <c r="G2" s="0">
+        <v>2.2034987543747819</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1.9260560604458969</v>
+      </c>
+      <c r="I2" s="0">
+        <v>2.2256853440036073</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1.9921711437877334</v>
+      </c>
+      <c r="K2" s="0">
+        <v>2.4281063307128559</v>
+      </c>
+      <c r="L2" s="0">
+        <v>1.9199398495194315</v>
+      </c>
+      <c r="M2" s="0">
+        <v>1.9704399138753437</v>
+      </c>
+      <c r="N2" s="0">
+        <v>2.5318978139615842</v>
+      </c>
+      <c r="O2" s="0">
+        <v>2.0311456334139004</v>
+      </c>
+      <c r="P2" s="0">
+        <v>2.5361488536583461</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>1.707393620341501</v>
+      </c>
+      <c r="R2" s="0">
+        <v>1.6453100202012014</v>
+      </c>
+      <c r="S2" s="0">
+        <v>1.9062339155858448</v>
+      </c>
+      <c r="T2" s="0">
+        <v>1.9755609143074382</v>
+      </c>
+      <c r="U2" s="0">
+        <v>2.4050519410151492</v>
+      </c>
+      <c r="V2" s="0">
+        <v>2.6022124022324538</v>
+      </c>
+      <c r="W2" s="0">
+        <v>2.5173808512200084</v>
+      </c>
+      <c r="X2" s="0">
+        <v>2.2296533050954337</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>1.8539024847674286</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>2.7536725450085511</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>2.9253592893884184</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>2.5016961524164905</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>2.6062070704710441</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>1.973741283699711</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>2.4327209852403047</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>2.2315117100407336</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.20393655971441277</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.19844936459303855</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.2095045020117694</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.20863661881808085</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.19471721847716628</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.20564407032147539</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.2184859877440089</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.20910547730058845</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.20121300155688418</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.19872110693760256</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.20121983455479603</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.23604421975631537</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.20821276805081337</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.19465081852756949</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.21349965850236649</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.18819479244575277</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.20380485646088192</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.20259912648944828</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.22300539196819416</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.19351635188816557</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.20218218374416555</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.21058452039167885</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.21747208028806045</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.21360320607629249</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.22415435586711491</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.21616065720918798</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.19988242521603217</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.19468392535496523</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.1964570357801125</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.19576350489025815</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.20613685403123999</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="9.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
@@ -2984,309 +3995,646 @@
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="8.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>412</v>
+        <v>4</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>414</v>
+        <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>415</v>
+        <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>416</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>417</v>
+        <v>9</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>418</v>
+        <v>10</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>419</v>
+        <v>11</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>421</v>
+        <v>13</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>422</v>
+        <v>14</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>423</v>
+        <v>15</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>424</v>
+        <v>16</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>425</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>426</v>
+        <v>18</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>427</v>
+        <v>19</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>428</v>
+        <v>20</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>429</v>
+        <v>21</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>430</v>
+        <v>22</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>431</v>
+        <v>23</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>432</v>
+        <v>24</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>433</v>
+        <v>25</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>434</v>
+        <v>26</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>435</v>
+        <v>27</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>436</v>
+        <v>28</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>437</v>
+        <v>29</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>438</v>
+        <v>30</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>439</v>
+        <v>31</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>440</v>
+        <v>32</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>441</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>409</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>8.5260298168365161</v>
+        <v>27.360223460973437</v>
       </c>
       <c r="C2" s="0">
-        <v>9.6635731334587156</v>
+        <v>19.573463108269134</v>
       </c>
       <c r="D2" s="0">
-        <v>11.488688943572106</v>
+        <v>23.743359293318633</v>
       </c>
       <c r="E2" s="0">
-        <v>9.2063297320699107</v>
+        <v>16.286074999021245</v>
       </c>
       <c r="F2" s="0">
-        <v>8.3853106965320734</v>
+        <v>23.942893897653118</v>
       </c>
       <c r="G2" s="0">
-        <v>8.7045864629671748</v>
+        <v>27.665482466983097</v>
       </c>
       <c r="H2" s="0">
-        <v>7.5423649900972176</v>
+        <v>29.150451421957875</v>
       </c>
       <c r="I2" s="0">
-        <v>9.1392730018474815</v>
+        <v>30.867185234136461</v>
       </c>
       <c r="J2" s="0">
-        <v>9.8945499124603913</v>
+        <v>23.234021246129462</v>
       </c>
       <c r="K2" s="0">
-        <v>7.8615272094711743</v>
+        <v>18.955127549669736</v>
       </c>
       <c r="L2" s="0">
-        <v>7.4984932076701059</v>
+        <v>17.618124481590772</v>
       </c>
       <c r="M2" s="0">
-        <v>9.653315123220354</v>
+        <v>30.215058686661511</v>
       </c>
       <c r="N2" s="0">
-        <v>9.790010485708418</v>
+        <v>25.523266257359936</v>
       </c>
       <c r="O2" s="0">
-        <v>10.109372672241086</v>
+        <v>23.228826174138259</v>
       </c>
       <c r="P2" s="0">
-        <v>9.2895209850403457</v>
+        <v>22.620194263702746</v>
       </c>
       <c r="Q2" s="0">
-        <v>8.9818172018791014</v>
+        <v>24.484160465604056</v>
       </c>
       <c r="R2" s="0">
-        <v>6.9938166522739378</v>
+        <v>40.471631780954667</v>
       </c>
       <c r="S2" s="0">
-        <v>8.0112586794388516</v>
+        <v>20.858029382106132</v>
       </c>
       <c r="T2" s="0">
-        <v>9.0968607640569985</v>
+        <v>27.819594670072295</v>
       </c>
       <c r="U2" s="0">
-        <v>8.9190996356098022</v>
+        <v>27.690028453308539</v>
       </c>
       <c r="V2" s="0">
-        <v>11.088480743822524</v>
+        <v>19.262229483966387</v>
       </c>
       <c r="W2" s="0">
-        <v>8.5297864787407072</v>
+        <v>24.313700994815669</v>
       </c>
       <c r="X2" s="0">
-        <v>9.4564304072865202</v>
+        <v>25.287734073243055</v>
       </c>
       <c r="Y2" s="0">
-        <v>10.752694130298076</v>
+        <v>27.811639356590682</v>
       </c>
       <c r="Z2" s="0">
-        <v>10.564394669707118</v>
+        <v>19.768399928678292</v>
       </c>
       <c r="AA2" s="0">
-        <v>10.999741776823987</v>
+        <v>22.843054552982622</v>
       </c>
       <c r="AB2" s="0">
-        <v>8.426392301829587</v>
+        <v>26.497253956785251</v>
       </c>
       <c r="AC2" s="0">
-        <v>8.6419240709335625</v>
+        <v>22.2124385908519</v>
       </c>
       <c r="AD2" s="0">
-        <v>9.0437579407977626</v>
+        <v>20.029237745765357</v>
       </c>
       <c r="AE2" s="0">
-        <v>9.0295950000460685</v>
+        <v>23.699123484653054</v>
       </c>
       <c r="AF2" s="0">
-        <v>9.1762998942245897</v>
+        <v>24.434400315398111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.39357788568829921</v>
+        <v>4.074366255720399</v>
       </c>
       <c r="C3" s="0">
-        <v>0.54231184569751578</v>
+        <v>3.6160448304865582</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48136825617544127</v>
+        <v>2.7419837823184516</v>
       </c>
       <c r="E3" s="0">
-        <v>0.54246362845083407</v>
+        <v>3.236879712209761</v>
       </c>
       <c r="F3" s="0">
-        <v>0.48701295666311922</v>
+        <v>3.6341580707731591</v>
       </c>
       <c r="G3" s="0">
-        <v>0.41211859760186653</v>
+        <v>2.5378245125915591</v>
       </c>
       <c r="H3" s="0">
-        <v>0.58824770641816593</v>
+        <v>2.1581615962175631</v>
       </c>
       <c r="I3" s="0">
-        <v>0.35616554337423401</v>
+        <v>2.9277977921048106</v>
       </c>
       <c r="J3" s="0">
-        <v>0.50325147020281091</v>
+        <v>5.1826587905380848</v>
       </c>
       <c r="K3" s="0">
-        <v>0.62276803063305186</v>
+        <v>3.8983824335294717</v>
       </c>
       <c r="L3" s="0">
-        <v>0.69285375272865934</v>
+        <v>4.0802136329221241</v>
       </c>
       <c r="M3" s="0">
-        <v>0.50447551499918264</v>
+        <v>3.0119209881744613</v>
       </c>
       <c r="N3" s="0">
-        <v>0.45514156252810373</v>
+        <v>3.7473351686400558</v>
       </c>
       <c r="O3" s="0">
-        <v>0.54198478076697199</v>
+        <v>4.2520835596769082</v>
       </c>
       <c r="P3" s="0">
-        <v>0.46996000299671808</v>
+        <v>2.6060834983526955</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.42839956364711168</v>
+        <v>3.8890678310193652</v>
       </c>
       <c r="R3" s="0">
-        <v>0.47578781899826439</v>
+        <v>2.5318965559775779</v>
       </c>
       <c r="S3" s="0">
-        <v>0.42139656094525912</v>
+        <v>4.0496138238097119</v>
       </c>
       <c r="T3" s="0">
-        <v>0.41203097110622977</v>
+        <v>5.4161400433382045</v>
       </c>
       <c r="U3" s="0">
-        <v>0.64970759825268432</v>
+        <v>3.303289716203591</v>
       </c>
       <c r="V3" s="0">
-        <v>0.50297899821501457</v>
+        <v>3.050869700928009</v>
       </c>
       <c r="W3" s="0">
-        <v>0.41518294642345144</v>
+        <v>2.8925391267183285</v>
       </c>
       <c r="X3" s="0">
-        <v>0.39940848401918749</v>
+        <v>3.1797668119265707</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.47924572327326909</v>
+        <v>2.4936459031255813</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.43530255275357854</v>
+        <v>3.3745261453854694</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.43842256444964234</v>
+        <v>3.9121232197633247</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.50788342804591946</v>
+        <v>5.6081136610260787</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.59701587266027656</v>
+        <v>3.6497404347538347</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.558973098533744</v>
+        <v>3.2856914083002202</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.62868529024978415</v>
+        <v>4.1800965442114872</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.4981374335499465</v>
+        <v>3.5507671850247817</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="9.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="10.7109375" customWidth="true"/>
+    <col min="18" max="18" width="10.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="10.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="10.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="0">
+        <v>16.664129327348412</v>
+      </c>
+      <c r="C2" s="0">
+        <v>10.736630561292117</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11.976638411653113</v>
+      </c>
+      <c r="E2" s="0">
+        <v>13.685605295282834</v>
+      </c>
+      <c r="F2" s="0">
+        <v>14.995306372038918</v>
+      </c>
+      <c r="G2" s="0">
+        <v>16.648106848769078</v>
+      </c>
+      <c r="H2" s="0">
+        <v>15.521240465461334</v>
+      </c>
+      <c r="I2" s="0">
+        <v>15.818186165371865</v>
+      </c>
+      <c r="J2" s="0">
+        <v>15.934462476899363</v>
+      </c>
+      <c r="K2" s="0">
+        <v>14.526377622249694</v>
+      </c>
+      <c r="L2" s="0">
+        <v>12.785041263154099</v>
+      </c>
+      <c r="M2" s="0">
+        <v>11.700136999938234</v>
+      </c>
+      <c r="N2" s="0">
+        <v>16.329196844452699</v>
+      </c>
+      <c r="O2" s="0">
+        <v>10.281510079540094</v>
+      </c>
+      <c r="P2" s="0">
+        <v>21.685192879141734</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>16.807582895566831</v>
+      </c>
+      <c r="R2" s="0">
+        <v>12.891284195295146</v>
+      </c>
+      <c r="S2" s="0">
+        <v>12.946460367944331</v>
+      </c>
+      <c r="T2" s="0">
+        <v>17.675363688957738</v>
+      </c>
+      <c r="U2" s="0">
+        <v>14.747150027743601</v>
+      </c>
+      <c r="V2" s="0">
+        <v>11.97926690059789</v>
+      </c>
+      <c r="W2" s="0">
+        <v>17.00926827267071</v>
+      </c>
+      <c r="X2" s="0">
+        <v>17.029192072541402</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>17.619126232784115</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>17.308683629340937</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>16.962990431408187</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>17.997891297245175</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>10.148491138394419</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>14.494354684826725</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>11.662633944394582</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>14.885583379743512</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.86792152409373735</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1.075335473127246</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1.2416228244386169</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1.9588216213585765</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1.521223307690251</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1.5213380656807511</v>
+      </c>
+      <c r="H3" s="0">
+        <v>1.0392542341268567</v>
+      </c>
+      <c r="I3" s="0">
+        <v>1.269081473923062</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.79765637984535942</v>
+      </c>
+      <c r="K3" s="0">
+        <v>1.9702972161362509</v>
+      </c>
+      <c r="L3" s="0">
+        <v>1.4184379293759162</v>
+      </c>
+      <c r="M3" s="0">
+        <v>1.4300541142438352</v>
+      </c>
+      <c r="N3" s="0">
+        <v>1.4244710930835807</v>
+      </c>
+      <c r="O3" s="0">
+        <v>1.1715761797964408</v>
+      </c>
+      <c r="P3" s="0">
+        <v>2.1738727820580874</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>1.1144820873056807</v>
+      </c>
+      <c r="R3" s="0">
+        <v>1.0420630296244979</v>
+      </c>
+      <c r="S3" s="0">
+        <v>1.3206149730964496</v>
+      </c>
+      <c r="T3" s="0">
+        <v>1.4385840363664937</v>
+      </c>
+      <c r="U3" s="0">
+        <v>1.3024757337025155</v>
+      </c>
+      <c r="V3" s="0">
+        <v>1.1722148964903363</v>
+      </c>
+      <c r="W3" s="0">
+        <v>1.3478397376355209</v>
+      </c>
+      <c r="X3" s="0">
+        <v>1.708864925865976</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>1.4562530590045619</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>1.5504857559685274</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>1.3038256871487939</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.90050556792441527</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>1.9982058872803858</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>1.6811101416844338</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.77210043586493493</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>1.3663530057980695</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3302,7 +4650,7 @@
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
@@ -3311,319 +4659,319 @@
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="10.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="9.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="10.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="10.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>442</v>
+        <v>68</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>445</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>446</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>447</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>448</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>449</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>455</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>458</v>
+        <v>84</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>459</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>461</v>
+        <v>87</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>462</v>
+        <v>88</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>463</v>
+        <v>89</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>465</v>
+        <v>91</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>466</v>
+        <v>92</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>467</v>
+        <v>93</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>468</v>
+        <v>94</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>469</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>470</v>
+        <v>96</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>471</v>
+        <v>97</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>472</v>
+        <v>98</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>473</v>
+        <v>99</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>474</v>
+        <v>100</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>475</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>443</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0">
-        <v>5.7376531269792714</v>
+        <v>6.6663097120687231</v>
       </c>
       <c r="C2" s="0">
-        <v>5.2992255011689089</v>
+        <v>7.2333430114540054</v>
       </c>
       <c r="D2" s="0">
-        <v>5.849235396194902</v>
+        <v>9.2769278971387621</v>
       </c>
       <c r="E2" s="0">
-        <v>5.3550404988955451</v>
+        <v>10.189562781425181</v>
       </c>
       <c r="F2" s="0">
-        <v>4.0443532943185057</v>
+        <v>7.4741035081031777</v>
       </c>
       <c r="G2" s="0">
-        <v>6.2342692755810116</v>
+        <v>7.1921641973940895</v>
       </c>
       <c r="H2" s="0">
-        <v>3.9906248057577556</v>
+        <v>7.8431676244908184</v>
       </c>
       <c r="I2" s="0">
-        <v>4.4220056844542626</v>
+        <v>7.3574245131368405</v>
       </c>
       <c r="J2" s="0">
-        <v>4.4433148007176486</v>
+        <v>6.1667952877638257</v>
       </c>
       <c r="K2" s="0">
-        <v>6.944940659188795</v>
+        <v>6.0063475233210051</v>
       </c>
       <c r="L2" s="0">
-        <v>4.019010630334046</v>
+        <v>9.2089034750605041</v>
       </c>
       <c r="M2" s="0">
-        <v>3.8101666584886247</v>
+        <v>7.8801886114587534</v>
       </c>
       <c r="N2" s="0">
-        <v>5.56663993816887</v>
+        <v>7.2117728027065064</v>
       </c>
       <c r="O2" s="0">
-        <v>4.2348944414400069</v>
+        <v>6.975832581892047</v>
       </c>
       <c r="P2" s="0">
-        <v>4.846283816718147</v>
+        <v>8.3639257015815147</v>
       </c>
       <c r="Q2" s="0">
-        <v>4.9225229194806115</v>
+        <v>5.8547669268149569</v>
       </c>
       <c r="R2" s="0">
-        <v>5.6226044788811596</v>
+        <v>4.8808470712056673</v>
       </c>
       <c r="S2" s="0">
-        <v>5.6386771642154958</v>
+        <v>9.9659319709826786</v>
       </c>
       <c r="T2" s="0">
-        <v>4.6181691874175286</v>
+        <v>8.7388125259282976</v>
       </c>
       <c r="U2" s="0">
-        <v>3.544677129906078</v>
+        <v>10.574922846722716</v>
       </c>
       <c r="V2" s="0">
-        <v>4.2471847690940567</v>
+        <v>7.0839567440304672</v>
       </c>
       <c r="W2" s="0">
-        <v>4.3052454466281551</v>
+        <v>8.3672305221700363</v>
       </c>
       <c r="X2" s="0">
-        <v>3.8884431262111541</v>
+        <v>6.3094422806050092</v>
       </c>
       <c r="Y2" s="0">
-        <v>4.9235809728160174</v>
+        <v>5.4701331002103144</v>
       </c>
       <c r="Z2" s="0">
-        <v>5.5180561557623804</v>
+        <v>9.4843627648837945</v>
       </c>
       <c r="AA2" s="0">
-        <v>4.8304088587888332</v>
+        <v>6.9408072901370756</v>
       </c>
       <c r="AB2" s="0">
-        <v>4.3696248465030552</v>
+        <v>7.5645609893156109</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.0796252687049286</v>
+        <v>4.8121517566880936</v>
       </c>
       <c r="AD2" s="0">
-        <v>5.0781928676551944</v>
+        <v>5.116580010707291</v>
       </c>
       <c r="AE2" s="0">
-        <v>4.6507838196393703</v>
+        <v>6.6427216314790556</v>
       </c>
       <c r="AF2" s="0">
-        <v>4.8345151846703427</v>
+        <v>7.4284665886958949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>444</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0">
-        <v>0.27587406073550741</v>
+        <v>0.66422725990612508</v>
       </c>
       <c r="C3" s="0">
-        <v>0.30051924512804201</v>
+        <v>0.52959597941607794</v>
       </c>
       <c r="D3" s="0">
-        <v>0.29561455302551465</v>
+        <v>0.68717770717015225</v>
       </c>
       <c r="E3" s="0">
-        <v>0.3170634220895262</v>
+        <v>0.43511757714973009</v>
       </c>
       <c r="F3" s="0">
-        <v>0.29101334202467433</v>
+        <v>0.69211265657587639</v>
       </c>
       <c r="G3" s="0">
-        <v>0.28985451764862902</v>
+        <v>0.7580382557141655</v>
       </c>
       <c r="H3" s="0">
-        <v>0.26262364860044357</v>
+        <v>0.48746499650578923</v>
       </c>
       <c r="I3" s="0">
-        <v>0.27351125454347119</v>
+        <v>0.60419161821155098</v>
       </c>
       <c r="J3" s="0">
-        <v>0.25941598913269137</v>
+        <v>0.64084562174919546</v>
       </c>
       <c r="K3" s="0">
-        <v>0.27977526259142921</v>
+        <v>0.5578180454410423</v>
       </c>
       <c r="L3" s="0">
-        <v>0.26584268569481451</v>
+        <v>0.57486155052285293</v>
       </c>
       <c r="M3" s="0">
-        <v>0.23669259527339875</v>
+        <v>0.55208476613212043</v>
       </c>
       <c r="N3" s="0">
-        <v>0.29876895758182836</v>
+        <v>0.50963474050510993</v>
       </c>
       <c r="O3" s="0">
-        <v>0.28004300986669572</v>
+        <v>0.6217685214139026</v>
       </c>
       <c r="P3" s="0">
-        <v>0.28385231010338841</v>
+        <v>0.68209813881283698</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.30041636474666367</v>
+        <v>0.71575745407679559</v>
       </c>
       <c r="R3" s="0">
-        <v>0.27574641914867037</v>
+        <v>0.51767074836589611</v>
       </c>
       <c r="S3" s="0">
-        <v>0.28149828716664083</v>
+        <v>0.54939372729694536</v>
       </c>
       <c r="T3" s="0">
-        <v>0.2903655188555242</v>
+        <v>0.55650139051393122</v>
       </c>
       <c r="U3" s="0">
-        <v>0.28676598593462743</v>
+        <v>0.54206914468452749</v>
       </c>
       <c r="V3" s="0">
-        <v>0.26432086282843958</v>
+        <v>0.84928313666251476</v>
       </c>
       <c r="W3" s="0">
-        <v>0.27013713549858714</v>
+        <v>0.53592205549522387</v>
       </c>
       <c r="X3" s="0">
-        <v>0.25539321394381637</v>
+        <v>0.63113420890761995</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.29608821920422435</v>
+        <v>0.50779352302462721</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.2949200666696345</v>
+        <v>0.51004100332135216</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.27963952059430841</v>
+        <v>0.52594841579858753</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.28027359492523368</v>
+        <v>0.59883237545287871</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.28803189323633471</v>
+        <v>0.50983080256114732</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.29957460002126185</v>
+        <v>0.63531049005505524</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.26783595940287952</v>
+        <v>0.72697023336327204</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.2813824165405634</v>
+        <v>0.5969832048268966</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3631,7 +4979,7 @@
     <col min="1" max="1" width="4.85546875" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
@@ -3659,308 +5007,308 @@
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="10.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>476</v>
+        <v>102</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>479</v>
+        <v>105</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>480</v>
+        <v>106</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>481</v>
+        <v>107</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>482</v>
+        <v>108</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>483</v>
+        <v>109</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>484</v>
+        <v>110</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>485</v>
+        <v>111</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>486</v>
+        <v>112</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>487</v>
+        <v>113</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>488</v>
+        <v>114</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>489</v>
+        <v>115</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>490</v>
+        <v>116</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>491</v>
+        <v>117</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>492</v>
+        <v>118</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>493</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>494</v>
+        <v>120</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>495</v>
+        <v>121</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>496</v>
+        <v>122</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>497</v>
+        <v>123</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>498</v>
+        <v>124</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>499</v>
+        <v>125</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>501</v>
+        <v>127</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>502</v>
+        <v>128</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>503</v>
+        <v>129</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>504</v>
+        <v>130</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>505</v>
+        <v>131</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>506</v>
+        <v>132</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>507</v>
+        <v>133</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>508</v>
+        <v>134</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>509</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>477</v>
+        <v>103</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2299741539113276</v>
+        <v>4.7334530664790728</v>
       </c>
       <c r="C2" s="0">
-        <v>2.4980078882985994</v>
+        <v>4.2593699709921502</v>
       </c>
       <c r="D2" s="0">
-        <v>2.6658311796476806</v>
+        <v>4.4859381774776708</v>
       </c>
       <c r="E2" s="0">
-        <v>2.284336461228281</v>
+        <v>4.4523505910772698</v>
       </c>
       <c r="F2" s="0">
-        <v>2.9695763320314006</v>
+        <v>4.0562889936757625</v>
       </c>
       <c r="G2" s="0">
-        <v>2.8671820911338579</v>
+        <v>2.4309211787698444</v>
       </c>
       <c r="H2" s="0">
-        <v>2.5803125270784033</v>
+        <v>4.3062682142009532</v>
       </c>
       <c r="I2" s="0">
-        <v>2.4084561746809605</v>
+        <v>5.0655804139815208</v>
       </c>
       <c r="J2" s="0">
-        <v>2.1205387681644288</v>
+        <v>3.8210986142292969</v>
       </c>
       <c r="K2" s="0">
-        <v>3.2833093542563709</v>
+        <v>4.2271538186795663</v>
       </c>
       <c r="L2" s="0">
-        <v>2.4154281694378108</v>
+        <v>6.7936399411346544</v>
       </c>
       <c r="M2" s="0">
-        <v>2.8415897686748677</v>
+        <v>4.460283828261872</v>
       </c>
       <c r="N2" s="0">
-        <v>2.6801417433884334</v>
+        <v>3.0286041936357591</v>
       </c>
       <c r="O2" s="0">
-        <v>2.7843657637394061</v>
+        <v>3.3395767619453927</v>
       </c>
       <c r="P2" s="0">
-        <v>2.5326624478400097</v>
+        <v>5.4269034734989106</v>
       </c>
       <c r="Q2" s="0">
-        <v>2.4472234858041015</v>
+        <v>3.9874339664122291</v>
       </c>
       <c r="R2" s="0">
-        <v>2.8910715234574069</v>
+        <v>4.1229992025106252</v>
       </c>
       <c r="S2" s="0">
-        <v>2.8480435495648626</v>
+        <v>4.1287244695429886</v>
       </c>
       <c r="T2" s="0">
-        <v>2.2935576566156293</v>
+        <v>3.6449504124051684</v>
       </c>
       <c r="U2" s="0">
-        <v>2.4849796749112745</v>
+        <v>4.1997106223210681</v>
       </c>
       <c r="V2" s="0">
-        <v>2.2905205176301684</v>
+        <v>4.165846184814848</v>
       </c>
       <c r="W2" s="0">
-        <v>2.3034360635718305</v>
+        <v>5.193344584424727</v>
       </c>
       <c r="X2" s="0">
-        <v>2.9822325114580002</v>
+        <v>3.5906194452243168</v>
       </c>
       <c r="Y2" s="0">
-        <v>2.2846803635993753</v>
+        <v>3.5968117444694276</v>
       </c>
       <c r="Z2" s="0">
-        <v>2.7450479732971003</v>
+        <v>4.1305359209866888</v>
       </c>
       <c r="AA2" s="0">
-        <v>2.511630142240262</v>
+        <v>4.7109235888606165</v>
       </c>
       <c r="AB2" s="0">
-        <v>2.9063193047543741</v>
+        <v>4.3949844789394614</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.283054858821381</v>
+        <v>3.3773458030260817</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.3001762651618565</v>
+        <v>4.275091031836987</v>
       </c>
       <c r="AE2" s="0">
-        <v>2.9585359961084388</v>
+        <v>4.4256300927105086</v>
       </c>
       <c r="AF2" s="0">
-        <v>2.6230740903502641</v>
+        <v>4.2277460928841819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>478</v>
+        <v>104</v>
       </c>
       <c r="B3" s="0">
-        <v>0.20653965760199489</v>
+        <v>0.4652430103697367</v>
       </c>
       <c r="C3" s="0">
-        <v>0.22507710450373794</v>
+        <v>0.43886435206068941</v>
       </c>
       <c r="D3" s="0">
-        <v>0.21931041355930697</v>
+        <v>0.39007398440847468</v>
       </c>
       <c r="E3" s="0">
-        <v>0.20722665103844773</v>
+        <v>0.34673757098110114</v>
       </c>
       <c r="F3" s="0">
-        <v>0.21723570345917173</v>
+        <v>0.4131064713568211</v>
       </c>
       <c r="G3" s="0">
-        <v>0.21040843837606973</v>
+        <v>0.37411692200238</v>
       </c>
       <c r="H3" s="0">
-        <v>0.22279906683035744</v>
+        <v>0.34248446280841771</v>
       </c>
       <c r="I3" s="0">
-        <v>0.23455414667495425</v>
+        <v>0.35940229685261577</v>
       </c>
       <c r="J3" s="0">
-        <v>0.22419138653408516</v>
+        <v>0.43555768298392339</v>
       </c>
       <c r="K3" s="0">
-        <v>0.22581332508363774</v>
+        <v>0.39977096984520483</v>
       </c>
       <c r="L3" s="0">
-        <v>0.2133961666568045</v>
+        <v>0.35663118847049219</v>
       </c>
       <c r="M3" s="0">
-        <v>0.22264366976771893</v>
+        <v>0.32752072738802707</v>
       </c>
       <c r="N3" s="0">
-        <v>0.21083873144392232</v>
+        <v>0.38588258318825575</v>
       </c>
       <c r="O3" s="0">
-        <v>0.22401574483403719</v>
+        <v>0.44155397831314896</v>
       </c>
       <c r="P3" s="0">
-        <v>0.21362370949708001</v>
+        <v>0.38000074731181721</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.21258837008158998</v>
+        <v>0.40174986723811729</v>
       </c>
       <c r="R3" s="0">
-        <v>0.23024583752876304</v>
+        <v>0.34235819167507225</v>
       </c>
       <c r="S3" s="0">
-        <v>0.20633776782239011</v>
+        <v>0.38537692927798961</v>
       </c>
       <c r="T3" s="0">
-        <v>0.22454030337644421</v>
+        <v>0.37896732030221442</v>
       </c>
       <c r="U3" s="0">
-        <v>0.2138105807102538</v>
+        <v>0.34350409826776862</v>
       </c>
       <c r="V3" s="0">
-        <v>0.23617348273707545</v>
+        <v>0.32347882907534214</v>
       </c>
       <c r="W3" s="0">
-        <v>0.21612034624087234</v>
+        <v>0.35422276490809407</v>
       </c>
       <c r="X3" s="0">
-        <v>0.21798823474148588</v>
+        <v>0.37841155422522271</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.21428353249460635</v>
+        <v>0.37836982012431503</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.20620199585808802</v>
+        <v>0.34668699056441254</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.22385676452368036</v>
+        <v>0.336728909949085</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.21702059060443973</v>
+        <v>0.38124204549741963</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.21371033692376645</v>
+        <v>0.34487104060465129</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.23023630587161398</v>
+        <v>0.42628120820881693</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.19398832222231599</v>
+        <v>0.35977858273898167</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.21782588958662372</v>
+        <v>0.37796583669995354</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4001,1354 +5349,6 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>27.818457587681291</v>
-      </c>
-      <c r="C2" s="0">
-        <v>27.936992373665117</v>
-      </c>
-      <c r="D2" s="0">
-        <v>25.390755516107241</v>
-      </c>
-      <c r="E2" s="0">
-        <v>29.726120381760758</v>
-      </c>
-      <c r="F2" s="0">
-        <v>27.363952505515289</v>
-      </c>
-      <c r="G2" s="0">
-        <v>26.439619394596839</v>
-      </c>
-      <c r="H2" s="0">
-        <v>21.560538569361746</v>
-      </c>
-      <c r="I2" s="0">
-        <v>24.266404267122876</v>
-      </c>
-      <c r="J2" s="0">
-        <v>23.956559991371783</v>
-      </c>
-      <c r="K2" s="0">
-        <v>25.944899314181566</v>
-      </c>
-      <c r="L2" s="0">
-        <v>24.646590411369019</v>
-      </c>
-      <c r="M2" s="0">
-        <v>22.702648525581548</v>
-      </c>
-      <c r="N2" s="0">
-        <v>23.774303972649456</v>
-      </c>
-      <c r="O2" s="0">
-        <v>25.533406657849316</v>
-      </c>
-      <c r="P2" s="0">
-        <v>27.343253335133078</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>32.075717686240836</v>
-      </c>
-      <c r="R2" s="0">
-        <v>19.513178665707912</v>
-      </c>
-      <c r="S2" s="0">
-        <v>28.415557143344909</v>
-      </c>
-      <c r="T2" s="0">
-        <v>28.211356840905147</v>
-      </c>
-      <c r="U2" s="0">
-        <v>24.57132636091783</v>
-      </c>
-      <c r="V2" s="0">
-        <v>27.167080666691067</v>
-      </c>
-      <c r="W2" s="0">
-        <v>26.959002669039347</v>
-      </c>
-      <c r="X2" s="0">
-        <v>29.425585466800321</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>27.893556690132762</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>23.562593025024363</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>25.504155727954142</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>31.120397233876439</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>23.66531106499535</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>26.256914820825205</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>35.227195919654314</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>26.465781092868561</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2.1540104474462085</v>
-      </c>
-      <c r="C3" s="0">
-        <v>3.4866626326665475</v>
-      </c>
-      <c r="D3" s="0">
-        <v>3.6979243080785396</v>
-      </c>
-      <c r="E3" s="0">
-        <v>2.5963130676216397</v>
-      </c>
-      <c r="F3" s="0">
-        <v>3.5888092093268811</v>
-      </c>
-      <c r="G3" s="0">
-        <v>4.5201493780610962</v>
-      </c>
-      <c r="H3" s="0">
-        <v>4.5371982645746636</v>
-      </c>
-      <c r="I3" s="0">
-        <v>2.4702011844089076</v>
-      </c>
-      <c r="J3" s="0">
-        <v>3.8455155358549598</v>
-      </c>
-      <c r="K3" s="0">
-        <v>3.9978565921776252</v>
-      </c>
-      <c r="L3" s="0">
-        <v>3.9939422879094968</v>
-      </c>
-      <c r="M3" s="0">
-        <v>2.6848717347460012</v>
-      </c>
-      <c r="N3" s="0">
-        <v>3.1987676629678141</v>
-      </c>
-      <c r="O3" s="0">
-        <v>2.6894504536583588</v>
-      </c>
-      <c r="P3" s="0">
-        <v>2.8681330490787342</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>4.3250492735328843</v>
-      </c>
-      <c r="R3" s="0">
-        <v>3.978277128784339</v>
-      </c>
-      <c r="S3" s="0">
-        <v>2.8582050166892743</v>
-      </c>
-      <c r="T3" s="0">
-        <v>2.6263506145314688</v>
-      </c>
-      <c r="U3" s="0">
-        <v>3.5100131782653028</v>
-      </c>
-      <c r="V3" s="0">
-        <v>3.8139621484239647</v>
-      </c>
-      <c r="W3" s="0">
-        <v>3.3765948720505201</v>
-      </c>
-      <c r="X3" s="0">
-        <v>3.6189744633292706</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>3.6070357618613231</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>4.1509991157591077</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>4.8106837002203857</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>3.5841445456405188</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>3.5568726653929907</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>2.9640182878680403</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>4.4314482032757212</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>3.5180811594734194</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="10.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="0">
-        <v>14.001606481505283</v>
-      </c>
-      <c r="C2" s="0">
-        <v>15.152398784414729</v>
-      </c>
-      <c r="D2" s="0">
-        <v>15.826377840210942</v>
-      </c>
-      <c r="E2" s="0">
-        <v>17.763831478778378</v>
-      </c>
-      <c r="F2" s="0">
-        <v>19.74184506145448</v>
-      </c>
-      <c r="G2" s="0">
-        <v>15.299387492254956</v>
-      </c>
-      <c r="H2" s="0">
-        <v>12.9066240610106</v>
-      </c>
-      <c r="I2" s="0">
-        <v>18.330655778362381</v>
-      </c>
-      <c r="J2" s="0">
-        <v>15.74709379426309</v>
-      </c>
-      <c r="K2" s="0">
-        <v>20.641330229702806</v>
-      </c>
-      <c r="L2" s="0">
-        <v>15.78699239019206</v>
-      </c>
-      <c r="M2" s="0">
-        <v>13.656079267392485</v>
-      </c>
-      <c r="N2" s="0">
-        <v>15.484247781995119</v>
-      </c>
-      <c r="O2" s="0">
-        <v>17.131793216270459</v>
-      </c>
-      <c r="P2" s="0">
-        <v>16.506573589610234</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>12.357181296241574</v>
-      </c>
-      <c r="R2" s="0">
-        <v>18.737968236800757</v>
-      </c>
-      <c r="S2" s="0">
-        <v>12.508400304956078</v>
-      </c>
-      <c r="T2" s="0">
-        <v>12.920304433486976</v>
-      </c>
-      <c r="U2" s="0">
-        <v>18.552599913927338</v>
-      </c>
-      <c r="V2" s="0">
-        <v>17.363162595402045</v>
-      </c>
-      <c r="W2" s="0">
-        <v>15.326193060347213</v>
-      </c>
-      <c r="X2" s="0">
-        <v>16.668856170063105</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>14.142672872128333</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>17.849298547627484</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>15.688259231680828</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>17.331861035522024</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>17.347482907389097</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>15.878479981532351</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>18.598594561893471</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>16.174938413213894</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="0">
-        <v>1.1203826089758333</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1.3655982993575104</v>
-      </c>
-      <c r="D3" s="0">
-        <v>1.7790107937759498</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1.2850108041568034</v>
-      </c>
-      <c r="F3" s="0">
-        <v>1.2441291090615361</v>
-      </c>
-      <c r="G3" s="0">
-        <v>1.1505920605896218</v>
-      </c>
-      <c r="H3" s="0">
-        <v>1.6137920334464393</v>
-      </c>
-      <c r="I3" s="0">
-        <v>1.1288847903632007</v>
-      </c>
-      <c r="J3" s="0">
-        <v>1.1121121979973974</v>
-      </c>
-      <c r="K3" s="0">
-        <v>1.1174164196699867</v>
-      </c>
-      <c r="L3" s="0">
-        <v>1.6870266819781612</v>
-      </c>
-      <c r="M3" s="0">
-        <v>1.4759608719392818</v>
-      </c>
-      <c r="N3" s="0">
-        <v>1.4442411455294279</v>
-      </c>
-      <c r="O3" s="0">
-        <v>1.3335515094500034</v>
-      </c>
-      <c r="P3" s="0">
-        <v>1.225705712839543</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0.84545152834875681</v>
-      </c>
-      <c r="R3" s="0">
-        <v>1.0804387190915377</v>
-      </c>
-      <c r="S3" s="0">
-        <v>1.4471729698388816</v>
-      </c>
-      <c r="T3" s="0">
-        <v>1.1903714009595279</v>
-      </c>
-      <c r="U3" s="0">
-        <v>1.358500789532163</v>
-      </c>
-      <c r="V3" s="0">
-        <v>1.4412535784335301</v>
-      </c>
-      <c r="W3" s="0">
-        <v>1.3702042312129226</v>
-      </c>
-      <c r="X3" s="0">
-        <v>1.5455268143714469</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>0.84191438364372773</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>1.4920442743926001</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>0.89702111100330595</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>1.3639200543753738</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>1.1603297945823932</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>1.0596262072997467</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>1.0074854453709974</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>1.2728225447195867</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="10.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="0">
-        <v>8.4941065750697771</v>
-      </c>
-      <c r="C2" s="0">
-        <v>7.9674965662385819</v>
-      </c>
-      <c r="D2" s="0">
-        <v>9.5686999242754194</v>
-      </c>
-      <c r="E2" s="0">
-        <v>8.1484019637872294</v>
-      </c>
-      <c r="F2" s="0">
-        <v>10.680683378122955</v>
-      </c>
-      <c r="G2" s="0">
-        <v>7.8875868118794346</v>
-      </c>
-      <c r="H2" s="0">
-        <v>9.6163455939636115</v>
-      </c>
-      <c r="I2" s="0">
-        <v>9.3150458020582558</v>
-      </c>
-      <c r="J2" s="0">
-        <v>10.305061566341607</v>
-      </c>
-      <c r="K2" s="0">
-        <v>8.1563824499339752</v>
-      </c>
-      <c r="L2" s="0">
-        <v>9.9805267861608993</v>
-      </c>
-      <c r="M2" s="0">
-        <v>10.900771766789244</v>
-      </c>
-      <c r="N2" s="0">
-        <v>7.1525768935178338</v>
-      </c>
-      <c r="O2" s="0">
-        <v>6.7032692563955125</v>
-      </c>
-      <c r="P2" s="0">
-        <v>8.8535353418030489</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>8.2118753647349347</v>
-      </c>
-      <c r="R2" s="0">
-        <v>7.5168472812837832</v>
-      </c>
-      <c r="S2" s="0">
-        <v>10.758441292798086</v>
-      </c>
-      <c r="T2" s="0">
-        <v>8.9864434192506888</v>
-      </c>
-      <c r="U2" s="0">
-        <v>9.2622495360072818</v>
-      </c>
-      <c r="V2" s="0">
-        <v>9.8763810061021768</v>
-      </c>
-      <c r="W2" s="0">
-        <v>8.7904868981655717</v>
-      </c>
-      <c r="X2" s="0">
-        <v>10.571567210063458</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>9.5436132325754102</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>11.020477030656341</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>7.8988054139520347</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>8.3301071533466811</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>9.3352839890032282</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>9.3829024575077771</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>8.2597284809572322</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>9.0491900147580679</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.56005180025309953</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.60192611716595457</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.55734430532936352</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.46000733433981705</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.47245732162253506</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.5942570695363858</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.56447023820912989</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0.52191072651071235</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.6004024474969174</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0.7205075890351601</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0.50409675427797351</v>
-      </c>
-      <c r="M3" s="0">
-        <v>0.43504719049269192</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0.62769008095192724</v>
-      </c>
-      <c r="O3" s="0">
-        <v>0.45184814480037572</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0.59089991919482432</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0.53028726579795693</v>
-      </c>
-      <c r="R3" s="0">
-        <v>0.47198161191300247</v>
-      </c>
-      <c r="S3" s="0">
-        <v>0.61186193387116861</v>
-      </c>
-      <c r="T3" s="0">
-        <v>0.56476847998073443</v>
-      </c>
-      <c r="U3" s="0">
-        <v>0.46157066295058008</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.89121662747254626</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.62427748556445883</v>
-      </c>
-      <c r="X3" s="0">
-        <v>0.60231979555292803</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>0.47365847109551062</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>0.74653961425032467</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>0.82651482009947586</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>0.50510439522270523</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.59669066630109546</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.6608272312820469</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.46392182591530862</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>0.57648193088289046</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="10.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="10.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="10.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
-    <col min="20" max="20" width="10.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="0">
-        <v>3.7711880387934706</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4.4332482395842074</v>
-      </c>
-      <c r="D2" s="0">
-        <v>4.6784562665693432</v>
-      </c>
-      <c r="E2" s="0">
-        <v>4.4125204273162844</v>
-      </c>
-      <c r="F2" s="0">
-        <v>5.799719676592793</v>
-      </c>
-      <c r="G2" s="0">
-        <v>4.4495406953866645</v>
-      </c>
-      <c r="H2" s="0">
-        <v>4.4609062195121485</v>
-      </c>
-      <c r="I2" s="0">
-        <v>4.4975435354233841</v>
-      </c>
-      <c r="J2" s="0">
-        <v>5.0084545977661188</v>
-      </c>
-      <c r="K2" s="0">
-        <v>4.0810331033286582</v>
-      </c>
-      <c r="L2" s="0">
-        <v>5.1694291855446632</v>
-      </c>
-      <c r="M2" s="0">
-        <v>4.278827310032173</v>
-      </c>
-      <c r="N2" s="0">
-        <v>3.3992442183994434</v>
-      </c>
-      <c r="O2" s="0">
-        <v>3.9413528772320645</v>
-      </c>
-      <c r="P2" s="0">
-        <v>3.8054404552191357</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>4.0679086045635895</v>
-      </c>
-      <c r="R2" s="0">
-        <v>3.6083682125647814</v>
-      </c>
-      <c r="S2" s="0">
-        <v>3.7660650513856977</v>
-      </c>
-      <c r="T2" s="0">
-        <v>4.8886495095790625</v>
-      </c>
-      <c r="U2" s="0">
-        <v>4.264705380680331</v>
-      </c>
-      <c r="V2" s="0">
-        <v>4.9459734412851741</v>
-      </c>
-      <c r="W2" s="0">
-        <v>8.4494549808334014</v>
-      </c>
-      <c r="X2" s="0">
-        <v>3.9413558857602302</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>4.8494612319009365</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>3.3933677121158361</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>4.4569423886221369</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>5.7916520721567339</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>4.252780993726434</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>4.6466383487975964</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>4.9199688229588832</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>4.5476732494543795</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.32543823467555061</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.29036477956868306</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.32550900373631431</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.30897320184965571</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.33617690019168311</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.32932998939108998</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.36758387382314794</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0.35364505044276767</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.32358314261091958</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0.31095514694993237</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0.3090922398119399</v>
-      </c>
-      <c r="M3" s="0">
-        <v>0.40907145305279879</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0.38974734834728197</v>
-      </c>
-      <c r="O3" s="0">
-        <v>0.32628803821143587</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0.34555056863696348</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0.33945613282539239</v>
-      </c>
-      <c r="R3" s="0">
-        <v>0.32678526728591523</v>
-      </c>
-      <c r="S3" s="0">
-        <v>0.33476976115066387</v>
-      </c>
-      <c r="T3" s="0">
-        <v>0.3194136081948159</v>
-      </c>
-      <c r="U3" s="0">
-        <v>0.33586815157113159</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.32270774604912861</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.40190645266819525</v>
-      </c>
-      <c r="X3" s="0">
-        <v>0.34121788955430882</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>0.2722683742681869</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>0.3556817146097076</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>0.31659567967536517</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>0.31972214193546827</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.39465269344345538</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.34143291922226282</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.33462828929942878</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>0.33694719310178634</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="10.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
-    <col min="20" max="20" width="9.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="10.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -5450,97 +5450,97 @@
         <v>137</v>
       </c>
       <c r="B2" s="0">
-        <v>2.4586906201959557</v>
+        <v>1.8871811347004581</v>
       </c>
       <c r="C2" s="0">
-        <v>2.2393057411817461</v>
+        <v>1.4810984413074635</v>
       </c>
       <c r="D2" s="0">
-        <v>2.2426514154086696</v>
+        <v>3.176993208275408</v>
       </c>
       <c r="E2" s="0">
-        <v>2.2523413537713277</v>
+        <v>1.6183442593397934</v>
       </c>
       <c r="F2" s="0">
-        <v>2.4527286617736288</v>
+        <v>2.2977849545343019</v>
       </c>
       <c r="G2" s="0">
-        <v>2.3414660051290204</v>
+        <v>2.0426082459478145</v>
       </c>
       <c r="H2" s="0">
-        <v>2.3701711824495226</v>
+        <v>2.0932893750431272</v>
       </c>
       <c r="I2" s="0">
-        <v>2.246476279495857</v>
+        <v>2.9995049553757909</v>
       </c>
       <c r="J2" s="0">
-        <v>1.9829166340342368</v>
+        <v>2.1687319827743421</v>
       </c>
       <c r="K2" s="0">
-        <v>2.4286621622649469</v>
+        <v>2.9543581351711024</v>
       </c>
       <c r="L2" s="0">
-        <v>2.438733170414392</v>
+        <v>1.7977755540624161</v>
       </c>
       <c r="M2" s="0">
-        <v>2.3811278271250091</v>
+        <v>2.3645989346888201</v>
       </c>
       <c r="N2" s="0">
-        <v>2.1810294591973314</v>
+        <v>1.7976573570951373</v>
       </c>
       <c r="O2" s="0">
-        <v>2.4509088736296429</v>
+        <v>2.2048184978704439</v>
       </c>
       <c r="P2" s="0">
-        <v>2.3336399365114646</v>
+        <v>1.9920145674597138</v>
       </c>
       <c r="Q2" s="0">
-        <v>2.4365895432734401</v>
+        <v>2.1071863784043514</v>
       </c>
       <c r="R2" s="0">
-        <v>3.0534060039640947</v>
+        <v>2.2760405617773123</v>
       </c>
       <c r="S2" s="0">
-        <v>1.7696885182179216</v>
+        <v>2.430029411361911</v>
       </c>
       <c r="T2" s="0">
-        <v>2.6539545999378449</v>
+        <v>2.7572729054657548</v>
       </c>
       <c r="U2" s="0">
-        <v>2.477315804005833</v>
+        <v>1.7966401689946025</v>
       </c>
       <c r="V2" s="0">
-        <v>2.7279952587251595</v>
+        <v>1.5999227592395491</v>
       </c>
       <c r="W2" s="0">
-        <v>2.1299655821674932</v>
+        <v>2.8037909537060828</v>
       </c>
       <c r="X2" s="0">
-        <v>2.9548928039269646</v>
+        <v>2.0853849254457746</v>
       </c>
       <c r="Y2" s="0">
-        <v>3.0369655367012518</v>
+        <v>2.0270956480046758</v>
       </c>
       <c r="Z2" s="0">
-        <v>2.5675268688223944</v>
+        <v>2.1918538969733348</v>
       </c>
       <c r="AA2" s="0">
-        <v>2.7485011478072812</v>
+        <v>1.7466080823601851</v>
       </c>
       <c r="AB2" s="0">
-        <v>2.190452766462168</v>
+        <v>2.0580078116848157</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.7419719714853121</v>
+        <v>2.1570965273830032</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.4127689100859073</v>
+        <v>1.9764583856769116</v>
       </c>
       <c r="AE2" s="0">
-        <v>2.4461386542794985</v>
+        <v>2.440868906050957</v>
       </c>
       <c r="AF2" s="0">
-        <v>2.4382994430815104</v>
+        <v>2.1777005642058449</v>
       </c>
     </row>
     <row r="3">
@@ -5548,97 +5548,97 @@
         <v>138</v>
       </c>
       <c r="B3" s="0">
-        <v>0.24932549816488064</v>
+        <v>0.28339857280538644</v>
       </c>
       <c r="C3" s="0">
-        <v>0.259130917347968</v>
+        <v>0.30214902656977677</v>
       </c>
       <c r="D3" s="0">
-        <v>0.25247334626787438</v>
+        <v>0.28774866339103072</v>
       </c>
       <c r="E3" s="0">
-        <v>0.25415122140272067</v>
+        <v>0.28897201863202093</v>
       </c>
       <c r="F3" s="0">
-        <v>0.27104794257550813</v>
+        <v>0.25967299386370279</v>
       </c>
       <c r="G3" s="0">
-        <v>0.27672211130917312</v>
+        <v>0.29715501389067134</v>
       </c>
       <c r="H3" s="0">
-        <v>0.27398192761653622</v>
+        <v>0.25519785929313704</v>
       </c>
       <c r="I3" s="0">
-        <v>0.25235046236475844</v>
+        <v>0.31435420457932461</v>
       </c>
       <c r="J3" s="0">
-        <v>0.25537591027973428</v>
+        <v>0.31229491983847474</v>
       </c>
       <c r="K3" s="0">
-        <v>0.25358470332383748</v>
+        <v>0.25196901868444166</v>
       </c>
       <c r="L3" s="0">
-        <v>0.27408272398709077</v>
+        <v>0.26428757575055745</v>
       </c>
       <c r="M3" s="0">
-        <v>0.26771421411516061</v>
+        <v>0.30069684849214484</v>
       </c>
       <c r="N3" s="0">
-        <v>0.25460331128982017</v>
+        <v>0.28914858449985681</v>
       </c>
       <c r="O3" s="0">
-        <v>0.26429257576184223</v>
+        <v>0.30166010593412773</v>
       </c>
       <c r="P3" s="0">
-        <v>0.25567055128416838</v>
+        <v>0.30289338958283529</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.26150036260687737</v>
+        <v>0.30720998794802917</v>
       </c>
       <c r="R3" s="0">
-        <v>0.24827750887778888</v>
+        <v>0.23951799212218011</v>
       </c>
       <c r="S3" s="0">
-        <v>0.26091071215666051</v>
+        <v>0.30744362497567357</v>
       </c>
       <c r="T3" s="0">
-        <v>0.25561987134078878</v>
+        <v>0.25626037079306979</v>
       </c>
       <c r="U3" s="0">
-        <v>0.25502238994120952</v>
+        <v>0.30605346595581928</v>
       </c>
       <c r="V3" s="0">
-        <v>0.26858637788063894</v>
+        <v>0.281885457432757</v>
       </c>
       <c r="W3" s="0">
-        <v>0.26886241324713744</v>
+        <v>0.27601759322395525</v>
       </c>
       <c r="X3" s="0">
-        <v>0.26273207233420898</v>
+        <v>0.27643069084146255</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.26588640787740203</v>
+        <v>0.29637694424364658</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.25584793781967768</v>
+        <v>0.29208713245230128</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.26317813600716394</v>
+        <v>0.28509057115453607</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.25446711608957318</v>
+        <v>0.31204110694408521</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.2747678181599803</v>
+        <v>0.28025845230995905</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.27070611873648343</v>
+        <v>0.2509778950715949</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.25156824246228376</v>
+        <v>0.29761039389980465</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.26108136342096494</v>
+        <v>0.28589534917254544</v>
       </c>
     </row>
   </sheetData>
@@ -5654,34 +5654,34 @@
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="9.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="10.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="10.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="10.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5787,97 +5787,97 @@
         <v>171</v>
       </c>
       <c r="B2" s="0">
-        <v>27.06529708047276</v>
+        <v>24.58106753524768</v>
       </c>
       <c r="C2" s="0">
-        <v>23.08167607174493</v>
+        <v>22.552491348546376</v>
       </c>
       <c r="D2" s="0">
-        <v>24.59169041503646</v>
+        <v>27.826159717306691</v>
       </c>
       <c r="E2" s="0">
-        <v>24.240411118501324</v>
+        <v>22.773727601094041</v>
       </c>
       <c r="F2" s="0">
-        <v>21.374298768756045</v>
+        <v>26.87562265900128</v>
       </c>
       <c r="G2" s="0">
-        <v>26.671528479371336</v>
+        <v>31.375006469371083</v>
       </c>
       <c r="H2" s="0">
-        <v>26.281523793318335</v>
+        <v>25.128920436750722</v>
       </c>
       <c r="I2" s="0">
-        <v>28.096719928957292</v>
+        <v>27.664549300369295</v>
       </c>
       <c r="J2" s="0">
-        <v>22.39684454607557</v>
+        <v>22.052848339077226</v>
       </c>
       <c r="K2" s="0">
-        <v>29.258111835125117</v>
+        <v>22.214668223789477</v>
       </c>
       <c r="L2" s="0">
-        <v>22.149647586613263</v>
+        <v>25.257381572639328</v>
       </c>
       <c r="M2" s="0">
-        <v>24.687295110787453</v>
+        <v>27.801251842532739</v>
       </c>
       <c r="N2" s="0">
-        <v>30.09038808190682</v>
+        <v>21.328428113999408</v>
       </c>
       <c r="O2" s="0">
-        <v>29.155621221217565</v>
+        <v>23.874305444735288</v>
       </c>
       <c r="P2" s="0">
-        <v>27.835001666251706</v>
+        <v>24.376855097687436</v>
       </c>
       <c r="Q2" s="0">
-        <v>32.151990995297353</v>
+        <v>18.516253605498036</v>
       </c>
       <c r="R2" s="0">
-        <v>21.170915180318211</v>
+        <v>21.181523020869044</v>
       </c>
       <c r="S2" s="0">
-        <v>31.853321499728725</v>
+        <v>22.762097740843238</v>
       </c>
       <c r="T2" s="0">
-        <v>24.075659338789546</v>
+        <v>14.203857420054662</v>
       </c>
       <c r="U2" s="0">
-        <v>25.402628181431176</v>
+        <v>30.826565127434733</v>
       </c>
       <c r="V2" s="0">
-        <v>28.018696050371773</v>
+        <v>25.829826626810931</v>
       </c>
       <c r="W2" s="0">
-        <v>24.158409813985305</v>
+        <v>18.376780839015421</v>
       </c>
       <c r="X2" s="0">
-        <v>26.017396844210356</v>
+        <v>21.692086749491981</v>
       </c>
       <c r="Y2" s="0">
-        <v>30.09378155520967</v>
+        <v>29.82607340241697</v>
       </c>
       <c r="Z2" s="0">
-        <v>27.60151692105843</v>
+        <v>24.071367738852494</v>
       </c>
       <c r="AA2" s="0">
-        <v>24.788819056673326</v>
+        <v>30.004528899048321</v>
       </c>
       <c r="AB2" s="0">
-        <v>25.908572813270574</v>
+        <v>29.907116005132686</v>
       </c>
       <c r="AC2" s="0">
-        <v>26.397854985445093</v>
+        <v>24.743325883965614</v>
       </c>
       <c r="AD2" s="0">
-        <v>25.379990111748675</v>
+        <v>35.136957139501327</v>
       </c>
       <c r="AE2" s="0">
-        <v>26.478565619062145</v>
+        <v>23.356122082281033</v>
       </c>
       <c r="AF2" s="0">
-        <v>26.215805822357879</v>
+        <v>24.870592199445483</v>
       </c>
     </row>
     <row r="3">
@@ -5885,97 +5885,97 @@
         <v>172</v>
       </c>
       <c r="B3" s="0">
-        <v>3.7294502184706091</v>
+        <v>3.7578628233910618</v>
       </c>
       <c r="C3" s="0">
-        <v>2.5495112375599605</v>
+        <v>2.9005591649170719</v>
       </c>
       <c r="D3" s="0">
-        <v>4.6146518918477231</v>
+        <v>3.645504081625456</v>
       </c>
       <c r="E3" s="0">
-        <v>2.6578647151214421</v>
+        <v>4.3141117493755958</v>
       </c>
       <c r="F3" s="0">
-        <v>3.5832429243036996</v>
+        <v>3.0107311758795037</v>
       </c>
       <c r="G3" s="0">
-        <v>4.5938211191572496</v>
+        <v>3.2093201311207555</v>
       </c>
       <c r="H3" s="0">
-        <v>3.6106681236833631</v>
+        <v>2.1805363348578344</v>
       </c>
       <c r="I3" s="0">
-        <v>3.1246664722880291</v>
+        <v>4.3031598599149463</v>
       </c>
       <c r="J3" s="0">
-        <v>3.1433041183795085</v>
+        <v>2.9567056091070669</v>
       </c>
       <c r="K3" s="0">
-        <v>4.2089464740022056</v>
+        <v>3.2533034503422225</v>
       </c>
       <c r="L3" s="0">
-        <v>3.0679561844633434</v>
+        <v>3.4663173512225764</v>
       </c>
       <c r="M3" s="0">
-        <v>3.7234511457787725</v>
+        <v>2.7482087961704504</v>
       </c>
       <c r="N3" s="0">
-        <v>3.7700901876060136</v>
+        <v>6.5821505291786462</v>
       </c>
       <c r="O3" s="0">
-        <v>3.249532312866684</v>
+        <v>2.918027773503554</v>
       </c>
       <c r="P3" s="0">
-        <v>4.2478146440489803</v>
+        <v>4.0744747526320575</v>
       </c>
       <c r="Q3" s="0">
-        <v>3.3388513423573953</v>
+        <v>2.2619588757548366</v>
       </c>
       <c r="R3" s="0">
-        <v>2.6226592479820652</v>
+        <v>2.6848107904123846</v>
       </c>
       <c r="S3" s="0">
-        <v>3.6952655647173622</v>
+        <v>4.3887163182423441</v>
       </c>
       <c r="T3" s="0">
-        <v>3.5227606825977369</v>
+        <v>2.6548690874502729</v>
       </c>
       <c r="U3" s="0">
-        <v>3.01507259164087</v>
+        <v>4.5062960386397757</v>
       </c>
       <c r="V3" s="0">
-        <v>2.7699662030738201</v>
+        <v>3.8438281658841826</v>
       </c>
       <c r="W3" s="0">
-        <v>2.7295019255258008</v>
+        <v>3.875913892124319</v>
       </c>
       <c r="X3" s="0">
-        <v>4.6377057574919363</v>
+        <v>4.7698646359809107</v>
       </c>
       <c r="Y3" s="0">
-        <v>4.2081261769763456</v>
+        <v>3.1312437432878539</v>
       </c>
       <c r="Z3" s="0">
-        <v>3.347889558571528</v>
+        <v>2.533827157294688</v>
       </c>
       <c r="AA3" s="0">
-        <v>4.5200183466301302</v>
+        <v>2.6474547443514775</v>
       </c>
       <c r="AB3" s="0">
-        <v>2.704965132645639</v>
+        <v>4.9635133038782904</v>
       </c>
       <c r="AC3" s="0">
-        <v>4.1899150610543909</v>
+        <v>1.8441884651357967</v>
       </c>
       <c r="AD3" s="0">
-        <v>4.4384671856965614</v>
+        <v>4.1134385697691576</v>
       </c>
       <c r="AE3" s="0">
-        <v>6.3826536469835542</v>
+        <v>4.3480359927801464</v>
       </c>
       <c r="AF3" s="0">
-        <v>3.666626339784091</v>
+        <v>3.5296311121408412</v>
       </c>
     </row>
   </sheetData>
@@ -5994,31 +5994,31 @@
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="10.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="10.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="10.7109375" customWidth="true"/>
+    <col min="19" max="19" width="10.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="10.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="10.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="10.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6124,97 +6124,97 @@
         <v>205</v>
       </c>
       <c r="B2" s="0">
-        <v>16.919932247657435</v>
+        <v>19.96666916976039</v>
       </c>
       <c r="C2" s="0">
-        <v>17.093558458204878</v>
+        <v>11.589636346412256</v>
       </c>
       <c r="D2" s="0">
-        <v>18.550480881616789</v>
+        <v>14.192144416952432</v>
       </c>
       <c r="E2" s="0">
-        <v>15.621953760678016</v>
+        <v>15.342558268013583</v>
       </c>
       <c r="F2" s="0">
-        <v>23.951231572498578</v>
+        <v>16.127405829694979</v>
       </c>
       <c r="G2" s="0">
-        <v>17.874083448697643</v>
+        <v>15.035428319089489</v>
       </c>
       <c r="H2" s="0">
-        <v>17.104604133333943</v>
+        <v>12.553562203089291</v>
       </c>
       <c r="I2" s="0">
-        <v>18.994442471648313</v>
+        <v>13.090868958535971</v>
       </c>
       <c r="J2" s="0">
-        <v>15.459143570436378</v>
+        <v>15.024836076904389</v>
       </c>
       <c r="K2" s="0">
-        <v>17.096766724355817</v>
+        <v>9.641329445001638</v>
       </c>
       <c r="L2" s="0">
-        <v>18.366974095050814</v>
+        <v>17.003545370469244</v>
       </c>
       <c r="M2" s="0">
-        <v>16.064990586994064</v>
+        <v>8.4126409094229953</v>
       </c>
       <c r="N2" s="0">
-        <v>14.580350845609763</v>
+        <v>14.069540197826191</v>
       </c>
       <c r="O2" s="0">
-        <v>14.153822737919</v>
+        <v>15.17121578960804</v>
       </c>
       <c r="P2" s="0">
-        <v>15.203744481029011</v>
+        <v>19.961777788867021</v>
       </c>
       <c r="Q2" s="0">
-        <v>16.892552993496032</v>
+        <v>18.370457069386386</v>
       </c>
       <c r="R2" s="0">
-        <v>16.832658524266094</v>
+        <v>14.252759601064122</v>
       </c>
       <c r="S2" s="0">
-        <v>17.117713623957417</v>
+        <v>15.662701401093551</v>
       </c>
       <c r="T2" s="0">
-        <v>17.304313054552672</v>
+        <v>15.204944485118373</v>
       </c>
       <c r="U2" s="0">
-        <v>13.821812396415513</v>
+        <v>15.717005223526698</v>
       </c>
       <c r="V2" s="0">
-        <v>14.397545573358466</v>
+        <v>17.109365344191474</v>
       </c>
       <c r="W2" s="0">
-        <v>16.738067885151818</v>
+        <v>17.730082926515163</v>
       </c>
       <c r="X2" s="0">
-        <v>17.677728895844684</v>
+        <v>10.516259510143714</v>
       </c>
       <c r="Y2" s="0">
-        <v>17.160215617488198</v>
+        <v>15.355058123869368</v>
       </c>
       <c r="Z2" s="0">
-        <v>19.060488807396194</v>
+        <v>11.546121127820527</v>
       </c>
       <c r="AA2" s="0">
-        <v>18.665027561656931</v>
+        <v>18.413930054478818</v>
       </c>
       <c r="AB2" s="0">
-        <v>15.196396763510259</v>
+        <v>14.683675673818465</v>
       </c>
       <c r="AC2" s="0">
-        <v>17.078428067638164</v>
+        <v>14.330550970403509</v>
       </c>
       <c r="AD2" s="0">
-        <v>17.446231533368838</v>
+        <v>13.110096098555791</v>
       </c>
       <c r="AE2" s="0">
-        <v>15.201225631214395</v>
+        <v>15.824119458443366</v>
       </c>
       <c r="AF2" s="0">
-        <v>16.920882898168205</v>
+        <v>14.83367620526924</v>
       </c>
     </row>
     <row r="3">
@@ -6222,97 +6222,97 @@
         <v>206</v>
       </c>
       <c r="B3" s="0">
-        <v>0.91642761604758616</v>
+        <v>0.84226767150758475</v>
       </c>
       <c r="C3" s="0">
-        <v>1.4477922091759285</v>
+        <v>1.1120719575229869</v>
       </c>
       <c r="D3" s="0">
-        <v>0.85641638366133732</v>
+        <v>2.2865449737503494</v>
       </c>
       <c r="E3" s="0">
-        <v>0.95451656512089433</v>
+        <v>0.60147646828481238</v>
       </c>
       <c r="F3" s="0">
-        <v>1.0198599086559252</v>
+        <v>1.3437728266650284</v>
       </c>
       <c r="G3" s="0">
-        <v>0.63945721270717881</v>
+        <v>0.82942428515363453</v>
       </c>
       <c r="H3" s="0">
-        <v>1.7194648294436756</v>
+        <v>0.67772419449538179</v>
       </c>
       <c r="I3" s="0">
-        <v>0.83203809217131686</v>
+        <v>1.6150549540890666</v>
       </c>
       <c r="J3" s="0">
-        <v>1.0900389811184197</v>
+        <v>1.2152701979654246</v>
       </c>
       <c r="K3" s="0">
-        <v>1.5384592877537899</v>
+        <v>0.78978527207037574</v>
       </c>
       <c r="L3" s="0">
-        <v>0.7021602745142087</v>
+        <v>1.788753548839318</v>
       </c>
       <c r="M3" s="0">
-        <v>1.0237522858429002</v>
+        <v>0.81740369413962766</v>
       </c>
       <c r="N3" s="0">
-        <v>1.8082336389281839</v>
+        <v>1.2817737269857099</v>
       </c>
       <c r="O3" s="0">
-        <v>1.4057901062309679</v>
+        <v>0.71616218536841092</v>
       </c>
       <c r="P3" s="0">
-        <v>0.81596275471272539</v>
+        <v>1.3441239986027078</v>
       </c>
       <c r="Q3" s="0">
-        <v>1.0274822759993945</v>
+        <v>2.1090253667233085</v>
       </c>
       <c r="R3" s="0">
-        <v>1.0339049498561601</v>
+        <v>1.2395378988179624</v>
       </c>
       <c r="S3" s="0">
-        <v>0.75216698696749718</v>
+        <v>0.90791186581597605</v>
       </c>
       <c r="T3" s="0">
-        <v>1.16041825308248</v>
+        <v>1.1977932620520122</v>
       </c>
       <c r="U3" s="0">
-        <v>1.4233339144021291</v>
+        <v>1.4525001743516197</v>
       </c>
       <c r="V3" s="0">
-        <v>1.1461838609069304</v>
+        <v>1.3117468023363938</v>
       </c>
       <c r="W3" s="0">
-        <v>1.6510229967958743</v>
+        <v>0.75823339751109231</v>
       </c>
       <c r="X3" s="0">
-        <v>0.96776872577912731</v>
+        <v>1.4076248326744358</v>
       </c>
       <c r="Y3" s="0">
-        <v>1.3805168590070853</v>
+        <v>0.9808430887726719</v>
       </c>
       <c r="Z3" s="0">
-        <v>1.3343310049881318</v>
+        <v>2.3885220545498753</v>
       </c>
       <c r="AA3" s="0">
-        <v>1.1980363885791616</v>
+        <v>0.83206486813509228</v>
       </c>
       <c r="AB3" s="0">
-        <v>1.0601793081091613</v>
+        <v>1.2848369746432988</v>
       </c>
       <c r="AC3" s="0">
-        <v>1.1371342106542464</v>
+        <v>0.83443891926666325</v>
       </c>
       <c r="AD3" s="0">
-        <v>1.6965041002122661</v>
+        <v>1.1177378556240136</v>
       </c>
       <c r="AE3" s="0">
-        <v>1.3338408927425978</v>
+        <v>1.3736084733836671</v>
       </c>
       <c r="AF3" s="0">
-        <v>1.1691064958055761</v>
+        <v>1.2152678596699502</v>
       </c>
     </row>
   </sheetData>
@@ -6328,11 +6328,11 @@
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="9.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
@@ -6344,13 +6344,13 @@
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="10.7109375" customWidth="true"/>
+    <col min="21" max="21" width="9.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="9.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
@@ -6461,97 +6461,97 @@
         <v>239</v>
       </c>
       <c r="B2" s="0">
-        <v>12.392693132534403</v>
+        <v>11.679941061686229</v>
       </c>
       <c r="C2" s="0">
-        <v>13.087473718420801</v>
+        <v>7.8899545652710739</v>
       </c>
       <c r="D2" s="0">
-        <v>9.6563450879463311</v>
+        <v>8.3735295214047873</v>
       </c>
       <c r="E2" s="0">
-        <v>9.3945913889535273</v>
+        <v>5.9340561096155824</v>
       </c>
       <c r="F2" s="0">
-        <v>11.095856449181408</v>
+        <v>10.823876161680857</v>
       </c>
       <c r="G2" s="0">
-        <v>9.2853963633859422</v>
+        <v>8.6773798627214731</v>
       </c>
       <c r="H2" s="0">
-        <v>9.6231689944020395</v>
+        <v>8.2829235268841064</v>
       </c>
       <c r="I2" s="0">
-        <v>10.469292744370517</v>
+        <v>12.980551995324902</v>
       </c>
       <c r="J2" s="0">
-        <v>8.299967908994514</v>
+        <v>7.5826099059458949</v>
       </c>
       <c r="K2" s="0">
-        <v>8.7383489146595572</v>
+        <v>5.4983375291129439</v>
       </c>
       <c r="L2" s="0">
-        <v>7.4110055649206004</v>
+        <v>10.063862453996054</v>
       </c>
       <c r="M2" s="0">
-        <v>10.348988125971287</v>
+        <v>6.2998511011026332</v>
       </c>
       <c r="N2" s="0">
-        <v>12.666585312940763</v>
+        <v>9.1809473652939317</v>
       </c>
       <c r="O2" s="0">
-        <v>11.491967207572021</v>
+        <v>5.8834685225598085</v>
       </c>
       <c r="P2" s="0">
-        <v>8.54852249852566</v>
+        <v>7.7387335636554706</v>
       </c>
       <c r="Q2" s="0">
-        <v>10.509900030329373</v>
+        <v>5.127961830979892</v>
       </c>
       <c r="R2" s="0">
-        <v>11.780938650403435</v>
+        <v>7.0914216741598688</v>
       </c>
       <c r="S2" s="0">
-        <v>8.128023996801133</v>
+        <v>5.8548207959687115</v>
       </c>
       <c r="T2" s="0">
-        <v>8.2078390980611662</v>
+        <v>8.5173237218053561</v>
       </c>
       <c r="U2" s="0">
-        <v>10.421664907719578</v>
+        <v>6.0929161997400119</v>
       </c>
       <c r="V2" s="0">
-        <v>8.7113574598029988</v>
+        <v>10.180515128432292</v>
       </c>
       <c r="W2" s="0">
-        <v>9.1651069943400181</v>
+        <v>8.775161659375474</v>
       </c>
       <c r="X2" s="0">
-        <v>9.2860828235657813</v>
+        <v>9.5903688461509446</v>
       </c>
       <c r="Y2" s="0">
-        <v>9.0236568975574336</v>
+        <v>10.95268084450216</v>
       </c>
       <c r="Z2" s="0">
-        <v>13.270375559863353</v>
+        <v>7.194583840554758</v>
       </c>
       <c r="AA2" s="0">
-        <v>9.8379093924894363</v>
+        <v>6.7250255000503971</v>
       </c>
       <c r="AB2" s="0">
-        <v>9.4892697010446927</v>
+        <v>6.6836213547111054</v>
       </c>
       <c r="AC2" s="0">
-        <v>8.990102758679118</v>
+        <v>9.237775791093167</v>
       </c>
       <c r="AD2" s="0">
-        <v>10.037200763537669</v>
+        <v>8.6872523653439924</v>
       </c>
       <c r="AE2" s="0">
-        <v>9.1735980837814424</v>
+        <v>6.7506476663337391</v>
       </c>
       <c r="AF2" s="0">
-        <v>9.9514410176918684</v>
+        <v>8.1450700155152553</v>
       </c>
     </row>
     <row r="3">
@@ -6559,97 +6559,97 @@
         <v>240</v>
       </c>
       <c r="B3" s="0">
-        <v>0.52125876555063033</v>
+        <v>0.77002715619519457</v>
       </c>
       <c r="C3" s="0">
-        <v>0.42056520256266028</v>
+        <v>0.31263566004591842</v>
       </c>
       <c r="D3" s="0">
-        <v>0.43794730879959481</v>
+        <v>0.55947973480756152</v>
       </c>
       <c r="E3" s="0">
-        <v>0.46768107661635316</v>
+        <v>0.4149954749823318</v>
       </c>
       <c r="F3" s="0">
-        <v>0.39760144628289157</v>
+        <v>0.2752848290293341</v>
       </c>
       <c r="G3" s="0">
-        <v>0.40662817474814406</v>
+        <v>0.32691292142966483</v>
       </c>
       <c r="H3" s="0">
-        <v>0.44571956222018161</v>
+        <v>1.1606034841614752</v>
       </c>
       <c r="I3" s="0">
-        <v>0.66199365841978863</v>
+        <v>0.31669681999491911</v>
       </c>
       <c r="J3" s="0">
-        <v>0.89978011921412815</v>
+        <v>0.43677120099447514</v>
       </c>
       <c r="K3" s="0">
-        <v>0.45208371676245651</v>
+        <v>0.63846644958001864</v>
       </c>
       <c r="L3" s="0">
-        <v>0.4037782045783162</v>
+        <v>0.40869489047141289</v>
       </c>
       <c r="M3" s="0">
-        <v>0.63482091618697101</v>
+        <v>0.54507700720685504</v>
       </c>
       <c r="N3" s="0">
-        <v>0.70855900623856727</v>
+        <v>0.50838907541371292</v>
       </c>
       <c r="O3" s="0">
-        <v>0.5858712780073797</v>
+        <v>0.69392389235160412</v>
       </c>
       <c r="P3" s="0">
-        <v>0.55301308613201838</v>
+        <v>0.50222821732303247</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.53280213041412849</v>
+        <v>0.51158210261379333</v>
       </c>
       <c r="R3" s="0">
-        <v>0.55910765446744126</v>
+        <v>0.46631294987035266</v>
       </c>
       <c r="S3" s="0">
-        <v>0.48753137737616925</v>
+        <v>0.49697307694579818</v>
       </c>
       <c r="T3" s="0">
-        <v>0.5508602253268281</v>
+        <v>0.55089756908355592</v>
       </c>
       <c r="U3" s="0">
-        <v>0.37394026991215445</v>
+        <v>0.42598516499319888</v>
       </c>
       <c r="V3" s="0">
-        <v>0.52322938114003958</v>
+        <v>0.40926776707809032</v>
       </c>
       <c r="W3" s="0">
-        <v>0.40236914420423997</v>
+        <v>0.55869349877830055</v>
       </c>
       <c r="X3" s="0">
-        <v>0.48082267947898893</v>
+        <v>0.42497535696113337</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.38959928210210509</v>
+        <v>0.34199470971189577</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.61034392129873827</v>
+        <v>0.36245744194911028</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.48786587768926354</v>
+        <v>0.61876279870172479</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.40650494752408239</v>
+        <v>0.732664484448173</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.50854901214419757</v>
+        <v>0.50867490922809</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.44002051162634476</v>
+        <v>0.32266688755945921</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.72986803502605901</v>
+        <v>0.72972335528532994</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.51602386573502868</v>
+        <v>0.51106062957318388</v>
       </c>
     </row>
   </sheetData>

--- a/GA_Parameters/ErForPopulationCase.xlsx
+++ b/GA_Parameters/ErForPopulationCase.xlsx
@@ -1607,16 +1607,1027 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="10.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="10.7109375" customWidth="true"/>
+    <col min="19" max="19" width="10.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="9.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3.3375161500106487</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4.5426239436458458</v>
+      </c>
+      <c r="D2" s="0">
+        <v>3.1498679977806061</v>
+      </c>
+      <c r="E2" s="0">
+        <v>3.1059167006150914</v>
+      </c>
+      <c r="F2" s="0">
+        <v>3.4597845010114519</v>
+      </c>
+      <c r="G2" s="0">
+        <v>5.5833982960947681</v>
+      </c>
+      <c r="H2" s="0">
+        <v>2.9603439369529223</v>
+      </c>
+      <c r="I2" s="0">
+        <v>4.4790388609761616</v>
+      </c>
+      <c r="J2" s="0">
+        <v>3.7705089451899432</v>
+      </c>
+      <c r="K2" s="0">
+        <v>3.4961839080496908</v>
+      </c>
+      <c r="L2" s="0">
+        <v>3.6478085016734587</v>
+      </c>
+      <c r="M2" s="0">
+        <v>4.2008586399386747</v>
+      </c>
+      <c r="N2" s="0">
+        <v>4.1198364490301529</v>
+      </c>
+      <c r="O2" s="0">
+        <v>3.4461848259578418</v>
+      </c>
+      <c r="P2" s="0">
+        <v>3.2159662422903859</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>2.7847472516860559</v>
+      </c>
+      <c r="R2" s="0">
+        <v>4.2633951096426737</v>
+      </c>
+      <c r="S2" s="0">
+        <v>4.0897433799950509</v>
+      </c>
+      <c r="T2" s="0">
+        <v>2.607170372182638</v>
+      </c>
+      <c r="U2" s="0">
+        <v>3.3819114605056266</v>
+      </c>
+      <c r="V2" s="0">
+        <v>5.2016872377095895</v>
+      </c>
+      <c r="W2" s="0">
+        <v>4.4932497476852902</v>
+      </c>
+      <c r="X2" s="0">
+        <v>3.9226686996110809</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>4.1021256475646961</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>4.3812836860425888</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>3.8267065265225098</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>4.9449858847349226</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>4.9303700206560093</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>4.804668888616523</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>3.6706504357930485</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>3.930706741605531</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.27390983161837779</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.24530998156312264</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.30612953790642183</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.25974554466249422</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.29797515207592012</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.24212769247212179</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.22199205381263948</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.25997045338055425</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.2751199581158893</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.23716199646781772</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.25195250637905958</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.2812362065158816</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.2461083208452633</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.30986479335683137</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.31260895418620982</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.30150907204401423</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.25671683135516532</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.28824743069423864</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.28175877643894548</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.26317789638014988</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.30129239945336816</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.24196202974396561</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.22638654627776397</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.21583431232188088</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.29042082067655051</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.27319330735110731</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.24755607403876922</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.27300281298737183</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.23971004540329069</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.24575995644198884</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.26559137649890585</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="10.7109375" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="10.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="10.7109375" customWidth="true"/>
+    <col min="20" max="20" width="10.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="9.7109375" customWidth="true"/>
+    <col min="23" max="23" width="9.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2.1538376183821279</v>
+      </c>
+      <c r="C2" s="0">
+        <v>2.4777588108496715</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1.9610565361839569</v>
+      </c>
+      <c r="E2" s="0">
+        <v>3.6726938662353601</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1.9991962117742892</v>
+      </c>
+      <c r="G2" s="0">
+        <v>2.1175691348408572</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1.3764009007162472</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1.8873585141909019</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1.8045020937147529</v>
+      </c>
+      <c r="K2" s="0">
+        <v>2.7006574586509262</v>
+      </c>
+      <c r="L2" s="0">
+        <v>2.3839367727115279</v>
+      </c>
+      <c r="M2" s="0">
+        <v>2.1841609949349423</v>
+      </c>
+      <c r="N2" s="0">
+        <v>2.3642485210576392</v>
+      </c>
+      <c r="O2" s="0">
+        <v>2.776134196698461</v>
+      </c>
+      <c r="P2" s="0">
+        <v>2.460256356408034</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>1.7956262237446836</v>
+      </c>
+      <c r="R2" s="0">
+        <v>1.9589205271492069</v>
+      </c>
+      <c r="S2" s="0">
+        <v>2.2874521296083561</v>
+      </c>
+      <c r="T2" s="0">
+        <v>2.520799339704185</v>
+      </c>
+      <c r="U2" s="0">
+        <v>1.46273962109482</v>
+      </c>
+      <c r="V2" s="0">
+        <v>1.6939513000696607</v>
+      </c>
+      <c r="W2" s="0">
+        <v>1.704058200118302</v>
+      </c>
+      <c r="X2" s="0">
+        <v>1.9346368106049918</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>2.5987186805467246</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>2.0496779686218143</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>2.0337270420016882</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>2.5642061545427741</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>2.1977127176637206</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>2.4188965441972212</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>3.0835897023605847</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>2.2208160316459478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.19679673864099126</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.21622614634115017</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.20039552509808739</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.21250875038962116</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.18455616452316342</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.19368817672940636</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.19764077896395904</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.1900521457237806</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.1822776481733589</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.19401201773667556</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.19784965708984639</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.1884875916536074</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.18288951787832622</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.18471552861215429</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.19196990719634308</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.18973074076194552</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.19310150596847994</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.1959533836119644</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.1953578876108783</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.17804279651654342</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.18623606390068662</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.18448591610891868</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.19882746808554128</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.17913375665329212</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.19663390255339919</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.18061204371968123</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.20282974377790794</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.18786698566770449</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.18981064648853857</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.20065331998640906</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.19244474853874541</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="10.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="10.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="0">
+        <v>25.320690245317959</v>
+      </c>
+      <c r="C2" s="0">
+        <v>23.105168905080415</v>
+      </c>
+      <c r="D2" s="0">
+        <v>24.519504811647089</v>
+      </c>
+      <c r="E2" s="0">
+        <v>25.291532528371263</v>
+      </c>
+      <c r="F2" s="0">
+        <v>23.880133140482808</v>
+      </c>
+      <c r="G2" s="0">
+        <v>24.155799845717013</v>
+      </c>
+      <c r="H2" s="0">
+        <v>22.940273221850809</v>
+      </c>
+      <c r="I2" s="0">
+        <v>19.857876163339625</v>
+      </c>
+      <c r="J2" s="0">
+        <v>21.142383229677101</v>
+      </c>
+      <c r="K2" s="0">
+        <v>23.205216457001079</v>
+      </c>
+      <c r="L2" s="0">
+        <v>26.622867356762235</v>
+      </c>
+      <c r="M2" s="0">
+        <v>21.375157365873946</v>
+      </c>
+      <c r="N2" s="0">
+        <v>24.896223939415744</v>
+      </c>
+      <c r="O2" s="0">
+        <v>24.831810989253679</v>
+      </c>
+      <c r="P2" s="0">
+        <v>25.126122096492963</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>16.904522530196665</v>
+      </c>
+      <c r="R2" s="0">
+        <v>16.954949553492924</v>
+      </c>
+      <c r="S2" s="0">
+        <v>23.264978980838666</v>
+      </c>
+      <c r="T2" s="0">
+        <v>24.674285967101117</v>
+      </c>
+      <c r="U2" s="0">
+        <v>32.035150959152723</v>
+      </c>
+      <c r="V2" s="0">
+        <v>27.092124918957449</v>
+      </c>
+      <c r="W2" s="0">
+        <v>19.243269648039202</v>
+      </c>
+      <c r="X2" s="0">
+        <v>23.043372491184478</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>15.441441580506337</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>23.968536689065395</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>29.316537496169044</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>28.678224039468642</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>16.866915028541086</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>31.904770445612382</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>27.157179297187046</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>23.76056733072657</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2.3532342569508318</v>
+      </c>
+      <c r="C3" s="0">
+        <v>3.346572967534216</v>
+      </c>
+      <c r="D3" s="0">
+        <v>3.7240175271212039</v>
+      </c>
+      <c r="E3" s="0">
+        <v>2.4918205902525239</v>
+      </c>
+      <c r="F3" s="0">
+        <v>2.6726971872353285</v>
+      </c>
+      <c r="G3" s="0">
+        <v>2.8509409401960331</v>
+      </c>
+      <c r="H3" s="0">
+        <v>2.0720579931676815</v>
+      </c>
+      <c r="I3" s="0">
+        <v>2.8762261763680446</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2.8232644933280153</v>
+      </c>
+      <c r="K3" s="0">
+        <v>2.3154391834419674</v>
+      </c>
+      <c r="L3" s="0">
+        <v>2.499566187081308</v>
+      </c>
+      <c r="M3" s="0">
+        <v>2.7265198138364068</v>
+      </c>
+      <c r="N3" s="0">
+        <v>2.9337381417492443</v>
+      </c>
+      <c r="O3" s="0">
+        <v>3.9942099355975116</v>
+      </c>
+      <c r="P3" s="0">
+        <v>2.6824138707869332</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>4.4166316971837452</v>
+      </c>
+      <c r="R3" s="0">
+        <v>3.1025808104293175</v>
+      </c>
+      <c r="S3" s="0">
+        <v>3.3930867833400145</v>
+      </c>
+      <c r="T3" s="0">
+        <v>2.9524969994637389</v>
+      </c>
+      <c r="U3" s="0">
+        <v>2.8674023588582713</v>
+      </c>
+      <c r="V3" s="0">
+        <v>2.5611354623595144</v>
+      </c>
+      <c r="W3" s="0">
+        <v>2.6648102433165133</v>
+      </c>
+      <c r="X3" s="0">
+        <v>2.7306398647139987</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>3.010629341405318</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>2.3075958192676067</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>2.9769722919553714</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>4.2379889652551839</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>3.555886407013177</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>2.7870019373366941</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>2.3722561400784672</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>2.9433278128874729</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="10.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
@@ -1633,319 +2644,319 @@
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="10.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="10.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="10.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>272</v>
+        <v>374</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>276</v>
+        <v>378</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>278</v>
+        <v>380</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>288</v>
+        <v>390</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>289</v>
+        <v>391</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>291</v>
+        <v>393</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>292</v>
+        <v>394</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>295</v>
+        <v>397</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>296</v>
+        <v>398</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>297</v>
+        <v>399</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>304</v>
+        <v>406</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>273</v>
+        <v>375</v>
       </c>
       <c r="B2" s="0">
-        <v>6.6835271344863196</v>
+        <v>15.187185603204906</v>
       </c>
       <c r="C2" s="0">
-        <v>6.4856814362360309</v>
+        <v>15.4662764849921</v>
       </c>
       <c r="D2" s="0">
-        <v>3.0830808971400403</v>
+        <v>14.156032679083635</v>
       </c>
       <c r="E2" s="0">
-        <v>4.6585882323518053</v>
+        <v>16.16511874216885</v>
       </c>
       <c r="F2" s="0">
-        <v>4.9062747396982029</v>
+        <v>15.991758887350249</v>
       </c>
       <c r="G2" s="0">
-        <v>4.6464483820591012</v>
+        <v>14.951964234191738</v>
       </c>
       <c r="H2" s="0">
-        <v>4.015939690144922</v>
+        <v>14.546200013486887</v>
       </c>
       <c r="I2" s="0">
-        <v>2.9184116798857547</v>
+        <v>11.890339448356793</v>
       </c>
       <c r="J2" s="0">
-        <v>3.902620842494128</v>
+        <v>16.888172300365756</v>
       </c>
       <c r="K2" s="0">
-        <v>2.6093834702486194</v>
+        <v>15.376582481215898</v>
       </c>
       <c r="L2" s="0">
-        <v>3.9759123334371504</v>
+        <v>15.97840274511039</v>
       </c>
       <c r="M2" s="0">
-        <v>4.5515980229750976</v>
+        <v>15.08359197963566</v>
       </c>
       <c r="N2" s="0">
-        <v>2.9492041035602914</v>
+        <v>13.682864994154777</v>
       </c>
       <c r="O2" s="0">
-        <v>6.9802196167506478</v>
+        <v>15.963163427272942</v>
       </c>
       <c r="P2" s="0">
-        <v>5.4704156634022754</v>
+        <v>15.687973237112638</v>
       </c>
       <c r="Q2" s="0">
-        <v>2.740248444014254</v>
+        <v>12.657007736632625</v>
       </c>
       <c r="R2" s="0">
-        <v>3.9687116160035045</v>
+        <v>17.983538094193438</v>
       </c>
       <c r="S2" s="0">
-        <v>3.7432371712842945</v>
+        <v>16.970904522133445</v>
       </c>
       <c r="T2" s="0">
-        <v>5.0158136625195731</v>
+        <v>13.727238851153658</v>
       </c>
       <c r="U2" s="0">
-        <v>4.5064831478404113</v>
+        <v>15.154549268362958</v>
       </c>
       <c r="V2" s="0">
-        <v>3.0546560283930106</v>
+        <v>17.265268140715886</v>
       </c>
       <c r="W2" s="0">
-        <v>4.9651088808456398</v>
+        <v>16.450610468709197</v>
       </c>
       <c r="X2" s="0">
-        <v>5.3631404740039628</v>
+        <v>13.508089143736047</v>
       </c>
       <c r="Y2" s="0">
-        <v>4.156817487730577</v>
+        <v>15.31768502829715</v>
       </c>
       <c r="Z2" s="0">
-        <v>3.9823030368784589</v>
+        <v>10.921978128297857</v>
       </c>
       <c r="AA2" s="0">
-        <v>3.0617764292812319</v>
+        <v>13.948750394173224</v>
       </c>
       <c r="AB2" s="0">
-        <v>3.1086957504623935</v>
+        <v>15.458457251140425</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.4448258041816588</v>
+        <v>16.798270301059866</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.9662996225511504</v>
+        <v>10.72518940822677</v>
       </c>
       <c r="AE2" s="0">
-        <v>3.6961891117880321</v>
+        <v>16.706681717144448</v>
       </c>
       <c r="AF2" s="0">
-        <v>4.2537204304216178</v>
+        <v>15.020328190389341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="B3" s="0">
-        <v>0.17279876176464218</v>
+        <v>1.0426953529555589</v>
       </c>
       <c r="C3" s="0">
-        <v>0.24331211482477152</v>
+        <v>1.2677585527779651</v>
       </c>
       <c r="D3" s="0">
-        <v>0.2982364843853843</v>
+        <v>1.401036777010743</v>
       </c>
       <c r="E3" s="0">
-        <v>0.24565884650772868</v>
+        <v>1.0262934153031211</v>
       </c>
       <c r="F3" s="0">
-        <v>0.22704917448507786</v>
+        <v>1.4423044026681804</v>
       </c>
       <c r="G3" s="0">
-        <v>0.25925529978402939</v>
+        <v>1.4760115160805305</v>
       </c>
       <c r="H3" s="0">
-        <v>0.25040631655558304</v>
+        <v>1.1165535471118031</v>
       </c>
       <c r="I3" s="0">
-        <v>0.40243143876619297</v>
+        <v>1.0513359209169142</v>
       </c>
       <c r="J3" s="0">
-        <v>0.22620023151726737</v>
+        <v>1.0064125379854576</v>
       </c>
       <c r="K3" s="0">
-        <v>0.22224965200346328</v>
+        <v>1.1243007705867891</v>
       </c>
       <c r="L3" s="0">
-        <v>0.23047203213360684</v>
+        <v>1.3271931289475698</v>
       </c>
       <c r="M3" s="0">
-        <v>0.2081218849594991</v>
+        <v>0.97370294089902265</v>
       </c>
       <c r="N3" s="0">
-        <v>0.24745710273368163</v>
+        <v>1.1368419949985038</v>
       </c>
       <c r="O3" s="0">
-        <v>0.23110724737632046</v>
+        <v>0.85397424076061246</v>
       </c>
       <c r="P3" s="0">
-        <v>0.32816132760494227</v>
+        <v>1.1333316915697855</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.24189164675397334</v>
+        <v>0.9907569935882542</v>
       </c>
       <c r="R3" s="0">
-        <v>0.30161682285598407</v>
+        <v>1.148575253809039</v>
       </c>
       <c r="S3" s="0">
-        <v>0.2456467868601992</v>
+        <v>0.92557941087273465</v>
       </c>
       <c r="T3" s="0">
-        <v>0.23531745405989932</v>
+        <v>1.2919245082704667</v>
       </c>
       <c r="U3" s="0">
-        <v>0.2293488646475268</v>
+        <v>1.1907363943019145</v>
       </c>
       <c r="V3" s="0">
-        <v>0.21777544886230732</v>
+        <v>0.74041872039492096</v>
       </c>
       <c r="W3" s="0">
-        <v>0.21261053041097849</v>
+        <v>1.1525326059758212</v>
       </c>
       <c r="X3" s="0">
-        <v>0.19759774484611756</v>
+        <v>1.5680105355393867</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.27613205425324533</v>
+        <v>1.539325511982335</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.2337453579535537</v>
+        <v>0.97872124017437323</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.22384681137119761</v>
+        <v>1.0606008668383253</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.26870879809753617</v>
+        <v>1.1546214649344613</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.22814761383100729</v>
+        <v>1.0811710310436358</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.3508872400245332</v>
+        <v>1.2598127775584416</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.22085639295371509</v>
+        <v>1.0787136679340006</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.24923491610613216</v>
+        <v>1.1513749257930224</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="10.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -1979,1017 +2990,6 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2.3290040490098733</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1.7872836655578019</v>
-      </c>
-      <c r="D2" s="0">
-        <v>1.7597301277533646</v>
-      </c>
-      <c r="E2" s="0">
-        <v>2.9736292550783516</v>
-      </c>
-      <c r="F2" s="0">
-        <v>2.8037014009828045</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1.7973929794610117</v>
-      </c>
-      <c r="H2" s="0">
-        <v>2.1898693308224844</v>
-      </c>
-      <c r="I2" s="0">
-        <v>1.7282022449446635</v>
-      </c>
-      <c r="J2" s="0">
-        <v>2.3465938737254217</v>
-      </c>
-      <c r="K2" s="0">
-        <v>1.7178212035466411</v>
-      </c>
-      <c r="L2" s="0">
-        <v>3.1054472742326578</v>
-      </c>
-      <c r="M2" s="0">
-        <v>1.654405085068084</v>
-      </c>
-      <c r="N2" s="0">
-        <v>1.7967107840509067</v>
-      </c>
-      <c r="O2" s="0">
-        <v>1.5493783619659267</v>
-      </c>
-      <c r="P2" s="0">
-        <v>1.7478803193799366</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>1.9363761060381208</v>
-      </c>
-      <c r="R2" s="0">
-        <v>3.2118152329918752</v>
-      </c>
-      <c r="S2" s="0">
-        <v>2.4145567859661692</v>
-      </c>
-      <c r="T2" s="0">
-        <v>2.1118026637026013</v>
-      </c>
-      <c r="U2" s="0">
-        <v>2.1929473233322327</v>
-      </c>
-      <c r="V2" s="0">
-        <v>2.5937003111567889</v>
-      </c>
-      <c r="W2" s="0">
-        <v>2.6015320733155907</v>
-      </c>
-      <c r="X2" s="0">
-        <v>2.0407750408872474</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>2.0215191492466729</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>3.4021410638580245</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>2.5094642611011269</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>2.6260864690642265</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>2.1498947909002952</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>2.1998069175243935</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>1.5584686830027787</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>2.2285978942556022</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.17362243671812161</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.18603369673691239</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.26541549375668799</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.18191980139672428</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.1835918468914208</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.17439948738226302</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.18586740816186606</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0.19598769737536312</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.18760919955463645</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0.18349914195569003</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0.16915375693268808</v>
-      </c>
-      <c r="M3" s="0">
-        <v>0.17417843167246336</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0.17899499396066842</v>
-      </c>
-      <c r="O3" s="0">
-        <v>0.18558491290572171</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0.18950544683415949</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0.16756939384769595</v>
-      </c>
-      <c r="R3" s="0">
-        <v>0.20098734569022306</v>
-      </c>
-      <c r="S3" s="0">
-        <v>0.17861906478811154</v>
-      </c>
-      <c r="T3" s="0">
-        <v>0.1762913105008293</v>
-      </c>
-      <c r="U3" s="0">
-        <v>0.17873106725451365</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.17474277014160877</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.18200604597424036</v>
-      </c>
-      <c r="X3" s="0">
-        <v>0.18474356189713306</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>0.17518080054659232</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>0.19747296855779037</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>0.17175589745316436</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>0.18022658402933012</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.20041782130736277</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.2011543931428984</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.17950066277973051</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>0.18549211467155374</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="10.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="10.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="0">
-        <v>32.467951358203045</v>
-      </c>
-      <c r="C2" s="0">
-        <v>24.778000175544189</v>
-      </c>
-      <c r="D2" s="0">
-        <v>28.83778635141261</v>
-      </c>
-      <c r="E2" s="0">
-        <v>23.915401723217219</v>
-      </c>
-      <c r="F2" s="0">
-        <v>25.984200196124768</v>
-      </c>
-      <c r="G2" s="0">
-        <v>22.351582959463443</v>
-      </c>
-      <c r="H2" s="0">
-        <v>23.567493160943624</v>
-      </c>
-      <c r="I2" s="0">
-        <v>25.188032647289301</v>
-      </c>
-      <c r="J2" s="0">
-        <v>19.320040146561933</v>
-      </c>
-      <c r="K2" s="0">
-        <v>15.680075594980904</v>
-      </c>
-      <c r="L2" s="0">
-        <v>22.986017148363697</v>
-      </c>
-      <c r="M2" s="0">
-        <v>27.429827077461507</v>
-      </c>
-      <c r="N2" s="0">
-        <v>27.259468899306004</v>
-      </c>
-      <c r="O2" s="0">
-        <v>26.954315166237841</v>
-      </c>
-      <c r="P2" s="0">
-        <v>29.405464748488267</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>18.941174485177118</v>
-      </c>
-      <c r="R2" s="0">
-        <v>25.413584711391309</v>
-      </c>
-      <c r="S2" s="0">
-        <v>26.834903096532464</v>
-      </c>
-      <c r="T2" s="0">
-        <v>24.630754479022848</v>
-      </c>
-      <c r="U2" s="0">
-        <v>24.441285910776749</v>
-      </c>
-      <c r="V2" s="0">
-        <v>23.300525828946242</v>
-      </c>
-      <c r="W2" s="0">
-        <v>21.64102126471666</v>
-      </c>
-      <c r="X2" s="0">
-        <v>24.056269227469542</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>21.063479435358719</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>23.880614083801262</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>27.660669513933662</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>21.558411389118174</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>22.905205662629836</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>20.784883849016165</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>22.873361014007632</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>24.203726710183222</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="B3" s="0">
-        <v>4.0149498095074092</v>
-      </c>
-      <c r="C3" s="0">
-        <v>2.6811805659829071</v>
-      </c>
-      <c r="D3" s="0">
-        <v>3.1581355324611371</v>
-      </c>
-      <c r="E3" s="0">
-        <v>2.7883238441550371</v>
-      </c>
-      <c r="F3" s="0">
-        <v>3.2822412429462067</v>
-      </c>
-      <c r="G3" s="0">
-        <v>1.9650320232224134</v>
-      </c>
-      <c r="H3" s="0">
-        <v>2.701901233492999</v>
-      </c>
-      <c r="I3" s="0">
-        <v>2.4776050674757362</v>
-      </c>
-      <c r="J3" s="0">
-        <v>3.3294381346269897</v>
-      </c>
-      <c r="K3" s="0">
-        <v>2.3904626413948766</v>
-      </c>
-      <c r="L3" s="0">
-        <v>2.8325498925365737</v>
-      </c>
-      <c r="M3" s="0">
-        <v>3.2352220741997133</v>
-      </c>
-      <c r="N3" s="0">
-        <v>2.5324507610628735</v>
-      </c>
-      <c r="O3" s="0">
-        <v>1.9397136190724813</v>
-      </c>
-      <c r="P3" s="0">
-        <v>3.2194131666629717</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>3.5737777649054694</v>
-      </c>
-      <c r="R3" s="0">
-        <v>2.1867233517525468</v>
-      </c>
-      <c r="S3" s="0">
-        <v>2.3355299360727741</v>
-      </c>
-      <c r="T3" s="0">
-        <v>1.8365316982860318</v>
-      </c>
-      <c r="U3" s="0">
-        <v>3.9146262943092385</v>
-      </c>
-      <c r="V3" s="0">
-        <v>2.7475844566178207</v>
-      </c>
-      <c r="W3" s="0">
-        <v>2.6695866567267172</v>
-      </c>
-      <c r="X3" s="0">
-        <v>2.6554672970551936</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>2.3397487245718631</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>2.3404093295768131</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>2.4538631690172896</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>3.8792375452738614</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>1.7084240733688141</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>2.2649176622893217</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>3.0660316529780967</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>2.750702640720073</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="10.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="9.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="0">
-        <v>16.346437168659371</v>
-      </c>
-      <c r="C2" s="0">
-        <v>13.234068427994789</v>
-      </c>
-      <c r="D2" s="0">
-        <v>17.840838252715706</v>
-      </c>
-      <c r="E2" s="0">
-        <v>19.133409384583107</v>
-      </c>
-      <c r="F2" s="0">
-        <v>18.478360055936125</v>
-      </c>
-      <c r="G2" s="0">
-        <v>13.815444161340857</v>
-      </c>
-      <c r="H2" s="0">
-        <v>12.337255582823561</v>
-      </c>
-      <c r="I2" s="0">
-        <v>14.306664203556945</v>
-      </c>
-      <c r="J2" s="0">
-        <v>16.388609575299032</v>
-      </c>
-      <c r="K2" s="0">
-        <v>14.613422436346521</v>
-      </c>
-      <c r="L2" s="0">
-        <v>14.266329932549942</v>
-      </c>
-      <c r="M2" s="0">
-        <v>12.866862424586619</v>
-      </c>
-      <c r="N2" s="0">
-        <v>10.568962618281992</v>
-      </c>
-      <c r="O2" s="0">
-        <v>16.493016513624344</v>
-      </c>
-      <c r="P2" s="0">
-        <v>13.448517868077781</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>16.96151648677569</v>
-      </c>
-      <c r="R2" s="0">
-        <v>14.686084489809316</v>
-      </c>
-      <c r="S2" s="0">
-        <v>12.414124639764701</v>
-      </c>
-      <c r="T2" s="0">
-        <v>13.736013868756187</v>
-      </c>
-      <c r="U2" s="0">
-        <v>11.753981797173376</v>
-      </c>
-      <c r="V2" s="0">
-        <v>17.442166959897911</v>
-      </c>
-      <c r="W2" s="0">
-        <v>16.24552761744275</v>
-      </c>
-      <c r="X2" s="0">
-        <v>9.459160230873966</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>16.702767288133753</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>9.3732379164053139</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>17.454942344239495</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>11.801491437745629</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>17.010453001006379</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>13.851365413637133</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>14.609846105927456</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>14.588029273465526</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.79003531133529425</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1.1583511940039235</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.8960435821345244</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1.1188684401695796</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.83166495927026163</v>
-      </c>
-      <c r="G3" s="0">
-        <v>1.1371591979798874</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.74385335101607108</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0.76416399063540363</v>
-      </c>
-      <c r="J3" s="0">
-        <v>1.0514294870774987</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0.90357095278796451</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0.82593626120678632</v>
-      </c>
-      <c r="M3" s="0">
-        <v>1.1292065547519294</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0.94573907078146502</v>
-      </c>
-      <c r="O3" s="0">
-        <v>1.2046017846046568</v>
-      </c>
-      <c r="P3" s="0">
-        <v>2.3155606458707436</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0.99531798891264145</v>
-      </c>
-      <c r="R3" s="0">
-        <v>1.0717807624042968</v>
-      </c>
-      <c r="S3" s="0">
-        <v>1.0671089667905691</v>
-      </c>
-      <c r="T3" s="0">
-        <v>1.0800826433596977</v>
-      </c>
-      <c r="U3" s="0">
-        <v>1.5855478478198739</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.85265355327261261</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.97098286976016746</v>
-      </c>
-      <c r="X3" s="0">
-        <v>1.2036896497440177</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>0.96525106497820612</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>0.86451422925734822</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>0.99260764067710616</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>0.91371200544773479</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.62042245730239709</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>1.1001885168351442</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.77584145041037822</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>1.0291962143532729</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.7109375" customWidth="true"/>
-    <col min="8" max="8" width="10.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
         <v>408</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -3091,97 +3091,97 @@
         <v>409</v>
       </c>
       <c r="B2" s="0">
-        <v>8.6510966553413429</v>
+        <v>7.3959873322783354</v>
       </c>
       <c r="C2" s="0">
-        <v>5.1398447012346242</v>
+        <v>7.7951190897509006</v>
       </c>
       <c r="D2" s="0">
-        <v>9.7150930411578713</v>
+        <v>6.681325730772266</v>
       </c>
       <c r="E2" s="0">
-        <v>11.271987228682708</v>
+        <v>11.574843817023778</v>
       </c>
       <c r="F2" s="0">
-        <v>7.8786091981155701</v>
+        <v>7.6337543788061186</v>
       </c>
       <c r="G2" s="0">
-        <v>9.4182193903505027</v>
+        <v>7.5352475034358219</v>
       </c>
       <c r="H2" s="0">
-        <v>6.1064707701191772</v>
+        <v>7.9561079955402967</v>
       </c>
       <c r="I2" s="0">
-        <v>6.2969679294132508</v>
+        <v>7.5863212579196322</v>
       </c>
       <c r="J2" s="0">
-        <v>8.0430374810238856</v>
+        <v>10.554692041002626</v>
       </c>
       <c r="K2" s="0">
-        <v>7.0856741022902145</v>
+        <v>6.287703928038618</v>
       </c>
       <c r="L2" s="0">
-        <v>8.272633930347622</v>
+        <v>11.261815794724724</v>
       </c>
       <c r="M2" s="0">
-        <v>7.3443615989906794</v>
+        <v>7.0077372781921188</v>
       </c>
       <c r="N2" s="0">
-        <v>10.392632855202603</v>
+        <v>7.78716700721675</v>
       </c>
       <c r="O2" s="0">
-        <v>9.9938279099649474</v>
+        <v>6.1903244831687143</v>
       </c>
       <c r="P2" s="0">
-        <v>9.3464584608348655</v>
+        <v>8.3545351937702783</v>
       </c>
       <c r="Q2" s="0">
-        <v>9.4803196601324249</v>
+        <v>7.3990086588095529</v>
       </c>
       <c r="R2" s="0">
-        <v>6.9082678055991416</v>
+        <v>7.8514181571883119</v>
       </c>
       <c r="S2" s="0">
-        <v>9.3551160391143675</v>
+        <v>9.556774085488426</v>
       </c>
       <c r="T2" s="0">
-        <v>7.4708477444729544</v>
+        <v>6.8373750643049735</v>
       </c>
       <c r="U2" s="0">
-        <v>7.3432947515580302</v>
+        <v>8.8661023243155395</v>
       </c>
       <c r="V2" s="0">
-        <v>6.4536991919309958</v>
+        <v>6.6665264233837043</v>
       </c>
       <c r="W2" s="0">
-        <v>8.1613561171713709</v>
+        <v>8.2241619533483554</v>
       </c>
       <c r="X2" s="0">
-        <v>7.9670016504440131</v>
+        <v>7.6385043449548018</v>
       </c>
       <c r="Y2" s="0">
-        <v>4.5997583543669265</v>
+        <v>7.8894310925123277</v>
       </c>
       <c r="Z2" s="0">
-        <v>8.3754235884240344</v>
+        <v>9.7998297528703109</v>
       </c>
       <c r="AA2" s="0">
-        <v>6.5915281225710149</v>
+        <v>9.40855059802192</v>
       </c>
       <c r="AB2" s="0">
-        <v>8.0584288135604609</v>
+        <v>7.7549642275830388</v>
       </c>
       <c r="AC2" s="0">
-        <v>6.1972812454580115</v>
+        <v>8.7278881977569789</v>
       </c>
       <c r="AD2" s="0">
-        <v>8.5917579246174576</v>
+        <v>8.5609791334553815</v>
       </c>
       <c r="AE2" s="0">
-        <v>8.5755222006481961</v>
+        <v>6.4360478854690175</v>
       </c>
       <c r="AF2" s="0">
-        <v>7.9695506154379778</v>
+        <v>8.107341491036788</v>
       </c>
     </row>
     <row r="3">
@@ -3189,97 +3189,97 @@
         <v>410</v>
       </c>
       <c r="B3" s="0">
-        <v>0.41543461749333943</v>
+        <v>0.45334817018169665</v>
       </c>
       <c r="C3" s="0">
-        <v>0.35341886665775618</v>
+        <v>0.46724012650864882</v>
       </c>
       <c r="D3" s="0">
-        <v>0.59647511442220447</v>
+        <v>0.61908876208323638</v>
       </c>
       <c r="E3" s="0">
-        <v>0.48897322538531107</v>
+        <v>0.7453725945070655</v>
       </c>
       <c r="F3" s="0">
-        <v>0.3887338727012184</v>
+        <v>0.53937387465251452</v>
       </c>
       <c r="G3" s="0">
-        <v>0.40975989924767198</v>
+        <v>0.47836779450751632</v>
       </c>
       <c r="H3" s="0">
-        <v>0.58264458929932883</v>
+        <v>0.57613125121627284</v>
       </c>
       <c r="I3" s="0">
-        <v>0.56932981557537288</v>
+        <v>0.43824685455895851</v>
       </c>
       <c r="J3" s="0">
-        <v>0.41756981943945204</v>
+        <v>0.44562912130195337</v>
       </c>
       <c r="K3" s="0">
-        <v>0.45600071665044584</v>
+        <v>0.43295213107843622</v>
       </c>
       <c r="L3" s="0">
-        <v>0.58839037913323478</v>
+        <v>0.48971762953475423</v>
       </c>
       <c r="M3" s="0">
-        <v>0.61300719147457172</v>
+        <v>0.62113813464265144</v>
       </c>
       <c r="N3" s="0">
-        <v>0.37643753118687162</v>
+        <v>0.46247994471493009</v>
       </c>
       <c r="O3" s="0">
-        <v>0.42622581195296871</v>
+        <v>0.50034534183299784</v>
       </c>
       <c r="P3" s="0">
-        <v>0.4256228760573198</v>
+        <v>0.45562952774825244</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.40707063423698003</v>
+        <v>0.6110377374429361</v>
       </c>
       <c r="R3" s="0">
-        <v>0.45980834293992162</v>
+        <v>0.50624612520779999</v>
       </c>
       <c r="S3" s="0">
-        <v>0.37955961367237673</v>
+        <v>0.50073530146885392</v>
       </c>
       <c r="T3" s="0">
-        <v>0.40416659138956929</v>
+        <v>0.57429307257794915</v>
       </c>
       <c r="U3" s="0">
-        <v>0.36326248131909772</v>
+        <v>0.50750688768204477</v>
       </c>
       <c r="V3" s="0">
-        <v>0.56991523942056366</v>
+        <v>0.7057164485188484</v>
       </c>
       <c r="W3" s="0">
-        <v>0.37593675741015564</v>
+        <v>0.64070029570129372</v>
       </c>
       <c r="X3" s="0">
-        <v>0.48641244715851129</v>
+        <v>0.63031815234641997</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.47420314668638402</v>
+        <v>0.47682403266000933</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.50831035695788696</v>
+        <v>0.53490930549708682</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.44819462432983415</v>
+        <v>0.51298013070152826</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.55626977535003508</v>
+        <v>0.55323506099325748</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.5680326397979284</v>
+        <v>0.4824242357447579</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.52424954354095044</v>
+        <v>0.56603749527483938</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.47812511714662276</v>
+        <v>0.56086856378418415</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.47038472126779612</v>
+        <v>0.53629647015572313</v>
       </c>
     </row>
   </sheetData>
@@ -3298,6 +3298,343 @@
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="9.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="10.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3.8061697985787419</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4.2094433377304217</v>
+      </c>
+      <c r="D2" s="0">
+        <v>3.4649233318330737</v>
+      </c>
+      <c r="E2" s="0">
+        <v>3.9357140288427224</v>
+      </c>
+      <c r="F2" s="0">
+        <v>4.1219616881714467</v>
+      </c>
+      <c r="G2" s="0">
+        <v>4.1576890283942181</v>
+      </c>
+      <c r="H2" s="0">
+        <v>4.044709400101973</v>
+      </c>
+      <c r="I2" s="0">
+        <v>4.9798896363302578</v>
+      </c>
+      <c r="J2" s="0">
+        <v>5.1742540672919359</v>
+      </c>
+      <c r="K2" s="0">
+        <v>4.6811309821972111</v>
+      </c>
+      <c r="L2" s="0">
+        <v>4.0353326294036158</v>
+      </c>
+      <c r="M2" s="0">
+        <v>3.9211499679780566</v>
+      </c>
+      <c r="N2" s="0">
+        <v>4.4341512956894897</v>
+      </c>
+      <c r="O2" s="0">
+        <v>3.9974626274023004</v>
+      </c>
+      <c r="P2" s="0">
+        <v>2.9599681160688043</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>3.8420581616611691</v>
+      </c>
+      <c r="R2" s="0">
+        <v>4.0863728172111564</v>
+      </c>
+      <c r="S2" s="0">
+        <v>4.4923025119149127</v>
+      </c>
+      <c r="T2" s="0">
+        <v>4.8043522134874959</v>
+      </c>
+      <c r="U2" s="0">
+        <v>4.0184981441681025</v>
+      </c>
+      <c r="V2" s="0">
+        <v>2.5602652901767495</v>
+      </c>
+      <c r="W2" s="0">
+        <v>4.3974680193955242</v>
+      </c>
+      <c r="X2" s="0">
+        <v>4.1132704637370807</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>3.6108859877305606</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>4.8325015115038799</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>4.2559515013450016</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>5.2026257081977025</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>4.8575849044652175</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>3.8315533043881134</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>4.3244263814774051</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>4.171802228562477</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.28197108525481618</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.3192799976578839</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.27073694405469845</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.29774646577733838</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.3077136822947647</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.29717475526631276</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.27307401118969049</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.26825206387834233</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.24903306274132059</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.28177047751450596</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.31194329347504141</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.32372672645058576</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.27658485897040663</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.27256267945570462</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.30459218121921505</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.27591418526200101</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.27330230601875111</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.29637719477515823</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.26379929823566572</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.27374955884282948</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.34334063236748052</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.31099997179198746</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.33354566563358967</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.25494226882663462</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.26780773068771385</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.28766353691385194</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.30175667679186086</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.28923781725483688</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.279583472066676</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.32302716353255728</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.29037365880674071</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
@@ -3305,7 +3642,7 @@
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="10.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="10.7109375" customWidth="true"/>
@@ -3327,303 +3664,640 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="B2" s="0">
-        <v>4.8505409420667034</v>
+        <v>2.2523418722821575</v>
       </c>
       <c r="C2" s="0">
-        <v>4.474145780522913</v>
+        <v>2.3584948047019161</v>
       </c>
       <c r="D2" s="0">
-        <v>2.621284220596003</v>
+        <v>2.0995567202971146</v>
       </c>
       <c r="E2" s="0">
-        <v>3.8690306075573697</v>
+        <v>2.2353676671890463</v>
       </c>
       <c r="F2" s="0">
-        <v>4.5983373363360123</v>
+        <v>2.1074790101338721</v>
       </c>
       <c r="G2" s="0">
-        <v>3.1184674779232839</v>
+        <v>3.3840087726038548</v>
       </c>
       <c r="H2" s="0">
-        <v>3.2228901293360432</v>
+        <v>2.0667202921317269</v>
       </c>
       <c r="I2" s="0">
-        <v>3.3530141255474573</v>
+        <v>2.1013595458405803</v>
       </c>
       <c r="J2" s="0">
-        <v>4.8791294585871237</v>
+        <v>2.2265506463965488</v>
       </c>
       <c r="K2" s="0">
-        <v>3.5564864039561725</v>
+        <v>2.6097671761140409</v>
       </c>
       <c r="L2" s="0">
-        <v>4.5641587173187421</v>
+        <v>2.3348970916537826</v>
       </c>
       <c r="M2" s="0">
-        <v>4.071155592776365</v>
+        <v>1.6520975018916184</v>
       </c>
       <c r="N2" s="0">
-        <v>2.8377578440296598</v>
+        <v>2.3284718561561153</v>
       </c>
       <c r="O2" s="0">
-        <v>4.411231889505757</v>
+        <v>1.6303556868512663</v>
       </c>
       <c r="P2" s="0">
-        <v>3.2526387124461649</v>
+        <v>2.4687565925012795</v>
       </c>
       <c r="Q2" s="0">
-        <v>3.5107058731543623</v>
+        <v>2.7344238984210656</v>
       </c>
       <c r="R2" s="0">
-        <v>5.8285920698615552</v>
+        <v>2.5365460600696514</v>
       </c>
       <c r="S2" s="0">
-        <v>3.6548750912649988</v>
+        <v>2.1113654410674405</v>
       </c>
       <c r="T2" s="0">
-        <v>4.6582658080371919</v>
+        <v>2.1958288651989211</v>
       </c>
       <c r="U2" s="0">
-        <v>5.0344307707593945</v>
+        <v>2.7560539836603564</v>
       </c>
       <c r="V2" s="0">
-        <v>3.3976930632865465</v>
+        <v>2.0458909463015202</v>
       </c>
       <c r="W2" s="0">
-        <v>4.7840680738786618</v>
+        <v>2.0040984566823212</v>
       </c>
       <c r="X2" s="0">
-        <v>3.4281525373607531</v>
+        <v>2.4532711082660055</v>
       </c>
       <c r="Y2" s="0">
-        <v>4.8750495624983374</v>
+        <v>1.8220157165479423</v>
       </c>
       <c r="Z2" s="0">
-        <v>4.2349662260214354</v>
+        <v>2.6205265933568409</v>
       </c>
       <c r="AA2" s="0">
-        <v>3.340112225692986</v>
+        <v>1.5769195527836999</v>
       </c>
       <c r="AB2" s="0">
-        <v>4.252407727716589</v>
+        <v>1.8852122045007942</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.2907341989595356</v>
+        <v>2.0484407280666241</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.9636227759180676</v>
+        <v>2.1517652328091863</v>
       </c>
       <c r="AE2" s="0">
-        <v>4.449041746142905</v>
+        <v>1.8924725935832487</v>
       </c>
       <c r="AF2" s="0">
-        <v>4.0460995663019705</v>
+        <v>2.2230352206020183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="B3" s="0">
-        <v>0.2374679881476135</v>
+        <v>0.21899950245662986</v>
       </c>
       <c r="C3" s="0">
-        <v>0.26125425947209646</v>
+        <v>0.21924326606774125</v>
       </c>
       <c r="D3" s="0">
-        <v>0.2300828864154825</v>
+        <v>0.2147240445749706</v>
       </c>
       <c r="E3" s="0">
-        <v>0.33155058712496338</v>
+        <v>0.22802998980649267</v>
       </c>
       <c r="F3" s="0">
-        <v>0.33508777591761646</v>
+        <v>0.20860107935458966</v>
       </c>
       <c r="G3" s="0">
-        <v>0.24013420608511307</v>
+        <v>0.22314776243417112</v>
       </c>
       <c r="H3" s="0">
-        <v>0.34088137994517381</v>
+        <v>0.20852383625276083</v>
       </c>
       <c r="I3" s="0">
-        <v>0.23749901932129427</v>
+        <v>0.22048592486181265</v>
       </c>
       <c r="J3" s="0">
-        <v>0.26584334237067997</v>
+        <v>0.2155716613780787</v>
       </c>
       <c r="K3" s="0">
-        <v>0.2294083477995511</v>
+        <v>0.2328721126930148</v>
       </c>
       <c r="L3" s="0">
-        <v>0.2590089033711967</v>
+        <v>0.20777586904348264</v>
       </c>
       <c r="M3" s="0">
-        <v>0.29623278257045949</v>
+        <v>0.2108926144913025</v>
       </c>
       <c r="N3" s="0">
-        <v>0.25079629770311085</v>
+        <v>0.2007967684078189</v>
       </c>
       <c r="O3" s="0">
-        <v>0.27366278183112352</v>
+        <v>0.22006487482154338</v>
       </c>
       <c r="P3" s="0">
-        <v>0.23715534812361244</v>
+        <v>0.21937721682464542</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.23059558982260059</v>
+        <v>0.21446358871182464</v>
       </c>
       <c r="R3" s="0">
-        <v>0.27744339337990553</v>
+        <v>0.21370279065890449</v>
       </c>
       <c r="S3" s="0">
-        <v>0.24008633235048824</v>
+        <v>0.20217319905721051</v>
       </c>
       <c r="T3" s="0">
-        <v>0.23173345755566721</v>
+        <v>0.21531148671753284</v>
       </c>
       <c r="U3" s="0">
-        <v>0.27466552187415538</v>
+        <v>0.21354527808389889</v>
       </c>
       <c r="V3" s="0">
-        <v>0.30629310119843145</v>
+        <v>0.22328355240042069</v>
       </c>
       <c r="W3" s="0">
-        <v>0.29271779294709216</v>
+        <v>0.21984521761269976</v>
       </c>
       <c r="X3" s="0">
-        <v>0.25262801247920741</v>
+        <v>0.21306027016879572</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.33427797248671937</v>
+        <v>0.22476024303287812</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.31983960269773259</v>
+        <v>0.2442285540855092</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.22440242194971122</v>
+        <v>0.20925716904737937</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.23518312919139167</v>
+        <v>0.21247388609245901</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.28017619000212446</v>
+        <v>0.21016676468815318</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.24338629870567091</v>
+        <v>0.21568303858953489</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.25431633985725649</v>
+        <v>0.21264789813031601</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.26746036875657475</v>
+        <v>0.21645698201821909</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="10.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="10.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="10.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="9.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>24.988554864596598</v>
+      </c>
+      <c r="C2" s="0">
+        <v>26.533139334640943</v>
+      </c>
+      <c r="D2" s="0">
+        <v>25.505600904518403</v>
+      </c>
+      <c r="E2" s="0">
+        <v>23.239029476227</v>
+      </c>
+      <c r="F2" s="0">
+        <v>25.161737645415506</v>
+      </c>
+      <c r="G2" s="0">
+        <v>23.448850183430086</v>
+      </c>
+      <c r="H2" s="0">
+        <v>20.148865496417258</v>
+      </c>
+      <c r="I2" s="0">
+        <v>27.95382057752213</v>
+      </c>
+      <c r="J2" s="0">
+        <v>30.006716733912764</v>
+      </c>
+      <c r="K2" s="0">
+        <v>32.543817491178764</v>
+      </c>
+      <c r="L2" s="0">
+        <v>25.658276035952248</v>
+      </c>
+      <c r="M2" s="0">
+        <v>32.726519141375391</v>
+      </c>
+      <c r="N2" s="0">
+        <v>30.721145277262284</v>
+      </c>
+      <c r="O2" s="0">
+        <v>23.406108775786489</v>
+      </c>
+      <c r="P2" s="0">
+        <v>24.688915099653357</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>23.287053816782489</v>
+      </c>
+      <c r="R2" s="0">
+        <v>24.220802548048336</v>
+      </c>
+      <c r="S2" s="0">
+        <v>27.941057981257213</v>
+      </c>
+      <c r="T2" s="0">
+        <v>25.975465404158477</v>
+      </c>
+      <c r="U2" s="0">
+        <v>26.150982358971628</v>
+      </c>
+      <c r="V2" s="0">
+        <v>26.823120055871062</v>
+      </c>
+      <c r="W2" s="0">
+        <v>27.146739597828866</v>
+      </c>
+      <c r="X2" s="0">
+        <v>24.677083716667099</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>25.458072931967841</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>33.181108998570274</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>24.109554208292604</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>34.539289620152175</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>25.060021925946579</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>32.434031478376149</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>25.035298133865716</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>26.75902599382152</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3.6444329210819681</v>
+      </c>
+      <c r="C3" s="0">
+        <v>2.06892602605692</v>
+      </c>
+      <c r="D3" s="0">
+        <v>2.5395372243650804</v>
+      </c>
+      <c r="E3" s="0">
+        <v>2.5851044642138787</v>
+      </c>
+      <c r="F3" s="0">
+        <v>3.8665861373115309</v>
+      </c>
+      <c r="G3" s="0">
+        <v>3.650229621494292</v>
+      </c>
+      <c r="H3" s="0">
+        <v>4.0719860812410493</v>
+      </c>
+      <c r="I3" s="0">
+        <v>2.4584177554324502</v>
+      </c>
+      <c r="J3" s="0">
+        <v>2.4856660424773471</v>
+      </c>
+      <c r="K3" s="0">
+        <v>2.8512627629153275</v>
+      </c>
+      <c r="L3" s="0">
+        <v>3.1973909023189684</v>
+      </c>
+      <c r="M3" s="0">
+        <v>2.250783696929842</v>
+      </c>
+      <c r="N3" s="0">
+        <v>2.8211350106304867</v>
+      </c>
+      <c r="O3" s="0">
+        <v>2.4420912193960174</v>
+      </c>
+      <c r="P3" s="0">
+        <v>2.8642699128179916</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>4.4201868051418156</v>
+      </c>
+      <c r="R3" s="0">
+        <v>1.9614255874297133</v>
+      </c>
+      <c r="S3" s="0">
+        <v>3.0290081125853625</v>
+      </c>
+      <c r="T3" s="0">
+        <v>2.9151940364496798</v>
+      </c>
+      <c r="U3" s="0">
+        <v>3.1824675503760904</v>
+      </c>
+      <c r="V3" s="0">
+        <v>4.6013412614980966</v>
+      </c>
+      <c r="W3" s="0">
+        <v>2.997310823291675</v>
+      </c>
+      <c r="X3" s="0">
+        <v>3.7583932730883598</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>1.904569799515325</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>3.5142198369108981</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>3.2238296666779234</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>3.5896360898061945</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>2.684908767140247</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>3.445544893549259</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>2.382757328876826</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>3.0469537870340204</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3635,17 +4309,354 @@
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="10.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="10.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="10.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="0">
+        <v>16.334826412462011</v>
+      </c>
+      <c r="C2" s="0">
+        <v>14.919185894038195</v>
+      </c>
+      <c r="D2" s="0">
+        <v>18.773687726440908</v>
+      </c>
+      <c r="E2" s="0">
+        <v>15.849071058953944</v>
+      </c>
+      <c r="F2" s="0">
+        <v>17.958785075959991</v>
+      </c>
+      <c r="G2" s="0">
+        <v>14.898353724274161</v>
+      </c>
+      <c r="H2" s="0">
+        <v>20.38646380777665</v>
+      </c>
+      <c r="I2" s="0">
+        <v>14.250031142758367</v>
+      </c>
+      <c r="J2" s="0">
+        <v>15.162926749431689</v>
+      </c>
+      <c r="K2" s="0">
+        <v>12.046555833498987</v>
+      </c>
+      <c r="L2" s="0">
+        <v>17.382909142100402</v>
+      </c>
+      <c r="M2" s="0">
+        <v>18.883338356918294</v>
+      </c>
+      <c r="N2" s="0">
+        <v>14.053356600180427</v>
+      </c>
+      <c r="O2" s="0">
+        <v>20.543953060587786</v>
+      </c>
+      <c r="P2" s="0">
+        <v>18.74301162959248</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>19.045364080617187</v>
+      </c>
+      <c r="R2" s="0">
+        <v>21.099745974351102</v>
+      </c>
+      <c r="S2" s="0">
+        <v>16.51162976879359</v>
+      </c>
+      <c r="T2" s="0">
+        <v>18.159264922892515</v>
+      </c>
+      <c r="U2" s="0">
+        <v>12.959042261640446</v>
+      </c>
+      <c r="V2" s="0">
+        <v>17.929295118047097</v>
+      </c>
+      <c r="W2" s="0">
+        <v>16.770860347695727</v>
+      </c>
+      <c r="X2" s="0">
+        <v>15.128351967621269</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>18.754137197037707</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>18.731079353817677</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>14.298341767378645</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>19.344249731343133</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>12.954951143017469</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>12.679129442231847</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>12.441326992606944</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>16.566440876135552</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1.697266097058939</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1.1525618891025049</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1.5708334765855572</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1.3033272754475944</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1.1435207141219192</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1.2728581310842986</v>
+      </c>
+      <c r="H3" s="0">
+        <v>1.2071361957303548</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.88202124315504082</v>
+      </c>
+      <c r="J3" s="0">
+        <v>1.1700263190586482</v>
+      </c>
+      <c r="K3" s="0">
+        <v>1.0800241485607753</v>
+      </c>
+      <c r="L3" s="0">
+        <v>1.1982914915812961</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.89852126571146596</v>
+      </c>
+      <c r="N3" s="0">
+        <v>1.1128394684089318</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.79341883461247542</v>
+      </c>
+      <c r="P3" s="0">
+        <v>1.0459333820656076</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>1.3537299111777097</v>
+      </c>
+      <c r="R3" s="0">
+        <v>1.16701595589274</v>
+      </c>
+      <c r="S3" s="0">
+        <v>1.3281498429200296</v>
+      </c>
+      <c r="T3" s="0">
+        <v>1.4482839029075769</v>
+      </c>
+      <c r="U3" s="0">
+        <v>1.1565724176172862</v>
+      </c>
+      <c r="V3" s="0">
+        <v>1.2320331038264427</v>
+      </c>
+      <c r="W3" s="0">
+        <v>2.0791810253155312</v>
+      </c>
+      <c r="X3" s="0">
+        <v>1.2131500585051351</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>1.4420459561638856</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>1.1035812835243572</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>1.4380019186571071</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>1.2973998633602908</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>1.4485186297113433</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>1.5823313364931801</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>1.3149608821604168</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>1.2711178673506149</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="10.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" customWidth="true"/>
-    <col min="18" max="18" width="10.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
@@ -3659,308 +4670,308 @@
     <col min="29" max="29" width="10.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="10.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>476</v>
+        <v>68</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>479</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>480</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>481</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>482</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>483</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>486</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>490</v>
+        <v>82</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>491</v>
+        <v>83</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>492</v>
+        <v>84</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>493</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>494</v>
+        <v>86</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>495</v>
+        <v>87</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>496</v>
+        <v>88</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>497</v>
+        <v>89</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>498</v>
+        <v>90</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>499</v>
+        <v>91</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>500</v>
+        <v>92</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>501</v>
+        <v>93</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>502</v>
+        <v>94</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>503</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>504</v>
+        <v>96</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>505</v>
+        <v>97</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>507</v>
+        <v>99</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>508</v>
+        <v>100</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>509</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>477</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2963726384910266</v>
+        <v>10.152904314237681</v>
       </c>
       <c r="C2" s="0">
-        <v>3.2113725774546387</v>
+        <v>8.1846583376365256</v>
       </c>
       <c r="D2" s="0">
-        <v>2.0480005984234961</v>
+        <v>8.3155945656959798</v>
       </c>
       <c r="E2" s="0">
-        <v>1.7284510066674892</v>
+        <v>7.661713045491747</v>
       </c>
       <c r="F2" s="0">
-        <v>1.8599680014409017</v>
+        <v>6.908787401804088</v>
       </c>
       <c r="G2" s="0">
-        <v>2.2034987543747819</v>
+        <v>7.0164304638506643</v>
       </c>
       <c r="H2" s="0">
-        <v>1.9260560604458969</v>
+        <v>7.4867369162006323</v>
       </c>
       <c r="I2" s="0">
-        <v>2.2256853440036073</v>
+        <v>7.086851976848366</v>
       </c>
       <c r="J2" s="0">
-        <v>1.9921711437877334</v>
+        <v>6.4071420403237758</v>
       </c>
       <c r="K2" s="0">
-        <v>2.4281063307128559</v>
+        <v>6.3123142727536807</v>
       </c>
       <c r="L2" s="0">
-        <v>1.9199398495194315</v>
+        <v>7.6481388235264793</v>
       </c>
       <c r="M2" s="0">
-        <v>1.9704399138753437</v>
+        <v>6.5623685913827252</v>
       </c>
       <c r="N2" s="0">
-        <v>2.5318978139615842</v>
+        <v>7.5782431677276376</v>
       </c>
       <c r="O2" s="0">
-        <v>2.0311456334139004</v>
+        <v>9.2008667734013994</v>
       </c>
       <c r="P2" s="0">
-        <v>2.5361488536583461</v>
+        <v>5.583063177496526</v>
       </c>
       <c r="Q2" s="0">
-        <v>1.707393620341501</v>
+        <v>6.7032999207179769</v>
       </c>
       <c r="R2" s="0">
-        <v>1.6453100202012014</v>
+        <v>6.7876850747164132</v>
       </c>
       <c r="S2" s="0">
-        <v>1.9062339155858448</v>
+        <v>7.8287965278281071</v>
       </c>
       <c r="T2" s="0">
-        <v>1.9755609143074382</v>
+        <v>5.8591730416337509</v>
       </c>
       <c r="U2" s="0">
-        <v>2.4050519410151492</v>
+        <v>8.0460459250318443</v>
       </c>
       <c r="V2" s="0">
-        <v>2.6022124022324538</v>
+        <v>6.4652653291546747</v>
       </c>
       <c r="W2" s="0">
-        <v>2.5173808512200084</v>
+        <v>8.1564970642736121</v>
       </c>
       <c r="X2" s="0">
-        <v>2.2296533050954337</v>
+        <v>5.134628923944593</v>
       </c>
       <c r="Y2" s="0">
-        <v>1.8539024847674286</v>
+        <v>7.9242359270660794</v>
       </c>
       <c r="Z2" s="0">
-        <v>2.7536725450085511</v>
+        <v>4.0997852515028592</v>
       </c>
       <c r="AA2" s="0">
-        <v>2.9253592893884184</v>
+        <v>7.8891691609927301</v>
       </c>
       <c r="AB2" s="0">
-        <v>2.5016961524164905</v>
+        <v>6.1522270578780276</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.6062070704710441</v>
+        <v>6.5119882200950512</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.973741283699711</v>
+        <v>7.4036923035525124</v>
       </c>
       <c r="AE2" s="0">
-        <v>2.4327209852403047</v>
+        <v>6.0534939035670234</v>
       </c>
       <c r="AF2" s="0">
-        <v>2.2315117100407336</v>
+        <v>7.1040599166777723</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>478</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0">
-        <v>0.20393655971441277</v>
+        <v>0.64058032238935958</v>
       </c>
       <c r="C3" s="0">
-        <v>0.19844936459303855</v>
+        <v>0.44711412400621359</v>
       </c>
       <c r="D3" s="0">
-        <v>0.2095045020117694</v>
+        <v>0.47475519352702034</v>
       </c>
       <c r="E3" s="0">
-        <v>0.20863661881808085</v>
+        <v>0.56584204853698761</v>
       </c>
       <c r="F3" s="0">
-        <v>0.19471721847716628</v>
+        <v>0.53974917984900184</v>
       </c>
       <c r="G3" s="0">
-        <v>0.20564407032147539</v>
+        <v>0.50712276175099646</v>
       </c>
       <c r="H3" s="0">
-        <v>0.2184859877440089</v>
+        <v>0.49193270379398368</v>
       </c>
       <c r="I3" s="0">
-        <v>0.20910547730058845</v>
+        <v>0.59067149056884438</v>
       </c>
       <c r="J3" s="0">
-        <v>0.20121300155688418</v>
+        <v>0.79940143645955963</v>
       </c>
       <c r="K3" s="0">
-        <v>0.19872110693760256</v>
+        <v>0.50222911471536691</v>
       </c>
       <c r="L3" s="0">
-        <v>0.20121983455479603</v>
+        <v>0.52082899924845683</v>
       </c>
       <c r="M3" s="0">
-        <v>0.23604421975631537</v>
+        <v>0.52336476036681012</v>
       </c>
       <c r="N3" s="0">
-        <v>0.20821276805081337</v>
+        <v>0.57949426270319671</v>
       </c>
       <c r="O3" s="0">
-        <v>0.19465081852756949</v>
+        <v>0.52542596674423436</v>
       </c>
       <c r="P3" s="0">
-        <v>0.21349965850236649</v>
+        <v>0.5709034232987793</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.18819479244575277</v>
+        <v>0.57512197331283976</v>
       </c>
       <c r="R3" s="0">
-        <v>0.20380485646088192</v>
+        <v>0.66878645875123766</v>
       </c>
       <c r="S3" s="0">
-        <v>0.20259912648944828</v>
+        <v>0.5869835854638169</v>
       </c>
       <c r="T3" s="0">
-        <v>0.22300539196819416</v>
+        <v>0.53474455232994467</v>
       </c>
       <c r="U3" s="0">
-        <v>0.19351635188816557</v>
+        <v>0.63355422642789239</v>
       </c>
       <c r="V3" s="0">
-        <v>0.20218218374416555</v>
+        <v>0.55066429711944331</v>
       </c>
       <c r="W3" s="0">
-        <v>0.21058452039167885</v>
+        <v>0.63480425048022415</v>
       </c>
       <c r="X3" s="0">
-        <v>0.21747208028806045</v>
+        <v>0.63338338346457757</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.21360320607629249</v>
+        <v>0.57336802220601835</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.22415435586711491</v>
+        <v>0.55140119793770626</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.21616065720918798</v>
+        <v>0.45851586053927695</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.19988242521603217</v>
+        <v>0.46802813847533614</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.19468392535496523</v>
+        <v>0.6389047296481758</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.1964570357801125</v>
+        <v>0.49713159006357055</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.19576350489025815</v>
+        <v>0.63076958510316727</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.20613685403123999</v>
+        <v>0.56385258797606796</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3969,11 +4980,348 @@
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="9.7109375" customWidth="true"/>
-    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.7109375" customWidth="true"/>
+    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="10.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3.8131877707579886</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4.1600874234147129</v>
+      </c>
+      <c r="D2" s="0">
+        <v>3.8340030522993893</v>
+      </c>
+      <c r="E2" s="0">
+        <v>4.9004565309558723</v>
+      </c>
+      <c r="F2" s="0">
+        <v>3.8307214046564151</v>
+      </c>
+      <c r="G2" s="0">
+        <v>3.5545305890760854</v>
+      </c>
+      <c r="H2" s="0">
+        <v>3.1614013821191094</v>
+      </c>
+      <c r="I2" s="0">
+        <v>2.7289343685797194</v>
+      </c>
+      <c r="J2" s="0">
+        <v>4.1069068470197614</v>
+      </c>
+      <c r="K2" s="0">
+        <v>3.8619221371669394</v>
+      </c>
+      <c r="L2" s="0">
+        <v>4.0072806803568346</v>
+      </c>
+      <c r="M2" s="0">
+        <v>4.3006545884527734</v>
+      </c>
+      <c r="N2" s="0">
+        <v>4.3870651559227332</v>
+      </c>
+      <c r="O2" s="0">
+        <v>3.7874764259299241</v>
+      </c>
+      <c r="P2" s="0">
+        <v>3.5140892712507354</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>4.7903896439049873</v>
+      </c>
+      <c r="R2" s="0">
+        <v>3.8573880838217409</v>
+      </c>
+      <c r="S2" s="0">
+        <v>4.7728428320875897</v>
+      </c>
+      <c r="T2" s="0">
+        <v>5.5025046706217964</v>
+      </c>
+      <c r="U2" s="0">
+        <v>3.795518435984778</v>
+      </c>
+      <c r="V2" s="0">
+        <v>4.3145925287083591</v>
+      </c>
+      <c r="W2" s="0">
+        <v>5.8017932862174781</v>
+      </c>
+      <c r="X2" s="0">
+        <v>2.7667844718522474</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>3.6880349426355226</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>3.2099880147713469</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>4.2289046439098907</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>5.2505141507838022</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>4.7747712308756158</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>3.4472021583565366</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>5.3365488749398216</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>4.1162165199143494</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.36662934670900016</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.37103036787546306</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.35207038499608795</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.3945043328412095</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.35113729924957937</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.37362961585390408</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.32101495445518535</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.38202245057293643</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.34547048391097424</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.3389434761141551</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.33935317573077722</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.3581571172991817</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.34067952037041394</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.36694017247169108</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.33619477924189684</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.31759071337855432</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0.32020678949478282</v>
+      </c>
+      <c r="S3" s="0">
+        <v>0.32058807647173138</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0.36903000829326005</v>
+      </c>
+      <c r="U3" s="0">
+        <v>0.34709731052615533</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.31958157507779789</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.34011834329028867</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.33510773298355429</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.3444415251786585</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.3428464166545348</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>0.33865904369763983</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>0.33714134614557767</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>0.33531399351078245</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0.37306848353544064</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.34346868010637421</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0.34740125053458626</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="10.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
@@ -4001,303 +5349,303 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B2" s="0">
-        <v>27.360223460973437</v>
+        <v>2.372021108627385</v>
       </c>
       <c r="C2" s="0">
-        <v>19.573463108269134</v>
+        <v>2.0906025844738867</v>
       </c>
       <c r="D2" s="0">
-        <v>23.743359293318633</v>
+        <v>1.9222599759983741</v>
       </c>
       <c r="E2" s="0">
-        <v>16.286074999021245</v>
+        <v>2.2458625658251861</v>
       </c>
       <c r="F2" s="0">
-        <v>23.942893897653118</v>
+        <v>1.9645069420884407</v>
       </c>
       <c r="G2" s="0">
-        <v>27.665482466983097</v>
+        <v>2.326939255122384</v>
       </c>
       <c r="H2" s="0">
-        <v>29.150451421957875</v>
+        <v>2.3414998715686428</v>
       </c>
       <c r="I2" s="0">
-        <v>30.867185234136461</v>
+        <v>2.0783096402261303</v>
       </c>
       <c r="J2" s="0">
-        <v>23.234021246129462</v>
+        <v>2.1142589619321126</v>
       </c>
       <c r="K2" s="0">
-        <v>18.955127549669736</v>
+        <v>2.5373863960442269</v>
       </c>
       <c r="L2" s="0">
-        <v>17.618124481590772</v>
+        <v>2.1750920549493813</v>
       </c>
       <c r="M2" s="0">
-        <v>30.215058686661511</v>
+        <v>2.0256093213868294</v>
       </c>
       <c r="N2" s="0">
-        <v>25.523266257359936</v>
+        <v>1.8974457827869615</v>
       </c>
       <c r="O2" s="0">
-        <v>23.228826174138259</v>
+        <v>2.3553274610365236</v>
       </c>
       <c r="P2" s="0">
-        <v>22.620194263702746</v>
+        <v>1.7827345017067724</v>
       </c>
       <c r="Q2" s="0">
-        <v>24.484160465604056</v>
+        <v>2.1751503931248126</v>
       </c>
       <c r="R2" s="0">
-        <v>40.471631780954667</v>
+        <v>1.8735224835716862</v>
       </c>
       <c r="S2" s="0">
-        <v>20.858029382106132</v>
+        <v>2.1455231124353125</v>
       </c>
       <c r="T2" s="0">
-        <v>27.819594670072295</v>
+        <v>2.4878432507300912</v>
       </c>
       <c r="U2" s="0">
-        <v>27.690028453308539</v>
+        <v>1.8693840844247134</v>
       </c>
       <c r="V2" s="0">
-        <v>19.262229483966387</v>
+        <v>3.1505630687270636</v>
       </c>
       <c r="W2" s="0">
-        <v>24.313700994815669</v>
+        <v>2.2228511330193292</v>
       </c>
       <c r="X2" s="0">
-        <v>25.287734073243055</v>
+        <v>1.9808201417102405</v>
       </c>
       <c r="Y2" s="0">
-        <v>27.811639356590682</v>
+        <v>2.5763320546683115</v>
       </c>
       <c r="Z2" s="0">
-        <v>19.768399928678292</v>
+        <v>1.9855873931736097</v>
       </c>
       <c r="AA2" s="0">
-        <v>22.843054552982622</v>
+        <v>3.0316770784423284</v>
       </c>
       <c r="AB2" s="0">
-        <v>26.497253956785251</v>
+        <v>2.2210630033008969</v>
       </c>
       <c r="AC2" s="0">
-        <v>22.2124385908519</v>
+        <v>2.3781745081843333</v>
       </c>
       <c r="AD2" s="0">
-        <v>20.029237745765357</v>
+        <v>2.2501639325798468</v>
       </c>
       <c r="AE2" s="0">
-        <v>23.699123484653054</v>
+        <v>2.1176758072634603</v>
       </c>
       <c r="AF2" s="0">
-        <v>24.434400315398111</v>
+        <v>2.2232062623043096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="B3" s="0">
-        <v>4.074366255720399</v>
+        <v>0.26479394345881502</v>
       </c>
       <c r="C3" s="0">
-        <v>3.6160448304865582</v>
+        <v>0.2678335624097708</v>
       </c>
       <c r="D3" s="0">
-        <v>2.7419837823184516</v>
+        <v>0.27330796527056794</v>
       </c>
       <c r="E3" s="0">
-        <v>3.236879712209761</v>
+        <v>0.27821737401097163</v>
       </c>
       <c r="F3" s="0">
-        <v>3.6341580707731591</v>
+        <v>0.27089867087810687</v>
       </c>
       <c r="G3" s="0">
-        <v>2.5378245125915591</v>
+        <v>0.27507824991240287</v>
       </c>
       <c r="H3" s="0">
-        <v>2.1581615962175631</v>
+        <v>0.26096268312813992</v>
       </c>
       <c r="I3" s="0">
-        <v>2.9277977921048106</v>
+        <v>0.26797304155302903</v>
       </c>
       <c r="J3" s="0">
-        <v>5.1826587905380848</v>
+        <v>0.27953972190036447</v>
       </c>
       <c r="K3" s="0">
-        <v>3.8983824335294717</v>
+        <v>0.28389247734535206</v>
       </c>
       <c r="L3" s="0">
-        <v>4.0802136329221241</v>
+        <v>0.2616740378207737</v>
       </c>
       <c r="M3" s="0">
-        <v>3.0119209881744613</v>
+        <v>0.27597354370204574</v>
       </c>
       <c r="N3" s="0">
-        <v>3.7473351686400558</v>
+        <v>0.26739401887182906</v>
       </c>
       <c r="O3" s="0">
-        <v>4.2520835596769082</v>
+        <v>0.25987675637603713</v>
       </c>
       <c r="P3" s="0">
-        <v>2.6060834983526955</v>
+        <v>0.26537771952010991</v>
       </c>
       <c r="Q3" s="0">
-        <v>3.8890678310193652</v>
+        <v>0.30277550936754027</v>
       </c>
       <c r="R3" s="0">
-        <v>2.5318965559775779</v>
+        <v>0.29006120165748661</v>
       </c>
       <c r="S3" s="0">
-        <v>4.0496138238097119</v>
+        <v>0.26693439391933244</v>
       </c>
       <c r="T3" s="0">
-        <v>5.4161400433382045</v>
+        <v>0.27049341894114581</v>
       </c>
       <c r="U3" s="0">
-        <v>3.303289716203591</v>
+        <v>0.2648050460597034</v>
       </c>
       <c r="V3" s="0">
-        <v>3.050869700928009</v>
+        <v>0.27471562321384224</v>
       </c>
       <c r="W3" s="0">
-        <v>2.8925391267183285</v>
+        <v>0.25722159802003763</v>
       </c>
       <c r="X3" s="0">
-        <v>3.1797668119265707</v>
+        <v>0.26323209527088542</v>
       </c>
       <c r="Y3" s="0">
-        <v>2.4936459031255813</v>
+        <v>0.26211406951437399</v>
       </c>
       <c r="Z3" s="0">
-        <v>3.3745261453854694</v>
+        <v>0.25990032547773068</v>
       </c>
       <c r="AA3" s="0">
-        <v>3.9121232197633247</v>
+        <v>0.25622729482885453</v>
       </c>
       <c r="AB3" s="0">
-        <v>5.6081136610260787</v>
+        <v>0.28329595288211556</v>
       </c>
       <c r="AC3" s="0">
-        <v>3.6497404347538347</v>
+        <v>0.28005288964561525</v>
       </c>
       <c r="AD3" s="0">
-        <v>3.2856914083002202</v>
+        <v>0.30299127804753029</v>
       </c>
       <c r="AE3" s="0">
-        <v>4.1800965442114872</v>
+        <v>0.26438416501996953</v>
       </c>
       <c r="AF3" s="0">
-        <v>3.5507671850247817</v>
+        <v>0.27173328760081605</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4305,344 +5653,7 @@
     <col min="1" max="1" width="4.85546875" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="9.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="10.7109375" customWidth="true"/>
-    <col min="18" max="18" width="10.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="10.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="10.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="0">
-        <v>16.664129327348412</v>
-      </c>
-      <c r="C2" s="0">
-        <v>10.736630561292117</v>
-      </c>
-      <c r="D2" s="0">
-        <v>11.976638411653113</v>
-      </c>
-      <c r="E2" s="0">
-        <v>13.685605295282834</v>
-      </c>
-      <c r="F2" s="0">
-        <v>14.995306372038918</v>
-      </c>
-      <c r="G2" s="0">
-        <v>16.648106848769078</v>
-      </c>
-      <c r="H2" s="0">
-        <v>15.521240465461334</v>
-      </c>
-      <c r="I2" s="0">
-        <v>15.818186165371865</v>
-      </c>
-      <c r="J2" s="0">
-        <v>15.934462476899363</v>
-      </c>
-      <c r="K2" s="0">
-        <v>14.526377622249694</v>
-      </c>
-      <c r="L2" s="0">
-        <v>12.785041263154099</v>
-      </c>
-      <c r="M2" s="0">
-        <v>11.700136999938234</v>
-      </c>
-      <c r="N2" s="0">
-        <v>16.329196844452699</v>
-      </c>
-      <c r="O2" s="0">
-        <v>10.281510079540094</v>
-      </c>
-      <c r="P2" s="0">
-        <v>21.685192879141734</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>16.807582895566831</v>
-      </c>
-      <c r="R2" s="0">
-        <v>12.891284195295146</v>
-      </c>
-      <c r="S2" s="0">
-        <v>12.946460367944331</v>
-      </c>
-      <c r="T2" s="0">
-        <v>17.675363688957738</v>
-      </c>
-      <c r="U2" s="0">
-        <v>14.747150027743601</v>
-      </c>
-      <c r="V2" s="0">
-        <v>11.97926690059789</v>
-      </c>
-      <c r="W2" s="0">
-        <v>17.00926827267071</v>
-      </c>
-      <c r="X2" s="0">
-        <v>17.029192072541402</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>17.619126232784115</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>17.308683629340937</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>16.962990431408187</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>17.997891297245175</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>10.148491138394419</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>14.494354684826725</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>11.662633944394582</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>14.885583379743512</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.86792152409373735</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1.075335473127246</v>
-      </c>
-      <c r="D3" s="0">
-        <v>1.2416228244386169</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1.9588216213585765</v>
-      </c>
-      <c r="F3" s="0">
-        <v>1.521223307690251</v>
-      </c>
-      <c r="G3" s="0">
-        <v>1.5213380656807511</v>
-      </c>
-      <c r="H3" s="0">
-        <v>1.0392542341268567</v>
-      </c>
-      <c r="I3" s="0">
-        <v>1.269081473923062</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.79765637984535942</v>
-      </c>
-      <c r="K3" s="0">
-        <v>1.9702972161362509</v>
-      </c>
-      <c r="L3" s="0">
-        <v>1.4184379293759162</v>
-      </c>
-      <c r="M3" s="0">
-        <v>1.4300541142438352</v>
-      </c>
-      <c r="N3" s="0">
-        <v>1.4244710930835807</v>
-      </c>
-      <c r="O3" s="0">
-        <v>1.1715761797964408</v>
-      </c>
-      <c r="P3" s="0">
-        <v>2.1738727820580874</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>1.1144820873056807</v>
-      </c>
-      <c r="R3" s="0">
-        <v>1.0420630296244979</v>
-      </c>
-      <c r="S3" s="0">
-        <v>1.3206149730964496</v>
-      </c>
-      <c r="T3" s="0">
-        <v>1.4385840363664937</v>
-      </c>
-      <c r="U3" s="0">
-        <v>1.3024757337025155</v>
-      </c>
-      <c r="V3" s="0">
-        <v>1.1722148964903363</v>
-      </c>
-      <c r="W3" s="0">
-        <v>1.3478397376355209</v>
-      </c>
-      <c r="X3" s="0">
-        <v>1.708864925865976</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>1.4562530590045619</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>1.5504857559685274</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>1.3038256871487939</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>0.90050556792441527</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>1.9982058872803858</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>1.6811101416844338</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.77210043586493493</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>1.3663530057980695</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="10.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
@@ -4662,10 +5673,10 @@
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="9.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="10.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
@@ -4675,303 +5686,303 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="B2" s="0">
-        <v>6.6663097120687231</v>
+        <v>25.770806274251736</v>
       </c>
       <c r="C2" s="0">
-        <v>7.2333430114540054</v>
+        <v>18.382269474117528</v>
       </c>
       <c r="D2" s="0">
-        <v>9.2769278971387621</v>
+        <v>24.509289401082903</v>
       </c>
       <c r="E2" s="0">
-        <v>10.189562781425181</v>
+        <v>20.825279273591065</v>
       </c>
       <c r="F2" s="0">
-        <v>7.4741035081031777</v>
+        <v>21.111537862596062</v>
       </c>
       <c r="G2" s="0">
-        <v>7.1921641973940895</v>
+        <v>31.206278360034474</v>
       </c>
       <c r="H2" s="0">
-        <v>7.8431676244908184</v>
+        <v>25.887193345111363</v>
       </c>
       <c r="I2" s="0">
-        <v>7.3574245131368405</v>
+        <v>28.348745246310926</v>
       </c>
       <c r="J2" s="0">
-        <v>6.1667952877638257</v>
+        <v>15.248169960368486</v>
       </c>
       <c r="K2" s="0">
-        <v>6.0063475233210051</v>
+        <v>18.63102833916858</v>
       </c>
       <c r="L2" s="0">
-        <v>9.2089034750605041</v>
+        <v>25.726023108030432</v>
       </c>
       <c r="M2" s="0">
-        <v>7.8801886114587534</v>
+        <v>19.785780352249663</v>
       </c>
       <c r="N2" s="0">
-        <v>7.2117728027065064</v>
+        <v>30.027037149143275</v>
       </c>
       <c r="O2" s="0">
-        <v>6.975832581892047</v>
+        <v>21.255129832560641</v>
       </c>
       <c r="P2" s="0">
-        <v>8.3639257015815147</v>
+        <v>24.183012524952858</v>
       </c>
       <c r="Q2" s="0">
-        <v>5.8547669268149569</v>
+        <v>18.384721105007202</v>
       </c>
       <c r="R2" s="0">
-        <v>4.8808470712056673</v>
+        <v>24.811548854188256</v>
       </c>
       <c r="S2" s="0">
-        <v>9.9659319709826786</v>
+        <v>27.603328958463543</v>
       </c>
       <c r="T2" s="0">
-        <v>8.7388125259282976</v>
+        <v>26.268656315801227</v>
       </c>
       <c r="U2" s="0">
-        <v>10.574922846722716</v>
+        <v>27.629413530966978</v>
       </c>
       <c r="V2" s="0">
-        <v>7.0839567440304672</v>
+        <v>26.189367058365811</v>
       </c>
       <c r="W2" s="0">
-        <v>8.3672305221700363</v>
+        <v>33.189050717980962</v>
       </c>
       <c r="X2" s="0">
-        <v>6.3094422806050092</v>
+        <v>25.911864297131675</v>
       </c>
       <c r="Y2" s="0">
-        <v>5.4701331002103144</v>
+        <v>28.177555961991061</v>
       </c>
       <c r="Z2" s="0">
-        <v>9.4843627648837945</v>
+        <v>25.722631925796911</v>
       </c>
       <c r="AA2" s="0">
-        <v>6.9408072901370756</v>
+        <v>29.575308517378978</v>
       </c>
       <c r="AB2" s="0">
-        <v>7.5645609893156109</v>
+        <v>23.005431217934198</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.8121517566880936</v>
+        <v>21.412650961628341</v>
       </c>
       <c r="AD2" s="0">
-        <v>5.116580010707291</v>
+        <v>23.813708965500524</v>
       </c>
       <c r="AE2" s="0">
-        <v>6.6427216314790556</v>
+        <v>26.032663287068914</v>
       </c>
       <c r="AF2" s="0">
-        <v>7.4284665886958949</v>
+        <v>24.620849405959152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="B3" s="0">
-        <v>0.66422725990612508</v>
+        <v>3.61890029928845</v>
       </c>
       <c r="C3" s="0">
-        <v>0.52959597941607794</v>
+        <v>3.470297621260098</v>
       </c>
       <c r="D3" s="0">
-        <v>0.68717770717015225</v>
+        <v>2.6225203560358041</v>
       </c>
       <c r="E3" s="0">
-        <v>0.43511757714973009</v>
+        <v>2.7037548322018434</v>
       </c>
       <c r="F3" s="0">
-        <v>0.69211265657587639</v>
+        <v>2.1288589913102278</v>
       </c>
       <c r="G3" s="0">
-        <v>0.7580382557141655</v>
+        <v>2.2015546385685458</v>
       </c>
       <c r="H3" s="0">
-        <v>0.48746499650578923</v>
+        <v>5.2117599473043867</v>
       </c>
       <c r="I3" s="0">
-        <v>0.60419161821155098</v>
+        <v>2.6953270390682142</v>
       </c>
       <c r="J3" s="0">
-        <v>0.64084562174919546</v>
+        <v>3.6853302126766958</v>
       </c>
       <c r="K3" s="0">
-        <v>0.5578180454410423</v>
+        <v>3.6699514679913641</v>
       </c>
       <c r="L3" s="0">
-        <v>0.57486155052285293</v>
+        <v>2.1356363952402706</v>
       </c>
       <c r="M3" s="0">
-        <v>0.55208476613212043</v>
+        <v>4.0429054247039931</v>
       </c>
       <c r="N3" s="0">
-        <v>0.50963474050510993</v>
+        <v>3.4965092371829094</v>
       </c>
       <c r="O3" s="0">
-        <v>0.6217685214139026</v>
+        <v>3.3309752505159014</v>
       </c>
       <c r="P3" s="0">
-        <v>0.68209813881283698</v>
+        <v>2.7571933732876035</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.71575745407679559</v>
+        <v>2.4293301812208843</v>
       </c>
       <c r="R3" s="0">
-        <v>0.51767074836589611</v>
+        <v>2.7555885223114926</v>
       </c>
       <c r="S3" s="0">
-        <v>0.54939372729694536</v>
+        <v>4.5077479282946111</v>
       </c>
       <c r="T3" s="0">
-        <v>0.55650139051393122</v>
+        <v>4.155694362854673</v>
       </c>
       <c r="U3" s="0">
-        <v>0.54206914468452749</v>
+        <v>1.5045816127908453</v>
       </c>
       <c r="V3" s="0">
-        <v>0.84928313666251476</v>
+        <v>2.3311384688255479</v>
       </c>
       <c r="W3" s="0">
-        <v>0.53592205549522387</v>
+        <v>2.9601203390585522</v>
       </c>
       <c r="X3" s="0">
-        <v>0.63113420890761995</v>
+        <v>3.0565004267913394</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.50779352302462721</v>
+        <v>3.9492142848339871</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.51004100332135216</v>
+        <v>3.3244743643076875</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.52594841579858753</v>
+        <v>2.939472860848706</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.59883237545287871</v>
+        <v>2.6908539391793207</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.50983080256114732</v>
+        <v>3.2423263641735596</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.63531049005505524</v>
+        <v>2.85595103999486</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.72697023336327204</v>
+        <v>2.9715735122219704</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.5969832048268966</v>
+        <v>3.1148681098114781</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5001,7 +6012,7 @@
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
@@ -5012,1017 +6023,6 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="0">
-        <v>4.7334530664790728</v>
-      </c>
-      <c r="C2" s="0">
-        <v>4.2593699709921502</v>
-      </c>
-      <c r="D2" s="0">
-        <v>4.4859381774776708</v>
-      </c>
-      <c r="E2" s="0">
-        <v>4.4523505910772698</v>
-      </c>
-      <c r="F2" s="0">
-        <v>4.0562889936757625</v>
-      </c>
-      <c r="G2" s="0">
-        <v>2.4309211787698444</v>
-      </c>
-      <c r="H2" s="0">
-        <v>4.3062682142009532</v>
-      </c>
-      <c r="I2" s="0">
-        <v>5.0655804139815208</v>
-      </c>
-      <c r="J2" s="0">
-        <v>3.8210986142292969</v>
-      </c>
-      <c r="K2" s="0">
-        <v>4.2271538186795663</v>
-      </c>
-      <c r="L2" s="0">
-        <v>6.7936399411346544</v>
-      </c>
-      <c r="M2" s="0">
-        <v>4.460283828261872</v>
-      </c>
-      <c r="N2" s="0">
-        <v>3.0286041936357591</v>
-      </c>
-      <c r="O2" s="0">
-        <v>3.3395767619453927</v>
-      </c>
-      <c r="P2" s="0">
-        <v>5.4269034734989106</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>3.9874339664122291</v>
-      </c>
-      <c r="R2" s="0">
-        <v>4.1229992025106252</v>
-      </c>
-      <c r="S2" s="0">
-        <v>4.1287244695429886</v>
-      </c>
-      <c r="T2" s="0">
-        <v>3.6449504124051684</v>
-      </c>
-      <c r="U2" s="0">
-        <v>4.1997106223210681</v>
-      </c>
-      <c r="V2" s="0">
-        <v>4.165846184814848</v>
-      </c>
-      <c r="W2" s="0">
-        <v>5.193344584424727</v>
-      </c>
-      <c r="X2" s="0">
-        <v>3.5906194452243168</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>3.5968117444694276</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>4.1305359209866888</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>4.7109235888606165</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>4.3949844789394614</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>3.3773458030260817</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>4.275091031836987</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>4.4256300927105086</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>4.2277460928841819</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.4652430103697367</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.43886435206068941</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.39007398440847468</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.34673757098110114</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.4131064713568211</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.37411692200238</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.34248446280841771</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0.35940229685261577</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.43555768298392339</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0.39977096984520483</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0.35663118847049219</v>
-      </c>
-      <c r="M3" s="0">
-        <v>0.32752072738802707</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0.38588258318825575</v>
-      </c>
-      <c r="O3" s="0">
-        <v>0.44155397831314896</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0.38000074731181721</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0.40174986723811729</v>
-      </c>
-      <c r="R3" s="0">
-        <v>0.34235819167507225</v>
-      </c>
-      <c r="S3" s="0">
-        <v>0.38537692927798961</v>
-      </c>
-      <c r="T3" s="0">
-        <v>0.37896732030221442</v>
-      </c>
-      <c r="U3" s="0">
-        <v>0.34350409826776862</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.32347882907534214</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.35422276490809407</v>
-      </c>
-      <c r="X3" s="0">
-        <v>0.37841155422522271</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>0.37836982012431503</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>0.34668699056441254</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>0.336728909949085</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>0.38124204549741963</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.34487104060465129</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.42628120820881693</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.35977858273898167</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>0.37796583669995354</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1.8871811347004581</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1.4810984413074635</v>
-      </c>
-      <c r="D2" s="0">
-        <v>3.176993208275408</v>
-      </c>
-      <c r="E2" s="0">
-        <v>1.6183442593397934</v>
-      </c>
-      <c r="F2" s="0">
-        <v>2.2977849545343019</v>
-      </c>
-      <c r="G2" s="0">
-        <v>2.0426082459478145</v>
-      </c>
-      <c r="H2" s="0">
-        <v>2.0932893750431272</v>
-      </c>
-      <c r="I2" s="0">
-        <v>2.9995049553757909</v>
-      </c>
-      <c r="J2" s="0">
-        <v>2.1687319827743421</v>
-      </c>
-      <c r="K2" s="0">
-        <v>2.9543581351711024</v>
-      </c>
-      <c r="L2" s="0">
-        <v>1.7977755540624161</v>
-      </c>
-      <c r="M2" s="0">
-        <v>2.3645989346888201</v>
-      </c>
-      <c r="N2" s="0">
-        <v>1.7976573570951373</v>
-      </c>
-      <c r="O2" s="0">
-        <v>2.2048184978704439</v>
-      </c>
-      <c r="P2" s="0">
-        <v>1.9920145674597138</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>2.1071863784043514</v>
-      </c>
-      <c r="R2" s="0">
-        <v>2.2760405617773123</v>
-      </c>
-      <c r="S2" s="0">
-        <v>2.430029411361911</v>
-      </c>
-      <c r="T2" s="0">
-        <v>2.7572729054657548</v>
-      </c>
-      <c r="U2" s="0">
-        <v>1.7966401689946025</v>
-      </c>
-      <c r="V2" s="0">
-        <v>1.5999227592395491</v>
-      </c>
-      <c r="W2" s="0">
-        <v>2.8037909537060828</v>
-      </c>
-      <c r="X2" s="0">
-        <v>2.0853849254457746</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>2.0270956480046758</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>2.1918538969733348</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>1.7466080823601851</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>2.0580078116848157</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>2.1570965273830032</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>1.9764583856769116</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>2.440868906050957</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>2.1777005642058449</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.28339857280538644</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.30214902656977677</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.28774866339103072</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.28897201863202093</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.25967299386370279</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.29715501389067134</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.25519785929313704</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0.31435420457932461</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.31229491983847474</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0.25196901868444166</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0.26428757575055745</v>
-      </c>
-      <c r="M3" s="0">
-        <v>0.30069684849214484</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0.28914858449985681</v>
-      </c>
-      <c r="O3" s="0">
-        <v>0.30166010593412773</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0.30289338958283529</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0.30720998794802917</v>
-      </c>
-      <c r="R3" s="0">
-        <v>0.23951799212218011</v>
-      </c>
-      <c r="S3" s="0">
-        <v>0.30744362497567357</v>
-      </c>
-      <c r="T3" s="0">
-        <v>0.25626037079306979</v>
-      </c>
-      <c r="U3" s="0">
-        <v>0.30605346595581928</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.281885457432757</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.27601759322395525</v>
-      </c>
-      <c r="X3" s="0">
-        <v>0.27643069084146255</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>0.29637694424364658</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>0.29208713245230128</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>0.28509057115453607</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>0.31204110694408521</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.28025845230995905</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.2509778950715949</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.29761039389980465</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>0.28589534917254544</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="10.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="10.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="10.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="10.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="0">
-        <v>24.58106753524768</v>
-      </c>
-      <c r="C2" s="0">
-        <v>22.552491348546376</v>
-      </c>
-      <c r="D2" s="0">
-        <v>27.826159717306691</v>
-      </c>
-      <c r="E2" s="0">
-        <v>22.773727601094041</v>
-      </c>
-      <c r="F2" s="0">
-        <v>26.87562265900128</v>
-      </c>
-      <c r="G2" s="0">
-        <v>31.375006469371083</v>
-      </c>
-      <c r="H2" s="0">
-        <v>25.128920436750722</v>
-      </c>
-      <c r="I2" s="0">
-        <v>27.664549300369295</v>
-      </c>
-      <c r="J2" s="0">
-        <v>22.052848339077226</v>
-      </c>
-      <c r="K2" s="0">
-        <v>22.214668223789477</v>
-      </c>
-      <c r="L2" s="0">
-        <v>25.257381572639328</v>
-      </c>
-      <c r="M2" s="0">
-        <v>27.801251842532739</v>
-      </c>
-      <c r="N2" s="0">
-        <v>21.328428113999408</v>
-      </c>
-      <c r="O2" s="0">
-        <v>23.874305444735288</v>
-      </c>
-      <c r="P2" s="0">
-        <v>24.376855097687436</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>18.516253605498036</v>
-      </c>
-      <c r="R2" s="0">
-        <v>21.181523020869044</v>
-      </c>
-      <c r="S2" s="0">
-        <v>22.762097740843238</v>
-      </c>
-      <c r="T2" s="0">
-        <v>14.203857420054662</v>
-      </c>
-      <c r="U2" s="0">
-        <v>30.826565127434733</v>
-      </c>
-      <c r="V2" s="0">
-        <v>25.829826626810931</v>
-      </c>
-      <c r="W2" s="0">
-        <v>18.376780839015421</v>
-      </c>
-      <c r="X2" s="0">
-        <v>21.692086749491981</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>29.82607340241697</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>24.071367738852494</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>30.004528899048321</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>29.907116005132686</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>24.743325883965614</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>35.136957139501327</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>23.356122082281033</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>24.870592199445483</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="0">
-        <v>3.7578628233910618</v>
-      </c>
-      <c r="C3" s="0">
-        <v>2.9005591649170719</v>
-      </c>
-      <c r="D3" s="0">
-        <v>3.645504081625456</v>
-      </c>
-      <c r="E3" s="0">
-        <v>4.3141117493755958</v>
-      </c>
-      <c r="F3" s="0">
-        <v>3.0107311758795037</v>
-      </c>
-      <c r="G3" s="0">
-        <v>3.2093201311207555</v>
-      </c>
-      <c r="H3" s="0">
-        <v>2.1805363348578344</v>
-      </c>
-      <c r="I3" s="0">
-        <v>4.3031598599149463</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2.9567056091070669</v>
-      </c>
-      <c r="K3" s="0">
-        <v>3.2533034503422225</v>
-      </c>
-      <c r="L3" s="0">
-        <v>3.4663173512225764</v>
-      </c>
-      <c r="M3" s="0">
-        <v>2.7482087961704504</v>
-      </c>
-      <c r="N3" s="0">
-        <v>6.5821505291786462</v>
-      </c>
-      <c r="O3" s="0">
-        <v>2.918027773503554</v>
-      </c>
-      <c r="P3" s="0">
-        <v>4.0744747526320575</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>2.2619588757548366</v>
-      </c>
-      <c r="R3" s="0">
-        <v>2.6848107904123846</v>
-      </c>
-      <c r="S3" s="0">
-        <v>4.3887163182423441</v>
-      </c>
-      <c r="T3" s="0">
-        <v>2.6548690874502729</v>
-      </c>
-      <c r="U3" s="0">
-        <v>4.5062960386397757</v>
-      </c>
-      <c r="V3" s="0">
-        <v>3.8438281658841826</v>
-      </c>
-      <c r="W3" s="0">
-        <v>3.875913892124319</v>
-      </c>
-      <c r="X3" s="0">
-        <v>4.7698646359809107</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>3.1312437432878539</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>2.533827157294688</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>2.6474547443514775</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>4.9635133038782904</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>1.8441884651357967</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>4.1134385697691576</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>4.3480359927801464</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>3.5296311121408412</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF3"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="10.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="10.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="10.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="10.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
         <v>204</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -6124,97 +6124,97 @@
         <v>205</v>
       </c>
       <c r="B2" s="0">
-        <v>19.96666916976039</v>
+        <v>14.8936019098185</v>
       </c>
       <c r="C2" s="0">
-        <v>11.589636346412256</v>
+        <v>18.545919985800914</v>
       </c>
       <c r="D2" s="0">
-        <v>14.192144416952432</v>
+        <v>10.259514670544544</v>
       </c>
       <c r="E2" s="0">
-        <v>15.342558268013583</v>
+        <v>14.331224685937796</v>
       </c>
       <c r="F2" s="0">
-        <v>16.127405829694979</v>
+        <v>10.949090626157798</v>
       </c>
       <c r="G2" s="0">
-        <v>15.035428319089489</v>
+        <v>9.0924287130508965</v>
       </c>
       <c r="H2" s="0">
-        <v>12.553562203089291</v>
+        <v>14.223017027805625</v>
       </c>
       <c r="I2" s="0">
-        <v>13.090868958535971</v>
+        <v>15.263651330936325</v>
       </c>
       <c r="J2" s="0">
-        <v>15.024836076904389</v>
+        <v>8.3512594308835304</v>
       </c>
       <c r="K2" s="0">
-        <v>9.641329445001638</v>
+        <v>15.738558016376615</v>
       </c>
       <c r="L2" s="0">
-        <v>17.003545370469244</v>
+        <v>16.521243810586316</v>
       </c>
       <c r="M2" s="0">
-        <v>8.4126409094229953</v>
+        <v>8.3035379751921568</v>
       </c>
       <c r="N2" s="0">
-        <v>14.069540197826191</v>
+        <v>13.108121924746943</v>
       </c>
       <c r="O2" s="0">
-        <v>15.17121578960804</v>
+        <v>14.00388788499005</v>
       </c>
       <c r="P2" s="0">
-        <v>19.961777788867021</v>
+        <v>14.525319070450692</v>
       </c>
       <c r="Q2" s="0">
-        <v>18.370457069386386</v>
+        <v>9.0352634080536571</v>
       </c>
       <c r="R2" s="0">
-        <v>14.252759601064122</v>
+        <v>16.160332366881164</v>
       </c>
       <c r="S2" s="0">
-        <v>15.662701401093551</v>
+        <v>13.452449800198879</v>
       </c>
       <c r="T2" s="0">
-        <v>15.204944485118373</v>
+        <v>14.926205684774205</v>
       </c>
       <c r="U2" s="0">
-        <v>15.717005223526698</v>
+        <v>19.727561358382857</v>
       </c>
       <c r="V2" s="0">
-        <v>17.109365344191474</v>
+        <v>15.805156182311794</v>
       </c>
       <c r="W2" s="0">
-        <v>17.730082926515163</v>
+        <v>14.927882788881849</v>
       </c>
       <c r="X2" s="0">
-        <v>10.516259510143714</v>
+        <v>14.937536787423362</v>
       </c>
       <c r="Y2" s="0">
-        <v>15.355058123869368</v>
+        <v>10.549035591085445</v>
       </c>
       <c r="Z2" s="0">
-        <v>11.546121127820527</v>
+        <v>11.801201201160763</v>
       </c>
       <c r="AA2" s="0">
-        <v>18.413930054478818</v>
+        <v>17.339907365097147</v>
       </c>
       <c r="AB2" s="0">
-        <v>14.683675673818465</v>
+        <v>14.394168053099298</v>
       </c>
       <c r="AC2" s="0">
-        <v>14.330550970403509</v>
+        <v>16.66963731837695</v>
       </c>
       <c r="AD2" s="0">
-        <v>13.110096098555791</v>
+        <v>16.410104833411118</v>
       </c>
       <c r="AE2" s="0">
-        <v>15.824119458443366</v>
+        <v>15.082858746534805</v>
       </c>
       <c r="AF2" s="0">
-        <v>14.83367620526924</v>
+        <v>13.977655951631732</v>
       </c>
     </row>
     <row r="3">
@@ -6222,97 +6222,97 @@
         <v>206</v>
       </c>
       <c r="B3" s="0">
-        <v>0.84226767150758475</v>
+        <v>1.4347833140944179</v>
       </c>
       <c r="C3" s="0">
-        <v>1.1120719575229869</v>
+        <v>1.3448897354777964</v>
       </c>
       <c r="D3" s="0">
-        <v>2.2865449737503494</v>
+        <v>1.1881841880170128</v>
       </c>
       <c r="E3" s="0">
-        <v>0.60147646828481238</v>
+        <v>1.6407802526085957</v>
       </c>
       <c r="F3" s="0">
-        <v>1.3437728266650284</v>
+        <v>1.1215733672980477</v>
       </c>
       <c r="G3" s="0">
-        <v>0.82942428515363453</v>
+        <v>1.3816951724581064</v>
       </c>
       <c r="H3" s="0">
-        <v>0.67772419449538179</v>
+        <v>1.2319310388222815</v>
       </c>
       <c r="I3" s="0">
-        <v>1.6150549540890666</v>
+        <v>0.9804187327745485</v>
       </c>
       <c r="J3" s="0">
-        <v>1.2152701979654246</v>
+        <v>1.4530860319641499</v>
       </c>
       <c r="K3" s="0">
-        <v>0.78978527207037574</v>
+        <v>0.9079683864588951</v>
       </c>
       <c r="L3" s="0">
-        <v>1.788753548839318</v>
+        <v>0.69989680747674765</v>
       </c>
       <c r="M3" s="0">
-        <v>0.81740369413962766</v>
+        <v>1.224442665091148</v>
       </c>
       <c r="N3" s="0">
-        <v>1.2817737269857099</v>
+        <v>1.4220702629355404</v>
       </c>
       <c r="O3" s="0">
-        <v>0.71616218536841092</v>
+        <v>1.1363062841825515</v>
       </c>
       <c r="P3" s="0">
-        <v>1.3441239986027078</v>
+        <v>0.88557568128385755</v>
       </c>
       <c r="Q3" s="0">
-        <v>2.1090253667233085</v>
+        <v>1.0157812173820564</v>
       </c>
       <c r="R3" s="0">
-        <v>1.2395378988179624</v>
+        <v>1.2020921392103885</v>
       </c>
       <c r="S3" s="0">
-        <v>0.90791186581597605</v>
+        <v>1.2357472200725641</v>
       </c>
       <c r="T3" s="0">
-        <v>1.1977932620520122</v>
+        <v>0.87513463873975184</v>
       </c>
       <c r="U3" s="0">
-        <v>1.4525001743516197</v>
+        <v>1.19405984625753</v>
       </c>
       <c r="V3" s="0">
-        <v>1.3117468023363938</v>
+        <v>1.1052193827378258</v>
       </c>
       <c r="W3" s="0">
-        <v>0.75823339751109231</v>
+        <v>1.3950800834609027</v>
       </c>
       <c r="X3" s="0">
-        <v>1.4076248326744358</v>
+        <v>0.91128445394633817</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.9808430887726719</v>
+        <v>1.0696410272395718</v>
       </c>
       <c r="Z3" s="0">
-        <v>2.3885220545498753</v>
+        <v>0.90689295218962174</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.83206486813509228</v>
+        <v>0.86155331618235687</v>
       </c>
       <c r="AB3" s="0">
-        <v>1.2848369746432988</v>
+        <v>0.87055867170012546</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.83443891926666325</v>
+        <v>0.9724131959508866</v>
       </c>
       <c r="AD3" s="0">
-        <v>1.1177378556240136</v>
+        <v>0.84742639770721251</v>
       </c>
       <c r="AE3" s="0">
-        <v>1.3736084733836671</v>
+        <v>1.0565454885751704</v>
       </c>
       <c r="AF3" s="0">
-        <v>1.2152678596699502</v>
+        <v>1.1191010650765334</v>
       </c>
     </row>
   </sheetData>
@@ -6328,30 +6328,30 @@
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="9.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="10.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="9.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="10.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="9.7109375" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="10.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
@@ -6461,97 +6461,97 @@
         <v>239</v>
       </c>
       <c r="B2" s="0">
-        <v>11.679941061686229</v>
+        <v>7.6977696381990857</v>
       </c>
       <c r="C2" s="0">
-        <v>7.8899545652710739</v>
+        <v>7.0756890558443164</v>
       </c>
       <c r="D2" s="0">
-        <v>8.3735295214047873</v>
+        <v>9.9356607476508589</v>
       </c>
       <c r="E2" s="0">
-        <v>5.9340561096155824</v>
+        <v>6.5569731589991402</v>
       </c>
       <c r="F2" s="0">
-        <v>10.823876161680857</v>
+        <v>8.1401924902537566</v>
       </c>
       <c r="G2" s="0">
-        <v>8.6773798627214731</v>
+        <v>9.4614179686023618</v>
       </c>
       <c r="H2" s="0">
-        <v>8.2829235268841064</v>
+        <v>6.943005508523405</v>
       </c>
       <c r="I2" s="0">
-        <v>12.980551995324902</v>
+        <v>8.4939178036008833</v>
       </c>
       <c r="J2" s="0">
-        <v>7.5826099059458949</v>
+        <v>7.5761607208973771</v>
       </c>
       <c r="K2" s="0">
-        <v>5.4983375291129439</v>
+        <v>10.473240270238888</v>
       </c>
       <c r="L2" s="0">
-        <v>10.063862453996054</v>
+        <v>5.4089870542305079</v>
       </c>
       <c r="M2" s="0">
-        <v>6.2998511011026332</v>
+        <v>6.2305577992208994</v>
       </c>
       <c r="N2" s="0">
-        <v>9.1809473652939317</v>
+        <v>6.9397023774082118</v>
       </c>
       <c r="O2" s="0">
-        <v>5.8834685225598085</v>
+        <v>9.4300568896086006</v>
       </c>
       <c r="P2" s="0">
-        <v>7.7387335636554706</v>
+        <v>9.3820276577813768</v>
       </c>
       <c r="Q2" s="0">
-        <v>5.127961830979892</v>
+        <v>7.6604383478880322</v>
       </c>
       <c r="R2" s="0">
-        <v>7.0914216741598688</v>
+        <v>5.6951376934622244</v>
       </c>
       <c r="S2" s="0">
-        <v>5.8548207959687115</v>
+        <v>9.1962056744782945</v>
       </c>
       <c r="T2" s="0">
-        <v>8.5173237218053561</v>
+        <v>7.2103530572372785</v>
       </c>
       <c r="U2" s="0">
-        <v>6.0929161997400119</v>
+        <v>6.2685687283359934</v>
       </c>
       <c r="V2" s="0">
-        <v>10.180515128432292</v>
+        <v>7.4435659622224337</v>
       </c>
       <c r="W2" s="0">
-        <v>8.775161659375474</v>
+        <v>5.3898559699763871</v>
       </c>
       <c r="X2" s="0">
-        <v>9.5903688461509446</v>
+        <v>11.957240095707581</v>
       </c>
       <c r="Y2" s="0">
-        <v>10.95268084450216</v>
+        <v>13.342419589965616</v>
       </c>
       <c r="Z2" s="0">
-        <v>7.194583840554758</v>
+        <v>13.258238732552087</v>
       </c>
       <c r="AA2" s="0">
-        <v>6.7250255000503971</v>
+        <v>6.4060152538173574</v>
       </c>
       <c r="AB2" s="0">
-        <v>6.6836213547111054</v>
+        <v>5.377045339730345</v>
       </c>
       <c r="AC2" s="0">
-        <v>9.237775791093167</v>
+        <v>10.223170818532521</v>
       </c>
       <c r="AD2" s="0">
-        <v>8.6872523653439924</v>
+        <v>13.96068946861697</v>
       </c>
       <c r="AE2" s="0">
-        <v>6.7506476663337391</v>
+        <v>7.5455202207734695</v>
       </c>
       <c r="AF2" s="0">
-        <v>8.1450700155152553</v>
+        <v>8.3559941364785448</v>
       </c>
     </row>
     <row r="3">
@@ -6559,97 +6559,97 @@
         <v>240</v>
       </c>
       <c r="B3" s="0">
-        <v>0.77002715619519457</v>
+        <v>0.48386154264811954</v>
       </c>
       <c r="C3" s="0">
-        <v>0.31263566004591842</v>
+        <v>0.53825819389710272</v>
       </c>
       <c r="D3" s="0">
-        <v>0.55947973480756152</v>
+        <v>0.45210846635617064</v>
       </c>
       <c r="E3" s="0">
-        <v>0.4149954749823318</v>
+        <v>0.52146805614333558</v>
       </c>
       <c r="F3" s="0">
-        <v>0.2752848290293341</v>
+        <v>0.4984151099507077</v>
       </c>
       <c r="G3" s="0">
-        <v>0.32691292142966483</v>
+        <v>0.3298167576700633</v>
       </c>
       <c r="H3" s="0">
-        <v>1.1606034841614752</v>
+        <v>0.53839677801365438</v>
       </c>
       <c r="I3" s="0">
-        <v>0.31669681999491911</v>
+        <v>0.53958422819929308</v>
       </c>
       <c r="J3" s="0">
-        <v>0.43677120099447514</v>
+        <v>0.32996087477731273</v>
       </c>
       <c r="K3" s="0">
-        <v>0.63846644958001864</v>
+        <v>0.5771789825370206</v>
       </c>
       <c r="L3" s="0">
-        <v>0.40869489047141289</v>
+        <v>0.43894770395118865</v>
       </c>
       <c r="M3" s="0">
-        <v>0.54507700720685504</v>
+        <v>0.42530581856361077</v>
       </c>
       <c r="N3" s="0">
-        <v>0.50838907541371292</v>
+        <v>0.39963221702161827</v>
       </c>
       <c r="O3" s="0">
-        <v>0.69392389235160412</v>
+        <v>0.44765257714642825</v>
       </c>
       <c r="P3" s="0">
-        <v>0.50222821732303247</v>
+        <v>0.54336007318153767</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.51158210261379333</v>
+        <v>0.38207752165222503</v>
       </c>
       <c r="R3" s="0">
-        <v>0.46631294987035266</v>
+        <v>0.4375574900950534</v>
       </c>
       <c r="S3" s="0">
-        <v>0.49697307694579818</v>
+        <v>0.54617456604368886</v>
       </c>
       <c r="T3" s="0">
-        <v>0.55089756908355592</v>
+        <v>0.54618501914930495</v>
       </c>
       <c r="U3" s="0">
-        <v>0.42598516499319888</v>
+        <v>0.41685602318677778</v>
       </c>
       <c r="V3" s="0">
-        <v>0.40926776707809032</v>
+        <v>0.52636992834018526</v>
       </c>
       <c r="W3" s="0">
-        <v>0.55869349877830055</v>
+        <v>0.43086616083049512</v>
       </c>
       <c r="X3" s="0">
-        <v>0.42497535696113337</v>
+        <v>0.38837214386691665</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.34199470971189577</v>
+        <v>0.51082241219636004</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.36245744194911028</v>
+        <v>0.3776436734531235</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.61876279870172479</v>
+        <v>0.42483040218926382</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.732664484448173</v>
+        <v>0.54263887236098829</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.50867490922809</v>
+        <v>0.47213650629300707</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.32266688755945921</v>
+        <v>0.43538825585316099</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.72972335528532994</v>
+        <v>0.42206469662549012</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.51106062957318388</v>
+        <v>0.46413103507310688</v>
       </c>
     </row>
   </sheetData>
